--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
@@ -688,10 +688,10 @@
         <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -700,16 +700,16 @@
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -730,13 +730,13 @@
         <v>110</v>
       </c>
       <c r="AA2" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
         <v>40</v>
@@ -766,7 +766,7 @@
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
         <v>5.6</v>
@@ -805,7 +805,7 @@
         <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
@@ -814,7 +814,7 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -826,19 +826,19 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
         <v>3.15</v>
@@ -853,7 +853,7 @@
         <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -892,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -940,13 +940,13 @@
         <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="H4" t="n">
         <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -964,19 +964,19 @@
         <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
         <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1075,7 +1075,7 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
         <v>2.28</v>
@@ -1090,22 +1090,22 @@
         <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
@@ -1114,10 +1114,10 @@
         <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
         <v>1.72</v>
@@ -1348,7 +1348,7 @@
         <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.32</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
         <v>3.65</v>
@@ -1615,13 +1615,13 @@
         <v>1.68</v>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H9" t="n">
         <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1645,7 +1645,7 @@
         <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.75</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>3.9</v>
@@ -1780,7 +1780,7 @@
         <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G11" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
@@ -1903,31 +1903,31 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,31 +1936,31 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
         <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1969,13 +1969,13 @@
         <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
         <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
         <v>44</v>
@@ -1984,10 +1984,10 @@
         <v>100</v>
       </c>
       <c r="AN11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
         <v>5.1</v>
@@ -2032,7 +2032,7 @@
         <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
         <v>1.01</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G18" t="n">
         <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I18" t="n">
         <v>2.9</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G26" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="H26" t="n">
         <v>4.6</v>
@@ -3940,7 +3940,7 @@
         <v>1.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H27" t="n">
         <v>3.75</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G29" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H29" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="I29" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
         <v>1.79</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
         <v>18</v>
@@ -4615,7 +4615,7 @@
         <v>1.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4726,13 +4726,13 @@
         <v>8.4</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J32" t="n">
         <v>4.8</v>
       </c>
       <c r="K32" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="G33" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="H33" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>4.6</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>2.48</v>
       </c>
       <c r="H34" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -5179,7 +5179,7 @@
         <v>28</v>
       </c>
       <c r="Y35" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z35" t="n">
         <v>50</v>
@@ -5194,7 +5194,7 @@
         <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE35" t="n">
         <v>60</v>
@@ -5293,16 +5293,16 @@
         <v>1.26</v>
       </c>
       <c r="R36" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T36" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U36" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>16</v>
       </c>
       <c r="AH36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G37" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H37" t="n">
         <v>2.5</v>
@@ -5407,7 +5407,7 @@
         <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q37" t="n">
         <v>1.59</v>
@@ -5437,7 +5437,7 @@
         <v>1.53</v>
       </c>
       <c r="U37" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>18</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD37" t="n">
         <v>12.5</v>
@@ -5551,28 +5551,28 @@
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O38" t="n">
         <v>1.18</v>
       </c>
       <c r="P38" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R38" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T38" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U38" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>13</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA38" t="n">
         <v>16.5</v>
@@ -5602,7 +5602,7 @@
         <v>10.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF38" t="n">
         <v>55</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.02</v>
+        <v>2.42</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="H39" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.02</v>
+        <v>1.97</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="G40" t="n">
-        <v>1000</v>
+        <v>1.32</v>
       </c>
       <c r="H40" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="I40" t="n">
         <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>2.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5935,10 +5935,10 @@
         <v>1.45</v>
       </c>
       <c r="G41" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H41" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I41" t="n">
         <v>1000</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6073,10 +6073,10 @@
         <v>1.66</v>
       </c>
       <c r="H42" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I42" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G43" t="n">
         <v>1.69</v>
       </c>
       <c r="H43" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I43" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J43" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
         <v>980</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>2.76</v>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>2.54</v>
@@ -6349,7 +6349,7 @@
         <v>3.05</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>4.1</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>1.77</v>
       </c>
       <c r="G45" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H45" t="n">
         <v>5</v>
@@ -6487,7 +6487,7 @@
         <v>3.75</v>
       </c>
       <c r="K45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G46" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H46" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J46" t="n">
         <v>4.4</v>
       </c>
       <c r="K46" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6748,7 +6748,7 @@
         <v>3.15</v>
       </c>
       <c r="H47" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I47" t="n">
         <v>2.66</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q47" t="n">
         <v>1.98</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G48" t="n">
         <v>2.82</v>
       </c>
       <c r="H48" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I48" t="n">
         <v>3.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6910,7 +6910,7 @@
         <v>1.84</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>1.24</v>
       </c>
       <c r="G49" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H49" t="n">
         <v>14.5</v>
@@ -7027,7 +7027,7 @@
         <v>7.6</v>
       </c>
       <c r="K49" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7066,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z49" t="n">
         <v>160</v>
@@ -7078,7 +7078,7 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
         <v>17.5</v>
@@ -7090,10 +7090,10 @@
         <v>230</v>
       </c>
       <c r="AF49" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG49" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH49" t="n">
         <v>30</v>
@@ -7105,7 +7105,7 @@
         <v>10.5</v>
       </c>
       <c r="AK49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL49" t="n">
         <v>30</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G50" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H50" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
         <v>5.1</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K50" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>3.2</v>
       </c>
       <c r="T51" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U51" t="n">
         <v>2.36</v>
@@ -7345,7 +7345,7 @@
         <v>21</v>
       </c>
       <c r="AA51" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="n">
         <v>12.5</v>
@@ -7375,7 +7375,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL51" t="n">
         <v>40</v>
@@ -7423,13 +7423,13 @@
         <v>3.85</v>
       </c>
       <c r="H52" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I52" t="n">
         <v>2.16</v>
       </c>
-      <c r="I52" t="n">
-        <v>2.18</v>
-      </c>
       <c r="J52" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K52" t="n">
         <v>3.65</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G53" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H53" t="n">
         <v>2.98</v>
@@ -7564,7 +7564,7 @@
         <v>3.3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K53" t="n">
         <v>4</v>
@@ -7582,10 +7582,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -7696,7 +7696,7 @@
         <v>2.44</v>
       </c>
       <c r="I54" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J54" t="n">
         <v>3.45</v>
@@ -7717,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="G55" t="n">
         <v>2.02</v>
       </c>
       <c r="H55" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I55" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J55" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G56" t="n">
-        <v>800</v>
+        <v>5.8</v>
       </c>
       <c r="H56" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I56" t="n">
         <v>1.96</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K56" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.93</v>
+        <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="H57" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="I57" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K57" t="n">
-        <v>950</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
         <v>2.28</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="G58" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H58" t="n">
         <v>1.04</v>
@@ -8239,7 +8239,7 @@
         <v>500</v>
       </c>
       <c r="J58" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="K58" t="n">
         <v>950</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G59" t="n">
         <v>3.65</v>
@@ -8371,13 +8371,13 @@
         <v>2.24</v>
       </c>
       <c r="I59" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="J59" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K59" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q59" t="n">
         <v>1.81</v>
@@ -8506,10 +8506,10 @@
         <v>1.64</v>
       </c>
       <c r="I60" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J60" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
         <v>4.6</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8770,16 +8770,16 @@
         <v>1.22</v>
       </c>
       <c r="G62" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H62" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="I62" t="n">
         <v>20</v>
       </c>
       <c r="J62" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K62" t="n">
         <v>8.199999999999999</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.32</v>
+        <v>6.4</v>
       </c>
       <c r="G63" t="n">
         <v>980</v>
       </c>
       <c r="H63" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="I63" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="J63" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q63" t="n">
         <v>2.18</v>
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H64" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I64" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J64" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K64" t="n">
         <v>4.4</v>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G65" t="n">
         <v>1.81</v>
@@ -9181,10 +9181,10 @@
         <v>5.7</v>
       </c>
       <c r="I65" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K65" t="n">
         <v>3.9</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q65" t="n">
         <v>2.14</v>
@@ -9442,13 +9442,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G67" t="n">
         <v>3.2</v>
       </c>
       <c r="H67" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I67" t="n">
         <v>2.98</v>
@@ -9610,7 +9610,7 @@
         <v>3.1</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G69" t="n">
         <v>2.1</v>
       </c>
       <c r="H69" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I69" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J69" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K69" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="G70" t="n">
         <v>3.1</v>
@@ -9859,7 +9859,7 @@
         <v>3.15</v>
       </c>
       <c r="J70" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K70" t="n">
         <v>3.1</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="Q70" t="n">
         <v>1.01</v>
@@ -10129,7 +10129,7 @@
         <v>4.7</v>
       </c>
       <c r="J72" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K72" t="n">
         <v>4</v>
@@ -10144,7 +10144,7 @@
         <v>4.1</v>
       </c>
       <c r="O72" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P72" t="n">
         <v>2.06</v>
@@ -10252,19 +10252,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G73" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H73" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I73" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J73" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K73" t="n">
         <v>3.45</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>1.95</v>
       </c>
       <c r="G74" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>3.3</v>
@@ -10399,10 +10399,10 @@
         <v>4.8</v>
       </c>
       <c r="J74" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K74" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G77" t="n">
         <v>12.5</v>
@@ -10801,13 +10801,13 @@
         <v>1.32</v>
       </c>
       <c r="I77" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J77" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="Q77" t="n">
         <v>1.49</v>
@@ -11062,19 +11062,19 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="G79" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H79" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I79" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="J79" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="K79" t="n">
         <v>950</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11332,19 +11332,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G81" t="n">
         <v>3.2</v>
       </c>
       <c r="H81" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I81" t="n">
         <v>3.6</v>
       </c>
       <c r="J81" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="K81" t="n">
         <v>3.45</v>
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q81" t="n">
         <v>2.34</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.02</v>
+        <v>3.85</v>
       </c>
       <c r="G82" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="H82" t="n">
-        <v>1.02</v>
+        <v>1.75</v>
       </c>
       <c r="I82" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="J82" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="K82" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11614,7 +11614,7 @@
         <v>2.56</v>
       </c>
       <c r="J83" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K83" t="n">
         <v>3.85</v>
@@ -11743,7 +11743,7 @@
         <v>4.1</v>
       </c>
       <c r="H84" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I84" t="n">
         <v>1.97</v>
@@ -11878,16 +11878,16 @@
         <v>3.9</v>
       </c>
       <c r="H85" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I85" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J85" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K85" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11902,10 +11902,10 @@
         <v>1.33</v>
       </c>
       <c r="P85" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R85" t="n">
         <v>1.36</v>
@@ -11959,7 +11959,7 @@
         <v>18.5</v>
       </c>
       <c r="AI85" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ85" t="n">
         <v>75</v>
@@ -11974,7 +11974,7 @@
         <v>120</v>
       </c>
       <c r="AN85" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO85" t="n">
         <v>17</v>
@@ -12007,10 +12007,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G86" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H86" t="n">
         <v>7.6</v>
@@ -12022,7 +12022,7 @@
         <v>4.8</v>
       </c>
       <c r="K86" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12040,7 +12040,7 @@
         <v>2.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12145,13 +12145,13 @@
         <v>4.1</v>
       </c>
       <c r="G87" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H87" t="n">
         <v>1.8</v>
       </c>
       <c r="I87" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J87" t="n">
         <v>3.75</v>
@@ -12322,7 +12322,7 @@
         <v>1.99</v>
       </c>
       <c r="U88" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y88" t="n">
         <v>9.199999999999999</v>
@@ -12340,7 +12340,7 @@
         <v>21</v>
       </c>
       <c r="AA88" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB88" t="n">
         <v>9.800000000000001</v>
@@ -12379,7 +12379,7 @@
         <v>160</v>
       </c>
       <c r="AN88" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO88" t="n">
         <v>40</v>
@@ -12415,7 +12415,7 @@
         <v>2.06</v>
       </c>
       <c r="G89" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H89" t="n">
         <v>4.1</v>
@@ -12424,7 +12424,7 @@
         <v>4.6</v>
       </c>
       <c r="J89" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K89" t="n">
         <v>3.5</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G90" t="n">
         <v>1.74</v>
@@ -12562,7 +12562,7 @@
         <v>3.7</v>
       </c>
       <c r="K90" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12580,7 +12580,7 @@
         <v>1.77</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12682,10 +12682,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="G91" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H91" t="n">
         <v>1.25</v>
@@ -12712,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12823,13 +12823,13 @@
         <v>1.74</v>
       </c>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I92" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J92" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K92" t="n">
         <v>4.4</v>
@@ -12850,7 +12850,7 @@
         <v>1.84</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12955,7 +12955,7 @@
         <v>3.6</v>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H93" t="n">
         <v>2.08</v>
@@ -12964,7 +12964,7 @@
         <v>2.14</v>
       </c>
       <c r="J93" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K93" t="n">
         <v>3.95</v>
@@ -12988,7 +12988,7 @@
         <v>1.71</v>
       </c>
       <c r="R93" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S93" t="n">
         <v>2.8</v>
@@ -12997,7 +12997,7 @@
         <v>1.66</v>
       </c>
       <c r="U93" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V93" t="n">
         <v>0</v>
@@ -13033,10 +13033,10 @@
         <v>32</v>
       </c>
       <c r="AG93" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI93" t="n">
         <v>32</v>
@@ -13045,16 +13045,16 @@
         <v>80</v>
       </c>
       <c r="AK93" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL93" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM93" t="n">
         <v>80</v>
       </c>
       <c r="AN93" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO93" t="n">
         <v>11.5</v>
@@ -13087,13 +13087,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G94" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I94" t="n">
         <v>4.7</v>
@@ -13102,7 +13102,7 @@
         <v>3.4</v>
       </c>
       <c r="K94" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -13222,16 +13222,16 @@
         </is>
       </c>
       <c r="F95" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G95" t="n">
         <v>2.64</v>
       </c>
-      <c r="G95" t="n">
-        <v>2.7</v>
-      </c>
       <c r="H95" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="I95" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J95" t="n">
         <v>3.35</v>
@@ -13252,10 +13252,10 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G96" t="n">
         <v>1.91</v>
       </c>
       <c r="H96" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
         <v>4.4</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q96" t="n">
         <v>1.56</v>
@@ -13498,10 +13498,10 @@
         <v>4.5</v>
       </c>
       <c r="H97" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I97" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J97" t="n">
         <v>3.1</v>
@@ -13630,7 +13630,7 @@
         <v>5.3</v>
       </c>
       <c r="G98" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H98" t="n">
         <v>1.87</v>
@@ -13639,7 +13639,7 @@
         <v>1.91</v>
       </c>
       <c r="J98" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K98" t="n">
         <v>3.45</v>
@@ -13822,7 +13822,7 @@
         <v>16.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA99" t="n">
         <v>30</v>
@@ -13843,7 +13843,7 @@
         <v>32</v>
       </c>
       <c r="AG99" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH99" t="n">
         <v>14.5</v>
@@ -13867,7 +13867,7 @@
         <v>20</v>
       </c>
       <c r="AO99" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -13900,10 +13900,10 @@
         <v>2.78</v>
       </c>
       <c r="G100" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H100" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="I100" t="n">
         <v>3.05</v>
@@ -13930,7 +13930,7 @@
         <v>1.65</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>2.42</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R101" t="n">
         <v>1.57</v>
@@ -14089,10 +14089,10 @@
         <v>24</v>
       </c>
       <c r="Y101" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z101" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA101" t="n">
         <v>75</v>
@@ -14107,10 +14107,10 @@
         <v>18</v>
       </c>
       <c r="AE101" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF101" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG101" t="n">
         <v>11</v>
@@ -14170,10 +14170,10 @@
         <v>2.56</v>
       </c>
       <c r="G102" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="H102" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I102" t="n">
         <v>3.2</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14437,22 +14437,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H104" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I104" t="n">
         <v>2.28</v>
       </c>
       <c r="J104" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K104" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G105" t="n">
         <v>4.3</v>
@@ -14581,7 +14581,7 @@
         <v>2.42</v>
       </c>
       <c r="I105" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J105" t="n">
         <v>2.86</v>
@@ -14707,19 +14707,19 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G106" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="H106" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I106" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J106" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K106" t="n">
         <v>4.4</v>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q106" t="n">
         <v>1.98</v>
@@ -14842,22 +14842,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G107" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H107" t="n">
         <v>2.46</v>
       </c>
       <c r="I107" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="J107" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K107" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14875,7 +14875,7 @@
         <v>1.68</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
@@ -670,22 +670,22 @@
         <v>1.35</v>
       </c>
       <c r="G2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>5.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -697,40 +697,40 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
         <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AB2" t="n">
         <v>8.6</v>
@@ -766,13 +766,13 @@
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.3</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>15</v>
@@ -892,22 +892,22 @@
         <v>46</v>
       </c>
       <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO3" t="n">
         <v>32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1075,10 +1075,10 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="I5" t="n">
         <v>2.4</v>
@@ -1090,13 +1090,13 @@
         <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.31</v>
@@ -1105,7 +1105,7 @@
         <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
         <v>1.39</v>
@@ -1123,7 +1123,7 @@
         <v>1.72</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="n">
         <v>14.5</v>
@@ -1150,10 +1150,10 @@
         <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1162,19 +1162,19 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
         <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1360,94 +1360,94 @@
         <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="H8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,13 +1510,13 @@
         <v>1.81</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
         <v>17</v>
@@ -1624,7 +1624,7 @@
         <v>1.32</v>
       </c>
       <c r="J9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
         <v>7.6</v>
@@ -1636,19 +1636,19 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="Q9" t="n">
         <v>1.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.93</v>
@@ -1765,28 +1765,28 @@
         <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.59</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1798,7 +1798,7 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W12" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2155,109 +2155,109 @@
         <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I13" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>1.65</v>
+        <v>2.66</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="14">
@@ -2293,7 +2293,7 @@
         <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I14" t="n">
         <v>2.2</v>
@@ -2305,94 +2305,94 @@
         <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
         <v>2.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>1.27</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H16" t="n">
         <v>2.72</v>
@@ -2569,22 +2569,22 @@
         <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
         <v>2.18</v>
@@ -2593,76 +2593,76 @@
         <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -2698,10 +2698,10 @@
         <v>1.74</v>
       </c>
       <c r="H17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
@@ -2710,16 +2710,16 @@
         <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
         <v>2.22</v>
@@ -2728,76 +2728,76 @@
         <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2839,22 +2839,22 @@
         <v>3.05</v>
       </c>
       <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.4</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
         <v>1.77</v>
@@ -2869,16 +2869,16 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
         <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -2887,13 +2887,13 @@
         <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
         <v>7.2</v>
@@ -2905,7 +2905,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -2923,16 +2923,16 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2965,31 +2965,31 @@
         <v>1.85</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="n">
         <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
         <v>2.1</v>
@@ -2998,76 +2998,76 @@
         <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -3100,13 +3100,13 @@
         <v>2.92</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3115,16 +3115,16 @@
         <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
         <v>1.96</v>
@@ -3133,76 +3133,76 @@
         <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3379,73 +3379,73 @@
         <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
         <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P22" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y22" t="n">
         <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA22" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
@@ -3454,25 +3454,25 @@
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="I23" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3643,106 +3643,106 @@
         <v>2.22</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="G25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H25" t="n">
         <v>6</v>
@@ -3784,100 +3784,100 @@
         <v>7.2</v>
       </c>
       <c r="J25" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P25" t="n">
         <v>2.92</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="G26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I27" t="n">
         <v>3.05</v>
@@ -4060,16 +4060,16 @@
         <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
         <v>1.75</v>
@@ -4078,76 +4078,76 @@
         <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4195,16 +4195,16 @@
         <v>950</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
         <v>1.24</v>
@@ -4213,76 +4213,76 @@
         <v>1.01</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4315,109 +4315,109 @@
         <v>2.22</v>
       </c>
       <c r="G29" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="H29" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P29" t="n">
         <v>2.58</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4453,106 +4453,106 @@
         <v>2.58</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P30" t="n">
         <v>2.18</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.01</v>
       </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.01</v>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.01</v>
       </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4987,112 +4987,112 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.01</v>
       </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G35" t="n">
         <v>2.88</v>
       </c>
       <c r="H35" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
         <v>4.3</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G36" t="n">
         <v>1.69</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.71</v>
-      </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I36" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J36" t="n">
         <v>3.9</v>
@@ -5302,7 +5302,7 @@
         <v>2.12</v>
       </c>
       <c r="U36" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,31 +5311,31 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="n">
         <v>55</v>
       </c>
       <c r="AA36" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE36" t="n">
         <v>110</v>
       </c>
       <c r="AF36" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG36" t="n">
         <v>10.5</v>
@@ -5356,13 +5356,13 @@
         <v>46</v>
       </c>
       <c r="AM36" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN36" t="n">
         <v>12.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37">
@@ -5398,10 +5398,10 @@
         <v>1.48</v>
       </c>
       <c r="H37" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J37" t="n">
         <v>4.8</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G38" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H38" t="n">
         <v>4.6</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J38" t="n">
         <v>3.05</v>
       </c>
       <c r="K38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>1.51</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>5.4</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J39" t="n">
         <v>4</v>
@@ -5695,7 +5695,7 @@
         <v>2.14</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5800,7 +5800,7 @@
         <v>5.2</v>
       </c>
       <c r="G40" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="H40" t="n">
         <v>1.66</v>
@@ -5809,7 +5809,7 @@
         <v>1.74</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K40" t="n">
         <v>4.7</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5935,13 +5935,13 @@
         <v>1.82</v>
       </c>
       <c r="G41" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H41" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I41" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J41" t="n">
         <v>3.4</v>
@@ -5965,7 +5965,7 @@
         <v>1.72</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G43" t="n">
         <v>2.32</v>
@@ -6214,7 +6214,7 @@
         <v>4.2</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
         <v>3.45</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G45" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H45" t="n">
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="J45" t="n">
         <v>3.15</v>
       </c>
       <c r="K45" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>1.97</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H46" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="I46" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J46" t="n">
         <v>3.85</v>
       </c>
       <c r="K46" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>1.53</v>
       </c>
       <c r="U46" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6676,10 +6676,10 @@
         <v>18</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE46" t="n">
         <v>23</v>
@@ -6712,7 +6712,7 @@
         <v>16.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="47">
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G47" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H47" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="I47" t="n">
         <v>1.64</v>
       </c>
       <c r="J47" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K47" t="n">
         <v>4.8</v>
@@ -6772,13 +6772,13 @@
         <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q47" t="n">
         <v>1.54</v>
       </c>
       <c r="R47" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S47" t="n">
         <v>2.34</v>
@@ -6787,7 +6787,7 @@
         <v>1.64</v>
       </c>
       <c r="U47" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6805,10 +6805,10 @@
         <v>12.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB47" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
         <v>11</v>
@@ -6826,7 +6826,7 @@
         <v>23</v>
       </c>
       <c r="AH47" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI47" t="n">
         <v>26</v>
@@ -6838,10 +6838,10 @@
         <v>65</v>
       </c>
       <c r="AL47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN47" t="n">
         <v>50</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G48" t="n">
         <v>1.67</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.68</v>
       </c>
       <c r="H48" t="n">
         <v>5.5</v>
@@ -6904,10 +6904,10 @@
         <v>6.2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q48" t="n">
         <v>1.55</v>
@@ -6916,10 +6916,10 @@
         <v>1.7</v>
       </c>
       <c r="S48" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T48" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
@@ -6934,16 +6934,16 @@
         <v>28</v>
       </c>
       <c r="Y48" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA48" t="n">
         <v>140</v>
       </c>
       <c r="AB48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC48" t="n">
         <v>10.5</v>
@@ -6952,10 +6952,10 @@
         <v>22</v>
       </c>
       <c r="AE48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG48" t="n">
         <v>11</v>
@@ -6982,7 +6982,7 @@
         <v>6.4</v>
       </c>
       <c r="AO48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G49" t="n">
         <v>2.48</v>
@@ -7039,7 +7039,7 @@
         <v>4.4</v>
       </c>
       <c r="O49" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P49" t="n">
         <v>2.14</v>
@@ -7048,7 +7048,7 @@
         <v>1.82</v>
       </c>
       <c r="R49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S49" t="n">
         <v>3.05</v>
@@ -7066,22 +7066,22 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y49" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z49" t="n">
         <v>23</v>
       </c>
       <c r="AA49" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB49" t="n">
         <v>12.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD49" t="n">
         <v>14</v>
@@ -7117,7 +7117,7 @@
         <v>17.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -7153,10 +7153,10 @@
         <v>1.12</v>
       </c>
       <c r="H50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J50" t="n">
         <v>14</v>
@@ -7177,7 +7177,7 @@
         <v>1.08</v>
       </c>
       <c r="P50" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Q50" t="n">
         <v>1.26</v>
@@ -7192,7 +7192,7 @@
         <v>2.14</v>
       </c>
       <c r="U50" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
@@ -7222,16 +7222,16 @@
         <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="AF50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG50" t="n">
         <v>16.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
@@ -7240,7 +7240,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AK50" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL50" t="n">
         <v>44</v>
@@ -7252,7 +7252,7 @@
         <v>2.22</v>
       </c>
       <c r="AO50" t="n">
-        <v>470</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51">
@@ -7288,10 +7288,10 @@
         <v>3.9</v>
       </c>
       <c r="H51" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I51" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J51" t="n">
         <v>3.6</v>
@@ -7324,7 +7324,7 @@
         <v>3.85</v>
       </c>
       <c r="T51" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U51" t="n">
         <v>2.06</v>
@@ -7345,7 +7345,7 @@
         <v>13</v>
       </c>
       <c r="AA51" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB51" t="n">
         <v>13</v>
@@ -7357,7 +7357,7 @@
         <v>10.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF51" t="n">
         <v>27</v>
@@ -7372,13 +7372,13 @@
         <v>40</v>
       </c>
       <c r="AJ51" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="n">
         <v>50</v>
       </c>
       <c r="AL51" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM51" t="n">
         <v>100</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G52" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H52" t="n">
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
         <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,19 +7552,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G53" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H53" t="n">
         <v>2.88</v>
       </c>
       <c r="I53" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
         <v>3.6</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q53" t="n">
         <v>2.02</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G54" t="n">
         <v>3.45</v>
@@ -7696,13 +7696,13 @@
         <v>2.34</v>
       </c>
       <c r="I54" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J54" t="n">
         <v>3.4</v>
       </c>
       <c r="K54" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q54" t="n">
         <v>2</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G55" t="n">
         <v>1.53</v>
@@ -7831,7 +7831,7 @@
         <v>7.8</v>
       </c>
       <c r="I55" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J55" t="n">
         <v>4.4</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q55" t="n">
         <v>1.75</v>
@@ -7960,7 +7960,7 @@
         <v>1.97</v>
       </c>
       <c r="G56" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
@@ -7969,7 +7969,7 @@
         <v>5.1</v>
       </c>
       <c r="J56" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K56" t="n">
         <v>3.85</v>
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="G57" t="n">
         <v>3.2</v>
       </c>
       <c r="H57" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I57" t="n">
         <v>3.05</v>
@@ -8107,7 +8107,7 @@
         <v>3.2</v>
       </c>
       <c r="K57" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
         <v>1.83</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G58" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K58" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G59" t="n">
         <v>1.66</v>
@@ -8377,7 +8377,7 @@
         <v>4</v>
       </c>
       <c r="K59" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G60" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H60" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K60" t="n">
         <v>4.8</v>
@@ -8530,7 +8530,7 @@
         <v>1.78</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -8698,16 +8698,16 @@
         <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD61" t="n">
         <v>55</v>
       </c>
       <c r="AE61" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF61" t="n">
         <v>8.800000000000001</v>
@@ -8794,7 +8794,7 @@
         <v>4.2</v>
       </c>
       <c r="O62" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P62" t="n">
         <v>2.08</v>
@@ -8824,10 +8824,10 @@
         <v>16</v>
       </c>
       <c r="Y62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z62" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA62" t="n">
         <v>44</v>
@@ -8839,13 +8839,13 @@
         <v>7.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE62" t="n">
         <v>30</v>
       </c>
       <c r="AF62" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AG62" t="n">
         <v>12</v>
@@ -8857,10 +8857,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL62" t="n">
         <v>40</v>
@@ -8869,10 +8869,10 @@
         <v>75</v>
       </c>
       <c r="AN62" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO62" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G63" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="H63" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I63" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
@@ -9070,7 +9070,7 @@
         <v>2.1</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G65" t="n">
         <v>3.35</v>
@@ -9181,7 +9181,7 @@
         <v>2.2</v>
       </c>
       <c r="I65" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J65" t="n">
         <v>3.7</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G66" t="n">
         <v>2.04</v>
@@ -9316,10 +9316,10 @@
         <v>4.4</v>
       </c>
       <c r="I66" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J66" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K66" t="n">
         <v>4</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G67" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="H67" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="I67" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="J67" t="n">
         <v>3.8</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q67" t="n">
         <v>1.71</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="G68" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="J68" t="n">
         <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9718,16 +9718,16 @@
         <v>1.37</v>
       </c>
       <c r="H69" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
         <v>500</v>
       </c>
       <c r="J69" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K69" t="n">
-        <v>950</v>
+        <v>7.4</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="G70" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="I70" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="J70" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K70" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.72</v>
+        <v>1.15</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9991,10 +9991,10 @@
         <v>1.64</v>
       </c>
       <c r="I71" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J71" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K71" t="n">
         <v>4.6</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G72" t="n">
         <v>3.4</v>
@@ -10126,10 +10126,10 @@
         <v>2.12</v>
       </c>
       <c r="I72" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J72" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K72" t="n">
         <v>4.4</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.09</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="H74" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I74" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="J74" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K74" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q76" t="n">
         <v>2.38</v>
@@ -10702,7 +10702,7 @@
         <v>2.02</v>
       </c>
       <c r="U76" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -10714,16 +10714,16 @@
         <v>10.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z76" t="n">
         <v>21</v>
       </c>
       <c r="AA76" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB76" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC76" t="n">
         <v>7.4</v>
@@ -10741,10 +10741,10 @@
         <v>12</v>
       </c>
       <c r="AH76" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI76" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ76" t="n">
         <v>38</v>
@@ -10756,13 +10756,13 @@
         <v>55</v>
       </c>
       <c r="AM76" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN76" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO76" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77">
@@ -10792,19 +10792,19 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G77" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I77" t="n">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="J77" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K77" t="n">
         <v>3.9</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10933,10 +10933,10 @@
         <v>1.59</v>
       </c>
       <c r="H78" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I78" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J78" t="n">
         <v>4.9</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H79" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K79" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11092,10 +11092,10 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G80" t="n">
         <v>3.1</v>
@@ -11212,7 +11212,7 @@
         <v>2.86</v>
       </c>
       <c r="K80" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>1.48</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G82" t="n">
         <v>1.94</v>
@@ -11491,7 +11491,7 @@
         <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O82" t="n">
         <v>1.29</v>
@@ -11524,10 +11524,10 @@
         <v>16.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA82" t="n">
         <v>120</v>
@@ -11539,10 +11539,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD82" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AE82" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF82" t="n">
         <v>12</v>
@@ -11554,16 +11554,16 @@
         <v>18.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ82" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK82" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL82" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM82" t="n">
         <v>120</v>
@@ -11605,13 +11605,13 @@
         <v>2.24</v>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H83" t="n">
         <v>3.35</v>
       </c>
       <c r="I83" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J83" t="n">
         <v>3.1</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G84" t="n">
         <v>2.54</v>
@@ -11746,10 +11746,10 @@
         <v>3.35</v>
       </c>
       <c r="I84" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K84" t="n">
         <v>3.45</v>
@@ -12310,7 +12310,7 @@
         <v>2.76</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12412,10 +12412,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H89" t="n">
         <v>6</v>
@@ -12469,7 +12469,7 @@
         <v>14.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z89" t="n">
         <v>50</v>
@@ -12478,7 +12478,7 @@
         <v>210</v>
       </c>
       <c r="AB89" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC89" t="n">
         <v>9.199999999999999</v>
@@ -12487,10 +12487,10 @@
         <v>24</v>
       </c>
       <c r="AE89" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG89" t="n">
         <v>10.5</v>
@@ -12499,16 +12499,16 @@
         <v>24</v>
       </c>
       <c r="AI89" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ89" t="n">
         <v>16.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL89" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM89" t="n">
         <v>170</v>
@@ -12517,7 +12517,7 @@
         <v>11</v>
       </c>
       <c r="AO89" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90">
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="G90" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="H90" t="n">
-        <v>7.2</v>
+        <v>2.62</v>
       </c>
       <c r="I90" t="n">
-        <v>9.800000000000001</v>
+        <v>130</v>
       </c>
       <c r="J90" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="K90" t="n">
-        <v>5.5</v>
+        <v>950</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12682,19 +12682,19 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="H91" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I91" t="n">
         <v>1000</v>
       </c>
       <c r="J91" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="K91" t="n">
         <v>950</v>
@@ -12712,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G92" t="n">
         <v>3.2</v>
@@ -12829,7 +12829,7 @@
         <v>3.6</v>
       </c>
       <c r="J92" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K92" t="n">
         <v>3.45</v>
@@ -12850,7 +12850,7 @@
         <v>1.6</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="G93" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="H93" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="I93" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="J93" t="n">
         <v>4.2</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13090,16 +13090,16 @@
         <v>3.05</v>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H94" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="I94" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J94" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K94" t="n">
         <v>4.2</v>
@@ -13117,10 +13117,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -13231,7 +13231,7 @@
         <v>1.96</v>
       </c>
       <c r="I95" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J95" t="n">
         <v>4.1</v>
@@ -13291,7 +13291,7 @@
         <v>20</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD95" t="n">
         <v>10.5</v>
@@ -13315,10 +13315,10 @@
         <v>75</v>
       </c>
       <c r="AK95" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL95" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM95" t="n">
         <v>65</v>
@@ -13357,16 +13357,16 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G96" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H96" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I96" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J96" t="n">
         <v>3.6</v>
@@ -13381,7 +13381,7 @@
         <v>1.07</v>
       </c>
       <c r="N96" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O96" t="n">
         <v>1.33</v>
@@ -13399,7 +13399,7 @@
         <v>3.55</v>
       </c>
       <c r="T96" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U96" t="n">
         <v>2.12</v>
@@ -13420,10 +13420,10 @@
         <v>13.5</v>
       </c>
       <c r="AA96" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB96" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC96" t="n">
         <v>8</v>
@@ -13435,19 +13435,19 @@
         <v>23</v>
       </c>
       <c r="AF96" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG96" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH96" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI96" t="n">
         <v>38</v>
       </c>
       <c r="AJ96" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK96" t="n">
         <v>48</v>
@@ -13462,7 +13462,7 @@
         <v>60</v>
       </c>
       <c r="AO96" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="97">
@@ -13525,7 +13525,7 @@
         <v>2.4</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13630,13 +13630,13 @@
         <v>4.1</v>
       </c>
       <c r="G98" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H98" t="n">
         <v>1.8</v>
       </c>
       <c r="I98" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="J98" t="n">
         <v>3.75</v>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U99" t="n">
         <v>1.94</v>
@@ -13822,10 +13822,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z99" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AA99" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB99" t="n">
         <v>9.800000000000001</v>
@@ -13840,31 +13840,31 @@
         <v>38</v>
       </c>
       <c r="AF99" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AG99" t="n">
         <v>14</v>
       </c>
       <c r="AH99" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI99" t="n">
         <v>60</v>
       </c>
       <c r="AJ99" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AK99" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL99" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM99" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO99" t="n">
         <v>40</v>
@@ -13897,22 +13897,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G100" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>4.1</v>
       </c>
       <c r="I100" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J100" t="n">
         <v>3.25</v>
       </c>
       <c r="K100" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -13927,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14035,13 +14035,13 @@
         <v>1.67</v>
       </c>
       <c r="G101" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H101" t="n">
         <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J101" t="n">
         <v>3.7</v>
@@ -14062,10 +14062,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14173,16 +14173,16 @@
         <v>15</v>
       </c>
       <c r="H102" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="I102" t="n">
         <v>1.29</v>
       </c>
       <c r="J102" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K102" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>2.44</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G103" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H103" t="n">
         <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="J103" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K103" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14335,7 +14335,7 @@
         <v>1.86</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14467,7 +14467,7 @@
         <v>1.24</v>
       </c>
       <c r="P104" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q104" t="n">
         <v>1.71</v>
@@ -14479,10 +14479,10 @@
         <v>2.8</v>
       </c>
       <c r="T104" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U104" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V104" t="n">
         <v>0</v>
@@ -14497,16 +14497,16 @@
         <v>12</v>
       </c>
       <c r="Z104" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA104" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB104" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC104" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD104" t="n">
         <v>11</v>
@@ -14515,10 +14515,10 @@
         <v>21</v>
       </c>
       <c r="AF104" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG104" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH104" t="n">
         <v>16.5</v>
@@ -14527,22 +14527,22 @@
         <v>32</v>
       </c>
       <c r="AJ104" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AK104" t="n">
         <v>40</v>
       </c>
       <c r="AL104" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM104" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN104" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO104" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -14575,7 +14575,7 @@
         <v>1.99</v>
       </c>
       <c r="G105" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>4.2</v>
@@ -14602,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q105" t="n">
         <v>2.08</v>
@@ -14707,16 +14707,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G106" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H106" t="n">
         <v>3.05</v>
       </c>
       <c r="I106" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J106" t="n">
         <v>3.35</v>
@@ -14737,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14842,22 +14842,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G107" t="n">
         <v>1.91</v>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I107" t="n">
         <v>4.4</v>
       </c>
       <c r="J107" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K107" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14872,7 +14872,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q107" t="n">
         <v>1.56</v>
@@ -14980,19 +14980,19 @@
         <v>4.2</v>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H108" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I108" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J108" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K108" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -15010,7 +15010,7 @@
         <v>1.52</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R108" t="n">
         <v>1.19</v>
@@ -15022,7 +15022,7 @@
         <v>2.32</v>
       </c>
       <c r="U108" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V108" t="n">
         <v>0</v>
@@ -15031,16 +15031,16 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y108" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z108" t="n">
         <v>11.5</v>
       </c>
       <c r="AA108" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB108" t="n">
         <v>11</v>
@@ -15055,13 +15055,13 @@
         <v>32</v>
       </c>
       <c r="AF108" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG108" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI108" t="n">
         <v>70</v>
@@ -15070,13 +15070,13 @@
         <v>140</v>
       </c>
       <c r="AK108" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL108" t="n">
         <v>130</v>
       </c>
       <c r="AM108" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN108" t="n">
         <v>150</v>
@@ -15118,7 +15118,7 @@
         <v>5.9</v>
       </c>
       <c r="H109" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I109" t="n">
         <v>1.91</v>
@@ -15277,10 +15277,10 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -15289,7 +15289,7 @@
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U110" t="n">
         <v>2.84</v>
@@ -15301,13 +15301,13 @@
         <v>0</v>
       </c>
       <c r="X110" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y110" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA110" t="n">
         <v>30</v>
@@ -15322,31 +15322,31 @@
         <v>11.5</v>
       </c>
       <c r="AE110" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF110" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG110" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH110" t="n">
         <v>15</v>
       </c>
       <c r="AI110" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ110" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK110" t="n">
         <v>34</v>
       </c>
       <c r="AL110" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM110" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN110" t="n">
         <v>20</v>
@@ -15517,10 +15517,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G112" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H112" t="n">
         <v>3.65</v>
@@ -15538,10 +15538,10 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N112" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O112" t="n">
         <v>1.22</v>
@@ -15550,13 +15550,13 @@
         <v>2.4</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R112" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S112" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T112" t="n">
         <v>1.62</v>
@@ -15574,13 +15574,13 @@
         <v>22</v>
       </c>
       <c r="Y112" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA112" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB112" t="n">
         <v>13</v>
@@ -15589,40 +15589,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD112" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE112" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF112" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG112" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH112" t="n">
         <v>15.5</v>
       </c>
       <c r="AI112" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ112" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK112" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL112" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM112" t="n">
         <v>65</v>
       </c>
       <c r="AN112" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO112" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -15652,16 +15652,16 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G113" t="n">
         <v>2.84</v>
       </c>
       <c r="H113" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I113" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J113" t="n">
         <v>3.25</v>
@@ -15682,10 +15682,10 @@
         <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -15928,7 +15928,7 @@
         <v>4.4</v>
       </c>
       <c r="H115" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I115" t="n">
         <v>2.26</v>
@@ -15952,7 +15952,7 @@
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q115" t="n">
         <v>2.58</v>
@@ -16057,19 +16057,19 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="G116" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H116" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="I116" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="J116" t="n">
-        <v>2.86</v>
+        <v>2.24</v>
       </c>
       <c r="K116" t="n">
         <v>3.05</v>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G117" t="n">
         <v>2.02</v>
@@ -16201,13 +16201,13 @@
         <v>4.6</v>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J117" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K117" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -16222,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q117" t="n">
         <v>1.99</v>
@@ -16330,16 +16330,16 @@
         <v>3.1</v>
       </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H118" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I118" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J118" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K118" t="n">
         <v>3.45</v>
@@ -16360,7 +16360,7 @@
         <v>1.68</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
@@ -670,19 +670,19 @@
         <v>1.35</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J2" t="n">
         <v>5.7</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -715,10 +715,10 @@
         <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -751,7 +751,7 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
         <v>160</v>
@@ -808,10 +808,10 @@
         <v>2.44</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
@@ -832,13 +832,13 @@
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
         <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>3.25</v>
@@ -850,7 +850,7 @@
         <v>2.26</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
         <v>1.69</v>
@@ -871,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
@@ -880,7 +880,7 @@
         <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -1081,13 +1081,13 @@
         <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.38</v>
@@ -1096,13 +1096,13 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.9</v>
@@ -1114,13 +1114,13 @@
         <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V5" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
         <v>1.4</v>
@@ -1129,7 +1129,7 @@
         <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>16.5</v>
@@ -1138,7 +1138,7 @@
         <v>38</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G8" t="n">
         <v>2.82</v>
       </c>
       <c r="H8" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.3</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
         <v>1.79</v>
@@ -1525,7 +1525,7 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
         <v>1.55</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
@@ -1798,7 +1798,7 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
         <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2158,7 +2158,7 @@
         <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I13" t="n">
         <v>2.32</v>
@@ -2182,16 +2182,16 @@
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
         <v>1.71</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
         <v>1.63</v>
@@ -2209,19 +2209,19 @@
         <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
         <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
         <v>13</v>
@@ -2233,22 +2233,22 @@
         <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
         <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
@@ -2302,7 +2302,7 @@
         <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.31</v>
@@ -2317,16 +2317,16 @@
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>1.41</v>
+        <v>2.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>2.74</v>
       </c>
       <c r="T14" t="n">
         <v>1.64</v>
@@ -2335,13 +2335,13 @@
         <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W14" t="n">
         <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
         <v>14.5</v>
@@ -2560,7 +2560,7 @@
         <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H16" t="n">
         <v>2.68</v>
@@ -2569,7 +2569,7 @@
         <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.8</v>
@@ -2593,7 +2593,7 @@
         <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
         <v>2.84</v>
@@ -2608,7 +2608,7 @@
         <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
@@ -2656,7 +2656,7 @@
         <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
         <v>21</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G17" t="n">
         <v>1.74</v>
@@ -2701,7 +2701,7 @@
         <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
@@ -2716,88 +2716,88 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="S17" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
         <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -2854,7 +2854,7 @@
         <v>3.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.77</v>
@@ -3103,7 +3103,7 @@
         <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I20" t="n">
         <v>2.66</v>
@@ -3115,13 +3115,13 @@
         <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -3130,13 +3130,13 @@
         <v>1.96</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
         <v>1.59</v>
@@ -3145,64 +3145,64 @@
         <v>1.99</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -3370,19 +3370,19 @@
         <v>2.28</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.54</v>
@@ -3415,7 +3415,7 @@
         <v>1.88</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
         <v>1.76</v>
@@ -3424,7 +3424,7 @@
         <v>9.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
         <v>25</v>
@@ -3451,7 +3451,7 @@
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>80</v>
@@ -3466,7 +3466,7 @@
         <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
         <v>26</v>
@@ -3739,7 +3739,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO24" t="n">
         <v>34</v>
@@ -3805,7 +3805,7 @@
         <v>2.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R25" t="n">
         <v>1.68</v>
@@ -3874,7 +3874,7 @@
         <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3910,7 +3910,7 @@
         <v>1.92</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>4.6</v>
@@ -3919,7 +3919,7 @@
         <v>5.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
         <v>3.65</v>
@@ -3940,7 +3940,7 @@
         <v>1.57</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
         <v>1.21</v>
@@ -3958,7 +3958,7 @@
         <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4054,7 +4054,7 @@
         <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
         <v>3.55</v>
@@ -4084,10 +4084,10 @@
         <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="U27" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
         <v>1.47</v>
@@ -4177,46 +4177,46 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>2.42</v>
       </c>
       <c r="K28" t="n">
-        <v>950</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="O28" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="R28" t="n">
         <v>1.12</v>
       </c>
       <c r="S28" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4321,7 +4321,7 @@
         <v>2.86</v>
       </c>
       <c r="I29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
         <v>3.85</v>
@@ -4360,7 +4360,7 @@
         <v>2.62</v>
       </c>
       <c r="V29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W29" t="n">
         <v>1.67</v>
@@ -4384,7 +4384,7 @@
         <v>11</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
         <v>30</v>
@@ -4450,16 +4450,16 @@
         <v>2.42</v>
       </c>
       <c r="G30" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
         <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
         <v>3.95</v>
@@ -4486,7 +4486,7 @@
         <v>1.48</v>
       </c>
       <c r="S30" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T30" t="n">
         <v>1.6</v>
@@ -4495,10 +4495,10 @@
         <v>2.38</v>
       </c>
       <c r="V30" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="X30" t="n">
         <v>23</v>
@@ -4513,7 +4513,7 @@
         <v>60</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
@@ -4540,7 +4540,7 @@
         <v>42</v>
       </c>
       <c r="AK30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL30" t="n">
         <v>42</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="G31" t="n">
         <v>1.88</v>
@@ -4597,7 +4597,7 @@
         <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4720,7 +4720,7 @@
         <v>2.62</v>
       </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H32" t="n">
         <v>2.28</v>
@@ -4765,10 +4765,10 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W32" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="I34" t="n">
-        <v>140</v>
+        <v>12.5</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="L34" t="n">
         <v>1.32</v>
@@ -5017,16 +5017,16 @@
         <v>1.32</v>
       </c>
       <c r="P34" t="n">
-        <v>1.08</v>
+        <v>1.79</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
         <v>1.08</v>
       </c>
       <c r="S34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5035,10 +5035,10 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="W34" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="G35" t="n">
         <v>2.12</v>
@@ -5131,13 +5131,13 @@
         <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>950</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,13 +5146,13 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O35" t="n">
         <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q35" t="n">
         <v>2</v>
@@ -5161,7 +5161,7 @@
         <v>1.08</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5260,16 +5260,16 @@
         <v>2.3</v>
       </c>
       <c r="G36" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H36" t="n">
         <v>2.8</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
         <v>4.4</v>
@@ -5305,16 +5305,16 @@
         <v>2.44</v>
       </c>
       <c r="V36" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W36" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="X36" t="n">
         <v>27</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
         <v>28</v>
@@ -5356,7 +5356,7 @@
         <v>38</v>
       </c>
       <c r="AM36" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN36" t="n">
         <v>17</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H37" t="n">
         <v>6</v>
@@ -5443,7 +5443,7 @@
         <v>1.18</v>
       </c>
       <c r="W37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
@@ -5461,7 +5461,7 @@
         <v>7.2</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
         <v>25</v>
@@ -5482,7 +5482,7 @@
         <v>110</v>
       </c>
       <c r="AJ37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK37" t="n">
         <v>19</v>
@@ -5530,13 +5530,13 @@
         <v>1.43</v>
       </c>
       <c r="G38" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I38" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J38" t="n">
         <v>4.8</v>
@@ -5569,13 +5569,13 @@
         <v>2.78</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="U38" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V38" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W38" t="n">
         <v>3.05</v>
@@ -5584,7 +5584,7 @@
         <v>25</v>
       </c>
       <c r="Y38" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z38" t="n">
         <v>90</v>
@@ -5599,7 +5599,7 @@
         <v>13.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE38" t="n">
         <v>160</v>
@@ -5617,13 +5617,13 @@
         <v>130</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK38" t="n">
         <v>18.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="n">
         <v>170</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G39" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H39" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I39" t="n">
         <v>4.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,10 +5686,10 @@
         <v>1.12</v>
       </c>
       <c r="N39" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O39" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P39" t="n">
         <v>1.54</v>
@@ -5713,7 +5713,7 @@
         <v>1.26</v>
       </c>
       <c r="W39" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X39" t="n">
         <v>10.5</v>
@@ -5722,25 +5722,25 @@
         <v>14</v>
       </c>
       <c r="Z39" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA39" t="n">
         <v>140</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE39" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG39" t="n">
         <v>12.5</v>
@@ -5752,10 +5752,10 @@
         <v>120</v>
       </c>
       <c r="AJ39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK39" t="n">
         <v>32</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>38</v>
       </c>
       <c r="AL39" t="n">
         <v>75</v>
@@ -5764,7 +5764,7 @@
         <v>250</v>
       </c>
       <c r="AN39" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AO39" t="n">
         <v>150</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G40" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
         <v>5.4</v>
       </c>
       <c r="I40" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5830,25 +5830,25 @@
         <v>2.14</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
         <v>1.45</v>
       </c>
       <c r="S40" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="T40" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="U40" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="V40" t="n">
         <v>1.19</v>
       </c>
       <c r="W40" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X40" t="n">
         <v>22</v>
@@ -5902,7 +5902,7 @@
         <v>10</v>
       </c>
       <c r="AO40" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
@@ -5938,7 +5938,7 @@
         <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I41" t="n">
         <v>1.74</v>
@@ -5953,31 +5953,31 @@
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>1.96</v>
+        <v>4.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P41" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="R41" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S41" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V41" t="n">
         <v>2.34</v>
@@ -5986,58 +5986,58 @@
         <v>1.2</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC41" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="42">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G42" t="n">
         <v>1.9</v>
@@ -6082,10 +6082,10 @@
         <v>3.45</v>
       </c>
       <c r="K42" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L42" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -6109,10 +6109,10 @@
         <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="U42" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="V42" t="n">
         <v>1.21</v>
@@ -6259,7 +6259,7 @@
         <v>19</v>
       </c>
       <c r="Y43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z43" t="n">
         <v>60</v>
@@ -6340,7 +6340,7 @@
         <v>2.18</v>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H44" t="n">
         <v>3.75</v>
@@ -6388,7 +6388,7 @@
         <v>1.31</v>
       </c>
       <c r="W44" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6619,7 +6619,7 @@
         <v>1.65</v>
       </c>
       <c r="J46" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K46" t="n">
         <v>4.8</v>
@@ -6646,7 +6646,7 @@
         <v>1.7</v>
       </c>
       <c r="S46" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T46" t="n">
         <v>1.64</v>
@@ -6655,10 +6655,10 @@
         <v>2.46</v>
       </c>
       <c r="V46" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W46" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X46" t="n">
         <v>26</v>
@@ -6670,7 +6670,7 @@
         <v>12</v>
       </c>
       <c r="AA46" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB46" t="n">
         <v>28</v>
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G47" t="n">
         <v>3.05</v>
       </c>
       <c r="H47" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I47" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J47" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K47" t="n">
         <v>3.95</v>
@@ -6787,10 +6787,10 @@
         <v>1.52</v>
       </c>
       <c r="U47" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V47" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="W47" t="n">
         <v>1.49</v>
@@ -7021,7 +7021,7 @@
         <v>5.5</v>
       </c>
       <c r="I49" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J49" t="n">
         <v>4.5</v>
@@ -7114,7 +7114,7 @@
         <v>65</v>
       </c>
       <c r="AN49" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO49" t="n">
         <v>42</v>
@@ -7150,7 +7150,7 @@
         <v>2.42</v>
       </c>
       <c r="G50" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H50" t="n">
         <v>3.1</v>
@@ -7192,13 +7192,13 @@
         <v>1.68</v>
       </c>
       <c r="U50" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V50" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W50" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X50" t="n">
         <v>18</v>
@@ -7228,7 +7228,7 @@
         <v>17</v>
       </c>
       <c r="AG50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH50" t="n">
         <v>16.5</v>
@@ -7288,16 +7288,16 @@
         <v>1.12</v>
       </c>
       <c r="H51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J51" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="K51" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L51" t="n">
         <v>1.16</v>
@@ -7333,7 +7333,7 @@
         <v>1.03</v>
       </c>
       <c r="W51" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7348,10 +7348,10 @@
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD51" t="n">
         <v>95</v>
@@ -7363,7 +7363,7 @@
         <v>11</v>
       </c>
       <c r="AG51" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH51" t="n">
         <v>60</v>
@@ -7378,13 +7378,13 @@
         <v>14.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="AO51" t="n">
         <v>470</v>
@@ -7447,10 +7447,10 @@
         <v>1.3</v>
       </c>
       <c r="P52" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R52" t="n">
         <v>1.37</v>
@@ -7468,7 +7468,7 @@
         <v>1.15</v>
       </c>
       <c r="W52" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X52" t="n">
         <v>16</v>
@@ -7489,7 +7489,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD52" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE52" t="n">
         <v>120</v>
@@ -7501,7 +7501,7 @@
         <v>10.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI52" t="n">
         <v>110</v>
@@ -7513,7 +7513,7 @@
         <v>18</v>
       </c>
       <c r="AL52" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM52" t="n">
         <v>160</v>
@@ -7741,7 +7741,7 @@
         <v>1.87</v>
       </c>
       <c r="X54" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y54" t="n">
         <v>20</v>
@@ -7822,19 +7822,19 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="G55" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H55" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I55" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
         <v>4.1</v>
@@ -7855,7 +7855,7 @@
         <v>1.94</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R55" t="n">
         <v>1.37</v>
@@ -7864,16 +7864,16 @@
         <v>3.2</v>
       </c>
       <c r="T55" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U55" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V55" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="W55" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X55" t="n">
         <v>17</v>
@@ -7882,7 +7882,7 @@
         <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA55" t="n">
         <v>60</v>
@@ -7960,7 +7960,7 @@
         <v>2.66</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>2.6</v>
@@ -7975,7 +7975,7 @@
         <v>4.2</v>
       </c>
       <c r="L56" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M56" t="n">
         <v>1.06</v>
@@ -8008,7 +8008,7 @@
         <v>1.51</v>
       </c>
       <c r="W56" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X56" t="n">
         <v>19</v>
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G57" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H57" t="n">
         <v>5.3</v>
@@ -8104,34 +8104,34 @@
         <v>1000</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="O57" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P57" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R57" t="n">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="S57" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="T57" t="n">
         <v>1.01</v>
@@ -8143,7 +8143,7 @@
         <v>1.03</v>
       </c>
       <c r="W57" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X57" t="n">
         <v>23</v>
@@ -8260,7 +8260,7 @@
         <v>1.84</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R58" t="n">
         <v>1.32</v>
@@ -8275,13 +8275,13 @@
         <v>2.08</v>
       </c>
       <c r="V58" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W58" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X58" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y58" t="n">
         <v>12</v>
@@ -8290,7 +8290,7 @@
         <v>19.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB58" t="n">
         <v>12.5</v>
@@ -8308,7 +8308,7 @@
         <v>22</v>
       </c>
       <c r="AG58" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH58" t="n">
         <v>20</v>
@@ -8383,31 +8383,31 @@
         <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>2.04</v>
+        <v>3.85</v>
       </c>
       <c r="O59" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P59" t="n">
         <v>2.04</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R59" t="n">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="S59" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V59" t="n">
         <v>1.24</v>
@@ -8416,58 +8416,58 @@
         <v>2.02</v>
       </c>
       <c r="X59" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y59" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z59" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB59" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC59" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD59" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE59" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF59" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK59" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL59" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN59" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="G61" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>2.26</v>
       </c>
       <c r="I61" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J61" t="n">
         <v>4.2</v>
       </c>
       <c r="K61" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8662,16 +8662,16 @@
         <v>1.15</v>
       </c>
       <c r="P61" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R61" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S61" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T61" t="n">
         <v>1.53</v>
@@ -8680,22 +8680,22 @@
         <v>2.76</v>
       </c>
       <c r="V61" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="W61" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X61" t="n">
         <v>34</v>
       </c>
       <c r="Y61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA61" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB61" t="n">
         <v>22</v>
@@ -8710,7 +8710,7 @@
         <v>22</v>
       </c>
       <c r="AF61" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG61" t="n">
         <v>14.5</v>
@@ -8737,7 +8737,7 @@
         <v>14</v>
       </c>
       <c r="AO61" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -8911,7 +8911,7 @@
         <v>2.32</v>
       </c>
       <c r="I63" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J63" t="n">
         <v>3.45</v>
@@ -8926,22 +8926,22 @@
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
         <v>1.32</v>
       </c>
       <c r="S63" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T63" t="n">
         <v>1.75</v>
@@ -8950,7 +8950,7 @@
         <v>2.1</v>
       </c>
       <c r="V63" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W63" t="n">
         <v>1.39</v>
@@ -8971,13 +8971,13 @@
         <v>13.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD63" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF63" t="n">
         <v>24</v>
@@ -9037,25 +9037,25 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G64" t="n">
         <v>1.54</v>
       </c>
       <c r="H64" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I64" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J64" t="n">
         <v>4.4</v>
       </c>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M64" t="n">
         <v>1.01</v>
@@ -9085,7 +9085,7 @@
         <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W64" t="n">
         <v>2.84</v>
@@ -9103,7 +9103,7 @@
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC64" t="n">
         <v>12.5</v>
@@ -9115,7 +9115,7 @@
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG64" t="n">
         <v>13</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO64" t="n">
         <v>1000</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="G65" t="n">
         <v>2.86</v>
@@ -9181,7 +9181,7 @@
         <v>2.9</v>
       </c>
       <c r="I65" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J65" t="n">
         <v>3.25</v>
@@ -9220,7 +9220,7 @@
         <v>2.06</v>
       </c>
       <c r="V65" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W65" t="n">
         <v>1.54</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G66" t="n">
         <v>1.87</v>
@@ -9316,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J66" t="n">
         <v>3.75</v>
@@ -9349,19 +9349,19 @@
         <v>3.25</v>
       </c>
       <c r="T66" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W66" t="n">
         <v>2.14</v>
       </c>
       <c r="X66" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y66" t="n">
         <v>18</v>
@@ -9373,7 +9373,7 @@
         <v>140</v>
       </c>
       <c r="AB66" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC66" t="n">
         <v>10.5</v>
@@ -9448,7 +9448,7 @@
         <v>1.55</v>
       </c>
       <c r="H67" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I67" t="n">
         <v>10.5</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="G68" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>2.24</v>
       </c>
       <c r="I68" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="J68" t="n">
         <v>3.15</v>
@@ -9598,7 +9598,7 @@
         <v>1.29</v>
       </c>
       <c r="M68" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
         <v>3.7</v>
@@ -9610,7 +9610,7 @@
         <v>2.1</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R68" t="n">
         <v>1.43</v>
@@ -10126,7 +10126,7 @@
         <v>14</v>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J72" t="n">
         <v>6.4</v>
@@ -10135,7 +10135,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M72" t="n">
         <v>1.01</v>
@@ -10153,7 +10153,7 @@
         <v>1.37</v>
       </c>
       <c r="R72" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="S72" t="n">
         <v>1.92</v>
@@ -10213,7 +10213,7 @@
         <v>16</v>
       </c>
       <c r="AL72" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM72" t="n">
         <v>170</v>
@@ -10312,7 +10312,7 @@
         <v>18</v>
       </c>
       <c r="Z73" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AA73" t="n">
         <v>36</v>
@@ -10321,10 +10321,10 @@
         <v>24</v>
       </c>
       <c r="AC73" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AD73" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AE73" t="n">
         <v>22</v>
@@ -10390,7 +10390,7 @@
         <v>4.8</v>
       </c>
       <c r="G74" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H74" t="n">
         <v>1.67</v>
@@ -10438,7 +10438,7 @@
         <v>2.2</v>
       </c>
       <c r="W74" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X74" t="n">
         <v>21</v>
@@ -10459,7 +10459,7 @@
         <v>11.5</v>
       </c>
       <c r="AD74" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE74" t="n">
         <v>22</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G76" t="n">
         <v>1.39</v>
@@ -10672,7 +10672,7 @@
         <v>4.9</v>
       </c>
       <c r="K76" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10804,10 +10804,10 @@
         <v>1.99</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K77" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10816,28 +10816,28 @@
         <v>1.01</v>
       </c>
       <c r="N77" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="O77" t="n">
         <v>1.18</v>
       </c>
       <c r="P77" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="R77" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="S77" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="T77" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U77" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V77" t="n">
         <v>2</v>
@@ -10846,46 +10846,46 @@
         <v>1.29</v>
       </c>
       <c r="X77" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Y77" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Z77" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA77" t="n">
         <v>29</v>
       </c>
       <c r="AB77" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AC77" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE77" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AF77" t="n">
         <v>46</v>
       </c>
       <c r="AG77" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH77" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI77" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AJ77" t="n">
         <v>110</v>
       </c>
       <c r="AK77" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AL77" t="n">
         <v>60</v>
@@ -10897,7 +10897,7 @@
         <v>50</v>
       </c>
       <c r="AO77" t="n">
-        <v>13.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -10945,7 +10945,7 @@
         <v>5.2</v>
       </c>
       <c r="L78" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
@@ -11215,7 +11215,7 @@
         <v>4.5</v>
       </c>
       <c r="L80" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M80" t="n">
         <v>1.1</v>
@@ -11521,10 +11521,10 @@
         <v>1.55</v>
       </c>
       <c r="X82" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y82" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z82" t="n">
         <v>24</v>
@@ -11533,13 +11533,13 @@
         <v>55</v>
       </c>
       <c r="AB82" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD82" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE82" t="n">
         <v>36</v>
@@ -11548,10 +11548,10 @@
         <v>22</v>
       </c>
       <c r="AG82" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH82" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI82" t="n">
         <v>46</v>
@@ -11767,7 +11767,7 @@
         <v>1.18</v>
       </c>
       <c r="P84" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q84" t="n">
         <v>1.55</v>
@@ -11779,10 +11779,10 @@
         <v>2.36</v>
       </c>
       <c r="T84" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U84" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="V84" t="n">
         <v>1.03</v>
@@ -11794,7 +11794,7 @@
         <v>34</v>
       </c>
       <c r="Y84" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z84" t="n">
         <v>330</v>
@@ -11803,10 +11803,10 @@
         <v>1000</v>
       </c>
       <c r="AB84" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC84" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD84" t="n">
         <v>110</v>
@@ -11815,25 +11815,25 @@
         <v>1000</v>
       </c>
       <c r="AF84" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG84" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI84" t="n">
         <v>440</v>
       </c>
       <c r="AJ84" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK84" t="n">
         <v>18</v>
       </c>
       <c r="AL84" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM84" t="n">
         <v>420</v>
@@ -12010,7 +12010,7 @@
         <v>3.85</v>
       </c>
       <c r="G86" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H86" t="n">
         <v>2.12</v>
@@ -12091,7 +12091,7 @@
         <v>16</v>
       </c>
       <c r="AH86" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI86" t="n">
         <v>40</v>
@@ -12187,7 +12187,7 @@
         <v>1.69</v>
       </c>
       <c r="U87" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V87" t="n">
         <v>1.52</v>
@@ -12283,7 +12283,7 @@
         <v>1.25</v>
       </c>
       <c r="H88" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I88" t="n">
         <v>15.5</v>
@@ -12304,7 +12304,7 @@
         <v>7.4</v>
       </c>
       <c r="O88" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P88" t="n">
         <v>3.15</v>
@@ -12313,7 +12313,7 @@
         <v>1.45</v>
       </c>
       <c r="R88" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S88" t="n">
         <v>2.14</v>
@@ -12331,7 +12331,7 @@
         <v>5</v>
       </c>
       <c r="X88" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y88" t="n">
         <v>60</v>
@@ -12367,7 +12367,7 @@
         <v>150</v>
       </c>
       <c r="AJ88" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK88" t="n">
         <v>12.5</v>
@@ -12415,7 +12415,7 @@
         <v>2.92</v>
       </c>
       <c r="G89" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H89" t="n">
         <v>2.2</v>
@@ -12448,16 +12448,16 @@
         <v>1.6</v>
       </c>
       <c r="R89" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S89" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T89" t="n">
         <v>1.55</v>
       </c>
       <c r="U89" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="V89" t="n">
         <v>1.67</v>
@@ -12496,10 +12496,10 @@
         <v>16</v>
       </c>
       <c r="AH89" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ89" t="n">
         <v>60</v>
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G90" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>3.2</v>
@@ -12634,7 +12634,7 @@
         <v>21</v>
       </c>
       <c r="AI90" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ90" t="n">
         <v>38</v>
@@ -12703,31 +12703,31 @@
         <v>1.43</v>
       </c>
       <c r="M91" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O91" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P91" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R91" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="S91" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T91" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U91" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V91" t="n">
         <v>1.19</v>
@@ -12736,58 +12736,58 @@
         <v>2.26</v>
       </c>
       <c r="X91" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA91" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB91" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC91" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD91" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE91" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF91" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG91" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI91" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ91" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK91" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL91" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM91" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN91" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO91" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92">
@@ -12823,7 +12823,7 @@
         <v>3.25</v>
       </c>
       <c r="H92" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I92" t="n">
         <v>2.68</v>
@@ -12844,7 +12844,7 @@
         <v>4</v>
       </c>
       <c r="O92" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P92" t="n">
         <v>2.02</v>
@@ -12952,16 +12952,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="G93" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I93" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.5</v>
       </c>
       <c r="J93" t="n">
         <v>2.92</v>
@@ -13000,10 +13000,10 @@
         <v>1.01</v>
       </c>
       <c r="V93" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W93" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X93" t="n">
         <v>10</v>
@@ -13234,7 +13234,7 @@
         <v>12</v>
       </c>
       <c r="J95" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K95" t="n">
         <v>6.8</v>
@@ -13246,7 +13246,7 @@
         <v>1.02</v>
       </c>
       <c r="N95" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O95" t="n">
         <v>1.13</v>
@@ -13258,7 +13258,7 @@
         <v>1.37</v>
       </c>
       <c r="R95" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S95" t="n">
         <v>1.94</v>
@@ -13267,19 +13267,19 @@
         <v>1.71</v>
       </c>
       <c r="U95" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V95" t="n">
         <v>1.09</v>
       </c>
       <c r="W95" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X95" t="n">
         <v>44</v>
       </c>
       <c r="Y95" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z95" t="n">
         <v>120</v>
@@ -13288,43 +13288,43 @@
         <v>350</v>
       </c>
       <c r="AB95" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC95" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD95" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AE95" t="n">
         <v>150</v>
       </c>
       <c r="AF95" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG95" t="n">
         <v>13.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI95" t="n">
         <v>110</v>
       </c>
       <c r="AJ95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK95" t="n">
         <v>14</v>
       </c>
-      <c r="AK95" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL95" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM95" t="n">
         <v>110</v>
       </c>
       <c r="AN95" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AO95" t="n">
         <v>130</v>
@@ -13639,7 +13639,7 @@
         <v>4.7</v>
       </c>
       <c r="J98" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K98" t="n">
         <v>4</v>
@@ -13705,7 +13705,7 @@
         <v>55</v>
       </c>
       <c r="AF98" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG98" t="n">
         <v>10.5</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="G99" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H99" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="I99" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J99" t="n">
         <v>3</v>
       </c>
       <c r="K99" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13786,19 +13786,19 @@
         <v>1.09</v>
       </c>
       <c r="N99" t="n">
-        <v>1.58</v>
+        <v>3</v>
       </c>
       <c r="O99" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P99" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R99" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S99" t="n">
         <v>3.5</v>
@@ -13810,10 +13810,10 @@
         <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W99" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="X99" t="n">
         <v>1000</v>
@@ -13897,13 +13897,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G100" t="n">
         <v>2.54</v>
       </c>
       <c r="H100" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I100" t="n">
         <v>3.75</v>
@@ -13912,7 +13912,7 @@
         <v>3.1</v>
       </c>
       <c r="K100" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13927,7 +13927,7 @@
         <v>1.4</v>
       </c>
       <c r="P100" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q100" t="n">
         <v>2.18</v>
@@ -14302,31 +14302,31 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G103" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="H103" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I103" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J103" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K103" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L103" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M103" t="n">
         <v>1.07</v>
       </c>
       <c r="N103" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="O103" t="n">
         <v>1.34</v>
@@ -14335,40 +14335,40 @@
         <v>1.86</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="R103" t="n">
         <v>1.33</v>
       </c>
       <c r="S103" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T103" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="U103" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="V103" t="n">
         <v>1.12</v>
       </c>
       <c r="W103" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="X103" t="n">
         <v>17</v>
       </c>
       <c r="Y103" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z103" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA103" t="n">
         <v>1000</v>
       </c>
       <c r="AB103" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC103" t="n">
         <v>11.5</v>
@@ -14377,25 +14377,25 @@
         <v>34</v>
       </c>
       <c r="AE103" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF103" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG103" t="n">
         <v>12.5</v>
       </c>
       <c r="AH103" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI103" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ103" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK103" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL103" t="n">
         <v>55</v>
@@ -14404,7 +14404,7 @@
         <v>1000</v>
       </c>
       <c r="AN103" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO103" t="n">
         <v>1000</v>
@@ -14437,22 +14437,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H104" t="n">
         <v>2.5</v>
       </c>
       <c r="I104" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J104" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K104" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L104" t="n">
         <v>1.01</v>
@@ -14461,16 +14461,16 @@
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="O104" t="n">
         <v>1.01</v>
       </c>
       <c r="P104" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R104" t="n">
         <v>1.08</v>
@@ -14485,10 +14485,10 @@
         <v>1.01</v>
       </c>
       <c r="V104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W104" t="n">
         <v>1.39</v>
-      </c>
-      <c r="W104" t="n">
-        <v>1.38</v>
       </c>
       <c r="X104" t="n">
         <v>1000</v>
@@ -14743,7 +14743,7 @@
         <v>1.6</v>
       </c>
       <c r="R106" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S106" t="n">
         <v>2.48</v>
@@ -14752,7 +14752,7 @@
         <v>1.54</v>
       </c>
       <c r="U106" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="V106" t="n">
         <v>1.25</v>
@@ -14842,22 +14842,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="G107" t="n">
         <v>11.5</v>
       </c>
       <c r="H107" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I107" t="n">
         <v>1.37</v>
       </c>
       <c r="J107" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K107" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L107" t="n">
         <v>1.26</v>
@@ -14932,19 +14932,19 @@
         <v>32</v>
       </c>
       <c r="AJ107" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AK107" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AL107" t="n">
         <v>120</v>
       </c>
       <c r="AM107" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN107" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AO107" t="n">
         <v>4.9</v>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G108" t="n">
         <v>1.64</v>
@@ -14986,13 +14986,13 @@
         <v>6.4</v>
       </c>
       <c r="I108" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="J108" t="n">
         <v>4</v>
       </c>
       <c r="K108" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15007,13 +15007,13 @@
         <v>1.18</v>
       </c>
       <c r="P108" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R108" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S108" t="n">
         <v>2.12</v>
@@ -15025,7 +15025,7 @@
         <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W108" t="n">
         <v>2.56</v>
@@ -15127,7 +15127,7 @@
         <v>4</v>
       </c>
       <c r="K109" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L109" t="n">
         <v>1.46</v>
@@ -15145,7 +15145,7 @@
         <v>1.91</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R109" t="n">
         <v>1.34</v>
@@ -15247,22 +15247,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="G110" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="H110" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="I110" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J110" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="K110" t="n">
-        <v>950</v>
+        <v>3.45</v>
       </c>
       <c r="L110" t="n">
         <v>1.45</v>
@@ -15292,7 +15292,7 @@
         <v>1.83</v>
       </c>
       <c r="U110" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="V110" t="n">
         <v>1.38</v>
@@ -15319,7 +15319,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD110" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE110" t="n">
         <v>50</v>
@@ -15415,7 +15415,7 @@
         <v>1.85</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R111" t="n">
         <v>1.32</v>
@@ -15520,109 +15520,109 @@
         <v>4.1</v>
       </c>
       <c r="G112" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="H112" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="I112" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="J112" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="K112" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L112" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M112" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N112" t="n">
-        <v>1.89</v>
+        <v>3.85</v>
       </c>
       <c r="O112" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P112" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="R112" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S112" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="T112" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U112" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V112" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="W112" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X112" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y112" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z112" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB112" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC112" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE112" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF112" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG112" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH112" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI112" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ112" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK112" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL112" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM112" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN112" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO112" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="113">
@@ -15652,22 +15652,22 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="G113" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H113" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="I113" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="J113" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K113" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L113" t="n">
         <v>1.01</v>
@@ -15688,76 +15688,76 @@
         <v>1.57</v>
       </c>
       <c r="R113" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S113" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T113" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U113" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V113" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="W113" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X113" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z113" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z113" t="n">
+      <c r="AA113" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH113" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA113" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>21</v>
-      </c>
       <c r="AI113" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AJ113" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AK113" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL113" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM113" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN113" t="n">
         <v>38</v>
       </c>
       <c r="AO113" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -15787,43 +15787,43 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="G114" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H114" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I114" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="J114" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K114" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L114" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M114" t="n">
         <v>1.08</v>
       </c>
       <c r="N114" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O114" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P114" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R114" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S114" t="n">
         <v>3.95</v>
@@ -15835,19 +15835,19 @@
         <v>1.79</v>
       </c>
       <c r="V114" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W114" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="X114" t="n">
         <v>14.5</v>
       </c>
       <c r="Y114" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z114" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA114" t="n">
         <v>250</v>
@@ -15859,7 +15859,7 @@
         <v>9</v>
       </c>
       <c r="AD114" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE114" t="n">
         <v>140</v>
@@ -15889,7 +15889,7 @@
         <v>210</v>
       </c>
       <c r="AN114" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO114" t="n">
         <v>210</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>4.2</v>
@@ -15973,7 +15973,7 @@
         <v>1.27</v>
       </c>
       <c r="W115" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X115" t="n">
         <v>14.5</v>
@@ -16072,7 +16072,7 @@
         <v>3.15</v>
       </c>
       <c r="K116" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="G117" t="n">
         <v>5.9</v>
@@ -16207,7 +16207,7 @@
         <v>3.15</v>
       </c>
       <c r="K117" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="L117" t="n">
         <v>1.01</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.04</v>
+        <v>4.1</v>
       </c>
       <c r="G118" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="H118" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="I118" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="J118" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K118" t="n">
-        <v>950</v>
+        <v>4.5</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -16465,7 +16465,7 @@
         <v>7</v>
       </c>
       <c r="G119" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>1.56</v>
@@ -16498,22 +16498,22 @@
         <v>2.02</v>
       </c>
       <c r="R119" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S119" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T119" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U119" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="V119" t="n">
         <v>2.56</v>
       </c>
       <c r="W119" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X119" t="n">
         <v>16</v>
@@ -16522,7 +16522,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z119" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA119" t="n">
         <v>17.5</v>
@@ -16537,10 +16537,10 @@
         <v>10.5</v>
       </c>
       <c r="AE119" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AF119" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG119" t="n">
         <v>28</v>
@@ -16606,16 +16606,16 @@
         <v>2.14</v>
       </c>
       <c r="I120" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J120" t="n">
         <v>3.6</v>
       </c>
       <c r="K120" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L120" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M120" t="n">
         <v>1.07</v>
@@ -16645,7 +16645,7 @@
         <v>2.12</v>
       </c>
       <c r="V120" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W120" t="n">
         <v>1.34</v>
@@ -16732,10 +16732,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H121" t="n">
         <v>1.97</v>
@@ -16759,13 +16759,13 @@
         <v>5.4</v>
       </c>
       <c r="O121" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P121" t="n">
         <v>2.46</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R121" t="n">
         <v>1.59</v>
@@ -16783,10 +16783,10 @@
         <v>2.02</v>
       </c>
       <c r="W121" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X121" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y121" t="n">
         <v>12.5</v>
@@ -16798,7 +16798,7 @@
         <v>23</v>
       </c>
       <c r="AB121" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC121" t="n">
         <v>9.199999999999999</v>
@@ -16837,7 +16837,7 @@
         <v>30</v>
       </c>
       <c r="AO121" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="122">
@@ -16870,7 +16870,7 @@
         <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H122" t="n">
         <v>2.26</v>
@@ -16948,13 +16948,13 @@
         <v>26</v>
       </c>
       <c r="AG122" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH122" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI122" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ122" t="n">
         <v>65</v>
@@ -17011,10 +17011,10 @@
         <v>7.6</v>
       </c>
       <c r="I123" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J123" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K123" t="n">
         <v>5.8</v>
@@ -17029,7 +17029,7 @@
         <v>5.1</v>
       </c>
       <c r="O123" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P123" t="n">
         <v>2.38</v>
@@ -17044,13 +17044,13 @@
         <v>2.26</v>
       </c>
       <c r="T123" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U123" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V123" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W123" t="n">
         <v>3.05</v>
@@ -17137,7 +17137,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G124" t="n">
         <v>1.56</v>
@@ -17161,16 +17161,16 @@
         <v>1.02</v>
       </c>
       <c r="N124" t="n">
-        <v>1.05</v>
+        <v>2.62</v>
       </c>
       <c r="O124" t="n">
         <v>1.12</v>
       </c>
       <c r="P124" t="n">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R124" t="n">
         <v>1.7</v>
@@ -17188,7 +17188,7 @@
         <v>1.17</v>
       </c>
       <c r="W124" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="X124" t="n">
         <v>1000</v>
@@ -17278,7 +17278,7 @@
         <v>15.5</v>
       </c>
       <c r="H125" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I125" t="n">
         <v>1.3</v>
@@ -17296,28 +17296,28 @@
         <v>1.04</v>
       </c>
       <c r="N125" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="O125" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P125" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S125" t="n">
         <v>2.44</v>
       </c>
-      <c r="Q125" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R125" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S125" t="n">
-        <v>2.48</v>
-      </c>
       <c r="T125" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="U125" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="V125" t="n">
         <v>4.3</v>
@@ -17326,10 +17326,10 @@
         <v>1.07</v>
       </c>
       <c r="X125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y125" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z125" t="n">
         <v>8.6</v>
@@ -17338,7 +17338,7 @@
         <v>10.5</v>
       </c>
       <c r="AB125" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AC125" t="n">
         <v>16</v>
@@ -17350,7 +17350,7 @@
         <v>15.5</v>
       </c>
       <c r="AF125" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AG125" t="n">
         <v>55</v>
@@ -17365,16 +17365,16 @@
         <v>1000</v>
       </c>
       <c r="AK125" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AL125" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM125" t="n">
         <v>200</v>
       </c>
-      <c r="AM125" t="n">
-        <v>220</v>
-      </c>
       <c r="AN125" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AO125" t="n">
         <v>4.7</v>
@@ -17407,7 +17407,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G126" t="n">
         <v>1.72</v>
@@ -17422,10 +17422,10 @@
         <v>3.85</v>
       </c>
       <c r="K126" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L126" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M126" t="n">
         <v>1.06</v>
@@ -17437,10 +17437,10 @@
         <v>1.32</v>
       </c>
       <c r="P126" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.32</v>
+        <v>1.81</v>
       </c>
       <c r="R126" t="n">
         <v>1.26</v>
@@ -17548,7 +17548,7 @@
         <v>3.65</v>
       </c>
       <c r="H127" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I127" t="n">
         <v>2.14</v>
@@ -17569,22 +17569,22 @@
         <v>4.8</v>
       </c>
       <c r="O127" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P127" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R127" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S127" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T127" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U127" t="n">
         <v>2.42</v>
@@ -17593,7 +17593,7 @@
         <v>1.87</v>
       </c>
       <c r="W127" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X127" t="n">
         <v>19</v>
@@ -17602,7 +17602,7 @@
         <v>12</v>
       </c>
       <c r="Z127" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA127" t="n">
         <v>26</v>
@@ -17677,19 +17677,19 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G128" t="n">
         <v>1.89</v>
       </c>
       <c r="H128" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I128" t="n">
         <v>6.2</v>
       </c>
       <c r="J128" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K128" t="n">
         <v>3.65</v>
@@ -17701,13 +17701,13 @@
         <v>1.11</v>
       </c>
       <c r="N128" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O128" t="n">
         <v>1.48</v>
       </c>
       <c r="P128" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q128" t="n">
         <v>2.32</v>
@@ -17722,7 +17722,7 @@
         <v>2.14</v>
       </c>
       <c r="U128" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="V128" t="n">
         <v>1.19</v>
@@ -17734,7 +17734,7 @@
         <v>11.5</v>
       </c>
       <c r="Y128" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z128" t="n">
         <v>44</v>
@@ -17743,10 +17743,10 @@
         <v>210</v>
       </c>
       <c r="AB128" t="n">
-        <v>6.8</v>
+        <v>970</v>
       </c>
       <c r="AC128" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD128" t="n">
         <v>28</v>
@@ -17755,7 +17755,7 @@
         <v>130</v>
       </c>
       <c r="AF128" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AG128" t="n">
         <v>13</v>
@@ -17767,7 +17767,7 @@
         <v>140</v>
       </c>
       <c r="AJ128" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK128" t="n">
         <v>27</v>
@@ -17851,7 +17851,7 @@
         <v>1.28</v>
       </c>
       <c r="S129" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T129" t="n">
         <v>1.88</v>
@@ -17950,7 +17950,7 @@
         <v>2.32</v>
       </c>
       <c r="G130" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H130" t="n">
         <v>2.72</v>
@@ -17980,7 +17980,7 @@
         <v>2.3</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="R130" t="n">
         <v>1.52</v>
@@ -17998,13 +17998,13 @@
         <v>1.46</v>
       </c>
       <c r="W130" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X130" t="n">
         <v>26</v>
       </c>
       <c r="Y130" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Z130" t="n">
         <v>24</v>
@@ -18013,13 +18013,13 @@
         <v>50</v>
       </c>
       <c r="AB130" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC130" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD130" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE130" t="n">
         <v>30</v>
@@ -18028,10 +18028,10 @@
         <v>20</v>
       </c>
       <c r="AG130" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH130" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AI130" t="n">
         <v>36</v>
@@ -18043,16 +18043,16 @@
         <v>25</v>
       </c>
       <c r="AL130" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM130" t="n">
         <v>70</v>
       </c>
       <c r="AN130" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AO130" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
@@ -18085,10 +18085,10 @@
         <v>2.7</v>
       </c>
       <c r="G131" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="H131" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I131" t="n">
         <v>3.05</v>
@@ -18133,13 +18133,13 @@
         <v>1.48</v>
       </c>
       <c r="W131" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X131" t="n">
         <v>10.5</v>
       </c>
       <c r="Y131" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="Z131" t="n">
         <v>970</v>
@@ -18160,7 +18160,7 @@
         <v>42</v>
       </c>
       <c r="AF131" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG131" t="n">
         <v>13</v>
@@ -18187,7 +18187,7 @@
         <v>40</v>
       </c>
       <c r="AO131" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132">
@@ -18232,7 +18232,7 @@
         <v>7.8</v>
       </c>
       <c r="K132" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L132" t="n">
         <v>1.21</v>
@@ -18256,7 +18256,7 @@
         <v>1.87</v>
       </c>
       <c r="S132" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="T132" t="n">
         <v>1.89</v>
@@ -18352,13 +18352,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="G133" t="n">
         <v>2.36</v>
       </c>
       <c r="H133" t="n">
-        <v>2.44</v>
+        <v>2.96</v>
       </c>
       <c r="I133" t="n">
         <v>4.8</v>
@@ -18487,22 +18487,22 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="G134" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H134" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I134" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K134" t="n">
         <v>4.4</v>
-      </c>
-      <c r="J134" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>4.3</v>
       </c>
       <c r="L134" t="n">
         <v>1.27</v>
@@ -18523,40 +18523,40 @@
         <v>1.56</v>
       </c>
       <c r="R134" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S134" t="n">
         <v>2.36</v>
       </c>
       <c r="T134" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="U134" t="n">
         <v>2.54</v>
       </c>
       <c r="V134" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W134" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X134" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y134" t="n">
         <v>23</v>
       </c>
       <c r="Z134" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA134" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB134" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC134" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD134" t="n">
         <v>17.5</v>
@@ -18565,34 +18565,34 @@
         <v>44</v>
       </c>
       <c r="AF134" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG134" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH134" t="n">
         <v>16</v>
       </c>
       <c r="AI134" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ134" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK134" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL134" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM134" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN134" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO134" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
@@ -18658,7 +18658,7 @@
         <v>1.7</v>
       </c>
       <c r="R135" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S135" t="n">
         <v>2.7</v>
@@ -18667,7 +18667,7 @@
         <v>1.53</v>
       </c>
       <c r="U135" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="V135" t="n">
         <v>1.33</v>
@@ -18763,10 +18763,10 @@
         <v>4.4</v>
       </c>
       <c r="H136" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I136" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J136" t="n">
         <v>3.1</v>
@@ -18775,7 +18775,7 @@
         <v>3.15</v>
       </c>
       <c r="L136" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="M136" t="n">
         <v>1.14</v>
@@ -18805,7 +18805,7 @@
         <v>1.73</v>
       </c>
       <c r="V136" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W136" t="n">
         <v>1.3</v>
@@ -18832,7 +18832,7 @@
         <v>12.5</v>
       </c>
       <c r="AE136" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF136" t="n">
         <v>27</v>
@@ -18913,10 +18913,10 @@
         <v>1.49</v>
       </c>
       <c r="M137" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N137" t="n">
-        <v>1.65</v>
+        <v>2.92</v>
       </c>
       <c r="O137" t="n">
         <v>1.44</v>
@@ -18928,16 +18928,16 @@
         <v>2.32</v>
       </c>
       <c r="R137" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S137" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T137" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U137" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="V137" t="n">
         <v>1.47</v>
@@ -18946,58 +18946,58 @@
         <v>1.5</v>
       </c>
       <c r="X137" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z137" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AA137" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AB137" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD137" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC137" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>20</v>
-      </c>
       <c r="AE137" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AF137" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AG137" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AH137" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AI137" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ137" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AK137" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AL137" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM137" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN137" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO137" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138">
@@ -19027,22 +19027,22 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G138" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H138" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I138" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J138" t="n">
+        <v>4</v>
+      </c>
+      <c r="K138" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K138" t="n">
-        <v>4.2</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
@@ -19051,13 +19051,13 @@
         <v>1.03</v>
       </c>
       <c r="N138" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O138" t="n">
         <v>1.17</v>
       </c>
       <c r="P138" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="Q138" t="n">
         <v>1.54</v>
@@ -19090,7 +19090,7 @@
         <v>17</v>
       </c>
       <c r="AA138" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB138" t="n">
         <v>22</v>
@@ -19108,7 +19108,7 @@
         <v>32</v>
       </c>
       <c r="AG138" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH138" t="n">
         <v>14.5</v>
@@ -19120,7 +19120,7 @@
         <v>70</v>
       </c>
       <c r="AK138" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL138" t="n">
         <v>34</v>
@@ -19129,7 +19129,7 @@
         <v>50</v>
       </c>
       <c r="AN138" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO138" t="n">
         <v>8.800000000000001</v>
@@ -19192,10 +19192,10 @@
         <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Q139" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R139" t="n">
         <v>0</v>
@@ -19321,10 +19321,10 @@
         <v>1.03</v>
       </c>
       <c r="N140" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="O140" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P140" t="n">
         <v>2.78</v>
@@ -19333,16 +19333,16 @@
         <v>1.41</v>
       </c>
       <c r="R140" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S140" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="T140" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U140" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V140" t="n">
         <v>1.11</v>
@@ -19351,58 +19351,58 @@
         <v>3.5</v>
       </c>
       <c r="X140" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y140" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z140" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA140" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB140" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC140" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD140" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE140" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF140" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG140" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI140" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ140" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK140" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL140" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM140" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN140" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO140" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G141" t="n">
         <v>2.16</v>
@@ -19444,7 +19444,7 @@
         <v>3.7</v>
       </c>
       <c r="J141" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K141" t="n">
         <v>3.95</v>
@@ -19462,7 +19462,7 @@
         <v>1.21</v>
       </c>
       <c r="P141" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q141" t="n">
         <v>1.67</v>
@@ -19471,10 +19471,10 @@
         <v>1.57</v>
       </c>
       <c r="S141" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T141" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U141" t="n">
         <v>2.58</v>
@@ -19483,16 +19483,16 @@
         <v>1.37</v>
       </c>
       <c r="W141" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X141" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y141" t="n">
         <v>19</v>
       </c>
       <c r="Z141" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA141" t="n">
         <v>65</v>
@@ -19504,19 +19504,19 @@
         <v>9</v>
       </c>
       <c r="AD141" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF141" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE141" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF141" t="n">
-        <v>16</v>
-      </c>
       <c r="AG141" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH141" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI141" t="n">
         <v>40</v>
@@ -19525,10 +19525,10 @@
         <v>27</v>
       </c>
       <c r="AK141" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL141" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM141" t="n">
         <v>65</v>
@@ -19537,7 +19537,7 @@
         <v>11.5</v>
       </c>
       <c r="AO141" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">
@@ -19567,10 +19567,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G142" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H142" t="n">
         <v>2.98</v>
@@ -19588,91 +19588,91 @@
         <v>1.45</v>
       </c>
       <c r="M142" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N142" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O142" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="P142" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R142" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="S142" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="T142" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U142" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V142" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W142" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X142" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y142" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z142" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA142" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB142" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC142" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD142" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE142" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF142" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG142" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI142" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ142" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK142" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL142" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM142" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN142" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO142" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143">
@@ -19720,94 +19720,94 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P143" t="n">
         <v>1.24</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="R143" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S143" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U143" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V143" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W143" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO143" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="144">
@@ -19837,112 +19837,112 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="G144" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I144" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J144" t="n">
         <v>3.05</v>
       </c>
       <c r="K144" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P144" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R144" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S144" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T144" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U144" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V144" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W144" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X144" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y144" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z144" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA144" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB144" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC144" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD144" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE144" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF144" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG144" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH144" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI144" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ144" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK144" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL144" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AM144" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AN144" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AO144" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145">
@@ -19972,112 +19972,112 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G145" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H145" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="I145" t="n">
         <v>2.92</v>
       </c>
       <c r="J145" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="K145" t="n">
         <v>3.05</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P145" t="n">
         <v>1.25</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R145" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S145" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U145" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V145" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W145" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X145" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO145" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="146">
@@ -20125,94 +20125,94 @@
         <v>4</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P146" t="n">
         <v>1.66</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R146" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S146" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U146" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W146" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO146" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="147">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -706,31 +706,31 @@
         <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T2" t="n">
         <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
         <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AB2" t="n">
         <v>9</v>
@@ -757,7 +757,7 @@
         <v>150</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>14.5</v>
@@ -769,10 +769,10 @@
         <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -850,10 +850,10 @@
         <v>2.26</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>500</v>
+        <v>2.22</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.14</v>
+        <v>2.52</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,13 +985,13 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1000,22 +1000,22 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
@@ -1024,22 +1024,22 @@
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1168,7 +1168,7 @@
         <v>48</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
         <v>110</v>
@@ -1243,7 +1243,7 @@
         <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
         <v>2.28</v>
@@ -1504,19 +1504,19 @@
         <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1615,19 +1615,19 @@
         <v>1.02</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H9" t="n">
         <v>1.02</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J9" t="n">
         <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,19 +1636,19 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
         <v>1.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
         <v>2.82</v>
@@ -1756,13 +1756,13 @@
         <v>2.84</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1786,7 +1786,7 @@
         <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -2026,7 +2026,7 @@
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2041,13 +2041,13 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
         <v>2.02</v>
@@ -2062,7 +2062,7 @@
         <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="V12" t="n">
         <v>1.2</v>
@@ -2161,7 +2161,7 @@
         <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J13" t="n">
         <v>3</v>
@@ -2203,7 +2203,7 @@
         <v>1.46</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
         <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I15" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
@@ -2452,25 +2452,25 @@
         <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.71</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
         <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
         <v>1.37</v>
@@ -2521,7 +2521,7 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
         <v>980</v>
@@ -2695,16 +2695,16 @@
         <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="I17" t="n">
         <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
         <v>3.85</v>
@@ -2716,7 +2716,7 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>1.24</v>
@@ -2737,13 +2737,13 @@
         <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
         <v>21</v>
@@ -2827,31 +2827,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H18" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I18" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
@@ -2863,7 +2863,7 @@
         <v>1.79</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
         <v>2.98</v>
@@ -2890,7 +2890,7 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB18" t="n">
         <v>14</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K19" t="n">
         <v>4.4</v>
@@ -2986,34 +2986,34 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q19" t="n">
         <v>1.68</v>
       </c>
       <c r="R19" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
         <v>1.73</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3259,7 +3259,7 @@
         <v>3.35</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P21" t="n">
         <v>1.77</v>
@@ -3328,13 +3328,13 @@
         <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
         <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
         <v>38</v>
@@ -3505,7 +3505,7 @@
         <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
         <v>2.9</v>
@@ -3514,7 +3514,7 @@
         <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
         <v>4.6</v>
@@ -3532,7 +3532,7 @@
         <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q23" t="n">
         <v>1.5</v>
@@ -3553,7 +3553,7 @@
         <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
         <v>34</v>
@@ -3598,7 +3598,7 @@
         <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>55</v>
@@ -3607,7 +3607,7 @@
         <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
         <v>2.92</v>
@@ -3646,13 +3646,13 @@
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J24" t="n">
         <v>2.48</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="O24" t="n">
         <v>1.66</v>
       </c>
       <c r="P24" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="R24" t="n">
         <v>1.12</v>
       </c>
       <c r="S24" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,7 +3685,7 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W24" t="n">
         <v>1.52</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="G25" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>2.78</v>
@@ -3802,31 +3802,31 @@
         <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
         <v>12.5</v>
@@ -3874,7 +3874,7 @@
         <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
         <v>40</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
         <v>4.9</v>
       </c>
       <c r="I26" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
         <v>3.6</v>
@@ -3937,22 +3937,22 @@
         <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
         <v>4.2</v>
       </c>
       <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.84</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.7</v>
       </c>
       <c r="V26" t="n">
         <v>1.22</v>
@@ -3982,7 +3982,7 @@
         <v>22</v>
       </c>
       <c r="AE26" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF26" t="n">
         <v>11.5</v>
@@ -4000,7 +4000,7 @@
         <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
         <v>50</v>
@@ -4009,7 +4009,7 @@
         <v>190</v>
       </c>
       <c r="AN26" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO26" t="n">
         <v>140</v>
@@ -4066,16 +4066,16 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="R27" t="n">
         <v>1.66</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G28" t="n">
         <v>2.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
         <v>3.85</v>
@@ -4255,7 +4255,7 @@
         <v>40</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
         <v>12.5</v>
@@ -4264,7 +4264,7 @@
         <v>19.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ28" t="n">
         <v>30</v>
@@ -4276,7 +4276,7 @@
         <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
         <v>15</v>
@@ -4318,16 +4318,16 @@
         <v>6.2</v>
       </c>
       <c r="H29" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="I29" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4360,7 +4360,7 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
         <v>1.19</v>
@@ -4450,16 +4450,16 @@
         <v>2.26</v>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
         <v>3.95</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.35</v>
@@ -4492,19 +4492,19 @@
         <v>2.1</v>
       </c>
       <c r="U30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X30" t="n">
         <v>9.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>25</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>1.42</v>
@@ -4630,10 +4630,10 @@
         <v>1.97</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4723,13 +4723,13 @@
         <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
         <v>3.85</v>
@@ -4750,13 +4750,13 @@
         <v>1.98</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="R32" t="n">
         <v>1.38</v>
       </c>
       <c r="S32" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="T32" t="n">
         <v>1.7</v>
@@ -4765,10 +4765,10 @@
         <v>2.2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="W32" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="G33" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H33" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J33" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
         <v>3.9</v>
@@ -4900,10 +4900,10 @@
         <v>2.38</v>
       </c>
       <c r="V33" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X33" t="n">
         <v>23</v>
@@ -4915,7 +4915,7 @@
         <v>24</v>
       </c>
       <c r="AA33" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
         <v>14.5</v>
@@ -4957,7 +4957,7 @@
         <v>17</v>
       </c>
       <c r="AO33" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -4996,7 +4996,7 @@
         <v>1.98</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J34" t="n">
         <v>2.78</v>
@@ -5023,7 +5023,7 @@
         <v>2.18</v>
       </c>
       <c r="R34" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
         <v>2.2</v>
@@ -5158,7 +5158,7 @@
         <v>1.47</v>
       </c>
       <c r="R35" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
         <v>1.47</v>
@@ -5257,109 +5257,109 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="H36" t="n">
-        <v>6.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S36" t="n">
         <v>3.85</v>
       </c>
-      <c r="K36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.72</v>
-      </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V36" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W36" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G37" t="n">
         <v>2.02</v>
@@ -5416,7 +5416,7 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O37" t="n">
         <v>1.01</v>
@@ -5428,7 +5428,7 @@
         <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
         <v>2.02</v>
@@ -5563,7 +5563,7 @@
         <v>2.02</v>
       </c>
       <c r="R38" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S38" t="n">
         <v>2.04</v>
@@ -5671,10 +5671,10 @@
         <v>2.8</v>
       </c>
       <c r="I39" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
         <v>4.4</v>
@@ -5701,7 +5701,7 @@
         <v>1.53</v>
       </c>
       <c r="S39" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
         <v>1.54</v>
@@ -5710,7 +5710,7 @@
         <v>2.44</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W39" t="n">
         <v>1.71</v>
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H40" t="n">
         <v>6.4</v>
@@ -5839,13 +5839,13 @@
         <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U40" t="n">
         <v>1.84</v>
       </c>
       <c r="V40" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W40" t="n">
         <v>2.42</v>
@@ -5935,13 +5935,13 @@
         <v>1.43</v>
       </c>
       <c r="G41" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H41" t="n">
         <v>8.4</v>
       </c>
       <c r="I41" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J41" t="n">
         <v>4.8</v>
@@ -5965,13 +5965,13 @@
         <v>2.22</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R41" t="n">
         <v>1.48</v>
       </c>
       <c r="S41" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T41" t="n">
         <v>1.96</v>
@@ -5983,7 +5983,7 @@
         <v>1.11</v>
       </c>
       <c r="W41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X41" t="n">
         <v>21</v>
@@ -5998,13 +5998,13 @@
         <v>350</v>
       </c>
       <c r="AB41" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC41" t="n">
         <v>11.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="n">
         <v>160</v>
@@ -6034,7 +6034,7 @@
         <v>170</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO41" t="n">
         <v>200</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G42" t="n">
         <v>2.16</v>
       </c>
       <c r="H42" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
@@ -6094,10 +6094,10 @@
         <v>2.64</v>
       </c>
       <c r="O42" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P42" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q42" t="n">
         <v>2.58</v>
@@ -6112,7 +6112,7 @@
         <v>2.18</v>
       </c>
       <c r="U42" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V42" t="n">
         <v>1.25</v>
@@ -6136,7 +6136,7 @@
         <v>8</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
         <v>21</v>
@@ -6145,10 +6145,10 @@
         <v>85</v>
       </c>
       <c r="AF42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
         <v>30</v>
@@ -6169,7 +6169,7 @@
         <v>250</v>
       </c>
       <c r="AN42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO42" t="n">
         <v>150</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G43" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="H43" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K43" t="n">
         <v>4.6</v>
@@ -6229,37 +6229,37 @@
         <v>4.3</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P43" t="n">
         <v>2.16</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
         <v>1.46</v>
       </c>
       <c r="S43" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T43" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U43" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V43" t="n">
         <v>1.2</v>
       </c>
       <c r="W43" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
       </c>
       <c r="Y43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z43" t="n">
         <v>55</v>
@@ -6268,10 +6268,10 @@
         <v>160</v>
       </c>
       <c r="AB43" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD43" t="n">
         <v>22</v>
@@ -6292,7 +6292,7 @@
         <v>70</v>
       </c>
       <c r="AJ43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="n">
         <v>970</v>
@@ -6304,10 +6304,10 @@
         <v>110</v>
       </c>
       <c r="AN43" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO43" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
@@ -6343,10 +6343,10 @@
         <v>6</v>
       </c>
       <c r="H44" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I44" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J44" t="n">
         <v>4</v>
@@ -6367,25 +6367,25 @@
         <v>1.26</v>
       </c>
       <c r="P44" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S44" t="n">
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U44" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V44" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W44" t="n">
         <v>1.2</v>
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G45" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H45" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I45" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J45" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
         <v>3.8</v>
       </c>
       <c r="L45" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
@@ -6511,19 +6511,19 @@
         <v>1.29</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T45" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V45" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
@@ -6547,10 +6547,10 @@
         <v>22</v>
       </c>
       <c r="AE45" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG45" t="n">
         <v>970</v>
@@ -6562,7 +6562,7 @@
         <v>110</v>
       </c>
       <c r="AJ45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK45" t="n">
         <v>22</v>
@@ -6574,7 +6574,7 @@
         <v>170</v>
       </c>
       <c r="AN45" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO45" t="n">
         <v>140</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="G46" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I46" t="n">
         <v>6.8</v>
@@ -6622,7 +6622,7 @@
         <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="L46" t="n">
         <v>1.39</v>
@@ -6658,7 +6658,7 @@
         <v>1.17</v>
       </c>
       <c r="W46" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X46" t="n">
         <v>16</v>
@@ -6745,10 +6745,10 @@
         <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H47" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
         <v>4.2</v>
@@ -6766,34 +6766,34 @@
         <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O47" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P47" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q47" t="n">
         <v>2.36</v>
       </c>
       <c r="R47" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S47" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T47" t="n">
         <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V47" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X47" t="n">
         <v>10.5</v>
@@ -6814,7 +6814,7 @@
         <v>7.6</v>
       </c>
       <c r="AD47" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE47" t="n">
         <v>60</v>
@@ -6913,7 +6913,7 @@
         <v>1.12</v>
       </c>
       <c r="R48" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
         <v>2.16</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G50" t="n">
         <v>5.8</v>
       </c>
       <c r="H50" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I50" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="J50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K50" t="n">
         <v>4.6</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.7</v>
       </c>
       <c r="L50" t="n">
         <v>1.28</v>
@@ -7189,13 +7189,13 @@
         <v>2.36</v>
       </c>
       <c r="T50" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U50" t="n">
         <v>2.46</v>
       </c>
       <c r="V50" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W50" t="n">
         <v>1.2</v>
@@ -7219,7 +7219,7 @@
         <v>11</v>
       </c>
       <c r="AD50" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE50" t="n">
         <v>14.5</v>
@@ -7231,7 +7231,7 @@
         <v>22</v>
       </c>
       <c r="AH50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI50" t="n">
         <v>25</v>
@@ -7288,7 +7288,7 @@
         <v>1.67</v>
       </c>
       <c r="H51" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I51" t="n">
         <v>5.7</v>
@@ -7315,10 +7315,10 @@
         <v>2.76</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R51" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S51" t="n">
         <v>2.34</v>
@@ -7363,7 +7363,7 @@
         <v>12.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH51" t="n">
         <v>17</v>
@@ -7423,16 +7423,16 @@
         <v>1.13</v>
       </c>
       <c r="H52" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I52" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J52" t="n">
         <v>14</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="L52" t="n">
         <v>1.17</v>
@@ -7453,7 +7453,7 @@
         <v>1.26</v>
       </c>
       <c r="R52" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="S52" t="n">
         <v>1.67</v>
@@ -7462,22 +7462,22 @@
         <v>2.14</v>
       </c>
       <c r="U52" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V52" t="n">
         <v>1.03</v>
       </c>
       <c r="W52" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="n">
         <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AA52" t="n">
         <v>1000</v>
@@ -7492,7 +7492,7 @@
         <v>95</v>
       </c>
       <c r="AE52" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="AF52" t="n">
         <v>11</v>
@@ -7507,13 +7507,13 @@
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AK52" t="n">
         <v>14.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM52" t="n">
         <v>1000</v>
@@ -7522,7 +7522,7 @@
         <v>2.2</v>
       </c>
       <c r="AO52" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="53">
@@ -7561,13 +7561,13 @@
         <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J53" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K53" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L53" t="n">
         <v>1.37</v>
@@ -7600,22 +7600,22 @@
         <v>2.4</v>
       </c>
       <c r="V53" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W53" t="n">
         <v>1.66</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y53" t="n">
         <v>14.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA53" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB53" t="n">
         <v>12.5</v>
@@ -7624,13 +7624,13 @@
         <v>8</v>
       </c>
       <c r="AD53" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE53" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF53" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG53" t="n">
         <v>11.5</v>
@@ -7639,25 +7639,25 @@
         <v>16</v>
       </c>
       <c r="AI53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ53" t="n">
         <v>34</v>
       </c>
       <c r="AK53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL53" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM53" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO53" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G54" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I54" t="n">
         <v>2.42</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.44</v>
       </c>
       <c r="J54" t="n">
         <v>3.85</v>
       </c>
       <c r="K54" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L54" t="n">
         <v>1.29</v>
@@ -7729,13 +7729,13 @@
         <v>2.44</v>
       </c>
       <c r="T54" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U54" t="n">
         <v>2.78</v>
       </c>
       <c r="V54" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W54" t="n">
         <v>1.48</v>
@@ -7789,10 +7789,10 @@
         <v>55</v>
       </c>
       <c r="AN54" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G55" t="n">
         <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I55" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J55" t="n">
         <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7870,22 +7870,22 @@
         <v>2.08</v>
       </c>
       <c r="V55" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W55" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X55" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y55" t="n">
         <v>12</v>
       </c>
       <c r="Z55" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="n">
         <v>12.5</v>
@@ -7897,7 +7897,7 @@
         <v>14</v>
       </c>
       <c r="AE55" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF55" t="n">
         <v>22</v>
@@ -7918,16 +7918,16 @@
         <v>38</v>
       </c>
       <c r="AL55" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM55" t="n">
         <v>110</v>
       </c>
       <c r="AN55" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO55" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -8095,7 +8095,7 @@
         <v>1.45</v>
       </c>
       <c r="G57" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H57" t="n">
         <v>5.7</v>
@@ -8230,7 +8230,7 @@
         <v>1.97</v>
       </c>
       <c r="G58" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H58" t="n">
         <v>4</v>
@@ -8242,7 +8242,7 @@
         <v>3.35</v>
       </c>
       <c r="K58" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L58" t="n">
         <v>1.33</v>
@@ -8251,43 +8251,43 @@
         <v>1.01</v>
       </c>
       <c r="N58" t="n">
-        <v>1.71</v>
+        <v>3.05</v>
       </c>
       <c r="O58" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P58" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R58" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S58" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T58" t="n">
         <v>1.68</v>
       </c>
       <c r="U58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V58" t="n">
         <v>1.27</v>
       </c>
       <c r="W58" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X58" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y58" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA58" t="n">
         <v>1000</v>
@@ -8296,34 +8296,34 @@
         <v>12</v>
       </c>
       <c r="AC58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD58" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE58" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF58" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ58" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK58" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
@@ -8368,10 +8368,10 @@
         <v>2.54</v>
       </c>
       <c r="H59" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I59" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="J59" t="n">
         <v>3.8</v>
@@ -8398,7 +8398,7 @@
         <v>1.87</v>
       </c>
       <c r="R59" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S59" t="n">
         <v>3.2</v>
@@ -8437,7 +8437,7 @@
         <v>970</v>
       </c>
       <c r="AE59" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AF59" t="n">
         <v>21</v>
@@ -8449,7 +8449,7 @@
         <v>22</v>
       </c>
       <c r="AI59" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AJ59" t="n">
         <v>38</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="H60" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J60" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K60" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L60" t="n">
         <v>1.31</v>
@@ -8524,7 +8524,7 @@
         <v>3.5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -8539,16 +8539,16 @@
         <v>2.94</v>
       </c>
       <c r="T60" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U60" t="n">
         <v>2.12</v>
       </c>
       <c r="V60" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W60" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="X60" t="n">
         <v>970</v>
@@ -8557,10 +8557,10 @@
         <v>970</v>
       </c>
       <c r="Z60" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA60" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AB60" t="n">
         <v>970</v>
@@ -8572,10 +8572,10 @@
         <v>970</v>
       </c>
       <c r="AE60" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AF60" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG60" t="n">
         <v>970</v>
@@ -8587,22 +8587,22 @@
         <v>50</v>
       </c>
       <c r="AJ60" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AK60" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL60" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM60" t="n">
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO60" t="n">
         <v>32</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="61">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G61" t="n">
         <v>1.72</v>
@@ -8641,13 +8641,13 @@
         <v>5.3</v>
       </c>
       <c r="I61" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="J61" t="n">
         <v>3.75</v>
       </c>
       <c r="K61" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8656,22 +8656,22 @@
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="O61" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P61" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R61" t="n">
         <v>1.32</v>
       </c>
       <c r="S61" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T61" t="n">
         <v>1.01</v>
@@ -8680,13 +8680,13 @@
         <v>1.01</v>
       </c>
       <c r="V61" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="W61" t="n">
         <v>2.38</v>
       </c>
       <c r="X61" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y61" t="n">
         <v>1000</v>
@@ -8770,7 +8770,7 @@
         <v>1.83</v>
       </c>
       <c r="G62" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H62" t="n">
         <v>4.2</v>
@@ -8779,7 +8779,7 @@
         <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K62" t="n">
         <v>4.2</v>
@@ -8800,7 +8800,7 @@
         <v>2.04</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R62" t="n">
         <v>1.38</v>
@@ -8818,7 +8818,7 @@
         <v>1.25</v>
       </c>
       <c r="W62" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X62" t="n">
         <v>17</v>
@@ -8869,7 +8869,7 @@
         <v>110</v>
       </c>
       <c r="AN62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO62" t="n">
         <v>65</v>
@@ -8923,13 +8923,13 @@
         <v>1.01</v>
       </c>
       <c r="M63" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N63" t="n">
         <v>3.25</v>
       </c>
       <c r="O63" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P63" t="n">
         <v>1.66</v>
@@ -8944,10 +8944,10 @@
         <v>3.75</v>
       </c>
       <c r="T63" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U63" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V63" t="n">
         <v>1.11</v>
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H64" t="n">
         <v>2.24</v>
@@ -9181,7 +9181,7 @@
         <v>2.26</v>
       </c>
       <c r="I65" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J65" t="n">
         <v>4.2</v>
@@ -9196,7 +9196,7 @@
         <v>1.02</v>
       </c>
       <c r="N65" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O65" t="n">
         <v>1.15</v>
@@ -9208,19 +9208,19 @@
         <v>1.46</v>
       </c>
       <c r="R65" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S65" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T65" t="n">
         <v>1.53</v>
       </c>
       <c r="U65" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="V65" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W65" t="n">
         <v>1.49</v>
@@ -9229,7 +9229,7 @@
         <v>34</v>
       </c>
       <c r="Y65" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z65" t="n">
         <v>21</v>
@@ -9238,7 +9238,7 @@
         <v>38</v>
       </c>
       <c r="AB65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC65" t="n">
         <v>11.5</v>
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="G66" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I66" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="J66" t="n">
         <v>3.4</v>
@@ -9355,10 +9355,10 @@
         <v>1.01</v>
       </c>
       <c r="V66" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="W66" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9442,16 +9442,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G67" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H67" t="n">
         <v>2.32</v>
       </c>
       <c r="I67" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="J67" t="n">
         <v>3.45</v>
@@ -9460,7 +9460,7 @@
         <v>3.55</v>
       </c>
       <c r="L67" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
@@ -9472,16 +9472,16 @@
         <v>1.33</v>
       </c>
       <c r="P67" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q67" t="n">
         <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S67" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T67" t="n">
         <v>1.75</v>
@@ -9490,25 +9490,25 @@
         <v>2.1</v>
       </c>
       <c r="V67" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="W67" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X67" t="n">
         <v>13.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA67" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC67" t="n">
         <v>7.8</v>
@@ -9523,19 +9523,19 @@
         <v>24</v>
       </c>
       <c r="AG67" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH67" t="n">
         <v>18</v>
       </c>
       <c r="AI67" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ67" t="n">
         <v>65</v>
       </c>
       <c r="AK67" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AL67" t="n">
         <v>55</v>
@@ -9547,7 +9547,7 @@
         <v>40</v>
       </c>
       <c r="AO67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G68" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H68" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I68" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="J68" t="n">
         <v>4.3</v>
       </c>
       <c r="K68" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L68" t="n">
         <v>1.36</v>
@@ -9601,19 +9601,19 @@
         <v>1.01</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="O68" t="n">
         <v>1.27</v>
       </c>
       <c r="P68" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.85</v>
+        <v>1.27</v>
       </c>
       <c r="R68" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S68" t="n">
         <v>2.76</v>
@@ -9625,10 +9625,10 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W68" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="X68" t="n">
         <v>20</v>
@@ -9712,46 +9712,46 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="G69" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="H69" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J69" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K69" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L69" t="n">
         <v>1.45</v>
       </c>
       <c r="M69" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
         <v>3.55</v>
       </c>
       <c r="O69" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P69" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R69" t="n">
         <v>1.31</v>
       </c>
       <c r="S69" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T69" t="n">
         <v>1.78</v>
@@ -9760,22 +9760,22 @@
         <v>2.08</v>
       </c>
       <c r="V69" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W69" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X69" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y69" t="n">
         <v>12.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA69" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB69" t="n">
         <v>11</v>
@@ -9787,13 +9787,13 @@
         <v>14</v>
       </c>
       <c r="AE69" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF69" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG69" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH69" t="n">
         <v>18.5</v>
@@ -9808,16 +9808,16 @@
         <v>32</v>
       </c>
       <c r="AL69" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM69" t="n">
         <v>110</v>
       </c>
       <c r="AN69" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO69" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
@@ -9850,7 +9850,7 @@
         <v>1.8</v>
       </c>
       <c r="G70" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H70" t="n">
         <v>5</v>
@@ -9898,7 +9898,7 @@
         <v>1.22</v>
       </c>
       <c r="W70" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X70" t="n">
         <v>970</v>
@@ -9922,7 +9922,7 @@
         <v>21</v>
       </c>
       <c r="AE70" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF70" t="n">
         <v>970</v>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G72" t="n">
         <v>3.85</v>
@@ -10132,10 +10132,10 @@
         <v>3.15</v>
       </c>
       <c r="K72" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L72" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M72" t="n">
         <v>1.01</v>
@@ -10150,13 +10150,13 @@
         <v>1.81</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R72" t="n">
         <v>1.28</v>
       </c>
       <c r="S72" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T72" t="n">
         <v>1.01</v>
@@ -10261,7 +10261,7 @@
         <v>2.52</v>
       </c>
       <c r="I73" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J73" t="n">
         <v>3.15</v>
@@ -10342,7 +10342,7 @@
         <v>50</v>
       </c>
       <c r="AJ73" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK73" t="n">
         <v>38</v>
@@ -10351,7 +10351,7 @@
         <v>55</v>
       </c>
       <c r="AM73" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN73" t="n">
         <v>34</v>
@@ -10423,7 +10423,7 @@
         <v>1.46</v>
       </c>
       <c r="R74" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S74" t="n">
         <v>1.46</v>
@@ -10558,7 +10558,7 @@
         <v>2.28</v>
       </c>
       <c r="R75" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S75" t="n">
         <v>4.3</v>
@@ -10657,52 +10657,52 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G76" t="n">
         <v>1.21</v>
       </c>
       <c r="H76" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I76" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="J76" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K76" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="M76" t="n">
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O76" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P76" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="R76" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="S76" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="T76" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="U76" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="V76" t="n">
         <v>1.05</v>
@@ -10711,58 +10711,58 @@
         <v>5.7</v>
       </c>
       <c r="X76" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="Y76" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="Z76" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA76" t="n">
         <v>1000</v>
       </c>
       <c r="AB76" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG76" t="n">
         <v>14</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH76" t="n">
         <v>34</v>
       </c>
       <c r="AI76" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ76" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM76" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN76" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="AO76" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77">
@@ -10822,10 +10822,10 @@
         <v>1.21</v>
       </c>
       <c r="P77" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R77" t="n">
         <v>1.53</v>
@@ -10864,7 +10864,7 @@
         <v>9.4</v>
       </c>
       <c r="AD77" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE77" t="n">
         <v>22</v>
@@ -10876,7 +10876,7 @@
         <v>14.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI77" t="n">
         <v>30</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G78" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H78" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I78" t="n">
         <v>1.84</v>
       </c>
       <c r="J78" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K78" t="n">
         <v>4.5</v>
@@ -10951,7 +10951,7 @@
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O78" t="n">
         <v>1.27</v>
@@ -10972,7 +10972,7 @@
         <v>1.79</v>
       </c>
       <c r="U78" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="V78" t="n">
         <v>2.18</v>
@@ -10993,7 +10993,7 @@
         <v>22</v>
       </c>
       <c r="AB78" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AC78" t="n">
         <v>11.5</v>
@@ -11008,19 +11008,19 @@
         <v>50</v>
       </c>
       <c r="AG78" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH78" t="n">
         <v>21</v>
       </c>
       <c r="AI78" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ78" t="n">
         <v>140</v>
       </c>
       <c r="AK78" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="n">
         <v>80</v>
@@ -11032,7 +11032,7 @@
         <v>85</v>
       </c>
       <c r="AO78" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -11341,10 +11341,10 @@
         <v>1.86</v>
       </c>
       <c r="I81" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K81" t="n">
         <v>4.5</v>
@@ -11356,10 +11356,10 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="O81" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P81" t="n">
         <v>2.2</v>
@@ -11368,10 +11368,10 @@
         <v>1.48</v>
       </c>
       <c r="R81" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S81" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="T81" t="n">
         <v>1.01</v>
@@ -11380,10 +11380,10 @@
         <v>1.01</v>
       </c>
       <c r="V81" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W81" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X81" t="n">
         <v>32</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G82" t="n">
         <v>8.199999999999999</v>
@@ -11497,13 +11497,13 @@
         <v>1.23</v>
       </c>
       <c r="P82" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q82" t="n">
         <v>1.65</v>
       </c>
       <c r="R82" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S82" t="n">
         <v>2.66</v>
@@ -11518,7 +11518,7 @@
         <v>2.84</v>
       </c>
       <c r="W82" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X82" t="n">
         <v>22</v>
@@ -11551,7 +11551,7 @@
         <v>29</v>
       </c>
       <c r="AH82" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI82" t="n">
         <v>34</v>
@@ -11743,7 +11743,7 @@
         <v>11.5</v>
       </c>
       <c r="H84" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I84" t="n">
         <v>1.53</v>
@@ -11752,7 +11752,7 @@
         <v>3.95</v>
       </c>
       <c r="K84" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L84" t="n">
         <v>1.44</v>
@@ -11764,7 +11764,7 @@
         <v>2.68</v>
       </c>
       <c r="O84" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P84" t="n">
         <v>1.57</v>
@@ -11791,37 +11791,37 @@
         <v>1.09</v>
       </c>
       <c r="X84" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y84" t="n">
         <v>970</v>
       </c>
       <c r="Z84" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AA84" t="n">
         <v>970</v>
       </c>
       <c r="AB84" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC84" t="n">
         <v>970</v>
       </c>
       <c r="AD84" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE84" t="n">
         <v>27</v>
       </c>
       <c r="AF84" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG84" t="n">
         <v>55</v>
       </c>
       <c r="AH84" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI84" t="n">
         <v>85</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G86" t="n">
         <v>3.35</v>
@@ -12196,7 +12196,7 @@
         <v>1.58</v>
       </c>
       <c r="X87" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y87" t="n">
         <v>13</v>
@@ -12295,31 +12295,31 @@
         <v>3.65</v>
       </c>
       <c r="L88" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M88" t="n">
         <v>1.08</v>
       </c>
       <c r="N88" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="O88" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P88" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R88" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S88" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T88" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U88" t="n">
         <v>2.06</v>
@@ -12331,7 +12331,7 @@
         <v>1.33</v>
       </c>
       <c r="X88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y88" t="n">
         <v>8.800000000000001</v>
@@ -12370,7 +12370,7 @@
         <v>80</v>
       </c>
       <c r="AK88" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL88" t="n">
         <v>60</v>
@@ -12382,7 +12382,7 @@
         <v>55</v>
       </c>
       <c r="AO88" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -12490,7 +12490,7 @@
         <v>200</v>
       </c>
       <c r="AF89" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG89" t="n">
         <v>11</v>
@@ -12547,25 +12547,25 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="G90" t="n">
         <v>1.16</v>
       </c>
       <c r="H90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J90" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L90" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M90" t="n">
         <v>1.02</v>
@@ -12577,28 +12577,28 @@
         <v>1.18</v>
       </c>
       <c r="P90" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R90" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S90" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T90" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="U90" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="V90" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W90" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="X90" t="n">
         <v>34</v>
@@ -12607,7 +12607,7 @@
         <v>80</v>
       </c>
       <c r="Z90" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="AA90" t="n">
         <v>1000</v>
@@ -12616,10 +12616,10 @@
         <v>9.6</v>
       </c>
       <c r="AC90" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AD90" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AE90" t="n">
         <v>1000</v>
@@ -12634,22 +12634,22 @@
         <v>65</v>
       </c>
       <c r="AI90" t="n">
-        <v>460</v>
+        <v>560</v>
       </c>
       <c r="AJ90" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AK90" t="n">
         <v>16</v>
       </c>
       <c r="AL90" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM90" t="n">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AO90" t="n">
         <v>1000</v>
@@ -12718,7 +12718,7 @@
         <v>2.22</v>
       </c>
       <c r="R91" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S91" t="n">
         <v>3.85</v>
@@ -12817,58 +12817,58 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="G92" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H92" t="n">
         <v>2.78</v>
       </c>
-      <c r="H92" t="n">
-        <v>2.74</v>
-      </c>
       <c r="I92" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K92" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L92" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R92" t="n">
         <v>1.3</v>
       </c>
-      <c r="P92" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.39</v>
-      </c>
       <c r="S92" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T92" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U92" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="V92" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W92" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X92" t="n">
         <v>970</v>
@@ -12880,7 +12880,7 @@
         <v>21</v>
       </c>
       <c r="AA92" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AB92" t="n">
         <v>970</v>
@@ -12892,10 +12892,10 @@
         <v>970</v>
       </c>
       <c r="AE92" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AF92" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG92" t="n">
         <v>970</v>
@@ -12904,25 +12904,25 @@
         <v>970</v>
       </c>
       <c r="AI92" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL92" t="n">
         <v>55</v>
       </c>
-      <c r="AJ92" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK92" t="n">
+      <c r="AM92" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN92" t="n">
         <v>28</v>
       </c>
-      <c r="AL92" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM92" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>22</v>
-      </c>
       <c r="AO92" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -12952,19 +12952,19 @@
         </is>
       </c>
       <c r="F93" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G93" t="n">
         <v>2.56</v>
       </c>
-      <c r="G93" t="n">
-        <v>2.58</v>
-      </c>
       <c r="H93" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I93" t="n">
         <v>3.3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K93" t="n">
         <v>3.35</v>
@@ -12988,7 +12988,7 @@
         <v>2.42</v>
       </c>
       <c r="R93" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S93" t="n">
         <v>4.8</v>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G94" t="n">
         <v>1.79</v>
@@ -13102,25 +13102,25 @@
         <v>3.6</v>
       </c>
       <c r="K94" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L94" t="n">
         <v>1.43</v>
       </c>
       <c r="M94" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N94" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O94" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P94" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R94" t="n">
         <v>1.29</v>
@@ -13129,7 +13129,7 @@
         <v>3.95</v>
       </c>
       <c r="T94" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U94" t="n">
         <v>1.86</v>
@@ -13141,7 +13141,7 @@
         <v>2.26</v>
       </c>
       <c r="X94" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y94" t="n">
         <v>17.5</v>
@@ -13153,7 +13153,7 @@
         <v>210</v>
       </c>
       <c r="AB94" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC94" t="n">
         <v>8.4</v>
@@ -13231,7 +13231,7 @@
         <v>2.48</v>
       </c>
       <c r="I95" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="J95" t="n">
         <v>3.5</v>
@@ -13270,7 +13270,7 @@
         <v>2.26</v>
       </c>
       <c r="V95" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W95" t="n">
         <v>1.49</v>
@@ -13492,16 +13492,16 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G97" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J97" t="n">
         <v>2.92</v>
@@ -13528,7 +13528,7 @@
         <v>2.68</v>
       </c>
       <c r="R97" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S97" t="n">
         <v>5.5</v>
@@ -13540,10 +13540,10 @@
         <v>1.6</v>
       </c>
       <c r="V97" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W97" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X97" t="n">
         <v>10</v>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="G99" t="n">
         <v>1.67</v>
@@ -13771,7 +13771,7 @@
         <v>3.05</v>
       </c>
       <c r="I99" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J99" t="n">
         <v>4.8</v>
@@ -13786,16 +13786,16 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O99" t="n">
         <v>1.11</v>
       </c>
       <c r="P99" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R99" t="n">
         <v>1.75</v>
@@ -13810,7 +13810,7 @@
         <v>1.01</v>
       </c>
       <c r="V99" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W99" t="n">
         <v>2.48</v>
@@ -13897,19 +13897,19 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G100" t="n">
         <v>1.35</v>
       </c>
       <c r="H100" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="I100" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J100" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K100" t="n">
         <v>6.8</v>
@@ -13921,34 +13921,34 @@
         <v>1.02</v>
       </c>
       <c r="N100" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="O100" t="n">
         <v>1.13</v>
       </c>
       <c r="P100" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R100" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="S100" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T100" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U100" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V100" t="n">
         <v>1.1</v>
       </c>
       <c r="W100" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="X100" t="n">
         <v>44</v>
@@ -13960,7 +13960,7 @@
         <v>120</v>
       </c>
       <c r="AA100" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB100" t="n">
         <v>15</v>
@@ -13972,7 +13972,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF100" t="n">
         <v>12</v>
@@ -13984,7 +13984,7 @@
         <v>25</v>
       </c>
       <c r="AI100" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ100" t="n">
         <v>13</v>
@@ -13996,13 +13996,13 @@
         <v>29</v>
       </c>
       <c r="AM100" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN100" t="n">
         <v>3.7</v>
       </c>
       <c r="AO100" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
@@ -14068,7 +14068,7 @@
         <v>2.06</v>
       </c>
       <c r="R101" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S101" t="n">
         <v>2.06</v>
@@ -14218,7 +14218,7 @@
         <v>1.27</v>
       </c>
       <c r="W102" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X102" t="n">
         <v>16</v>
@@ -14248,7 +14248,7 @@
         <v>11.5</v>
       </c>
       <c r="AG102" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH102" t="n">
         <v>18.5</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G103" t="n">
         <v>2.46</v>
@@ -14314,7 +14314,7 @@
         <v>4.1</v>
       </c>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K103" t="n">
         <v>3.6</v>
@@ -14332,7 +14332,7 @@
         <v>1.39</v>
       </c>
       <c r="P103" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q103" t="n">
         <v>2.16</v>
@@ -14341,16 +14341,16 @@
         <v>1.26</v>
       </c>
       <c r="S103" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T103" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="U103" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="V103" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W103" t="n">
         <v>1.68</v>
@@ -14440,16 +14440,16 @@
         <v>2.4</v>
       </c>
       <c r="G104" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H104" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I104" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J104" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K104" t="n">
         <v>3.25</v>
@@ -14467,7 +14467,7 @@
         <v>1.4</v>
       </c>
       <c r="P104" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q104" t="n">
         <v>2.18</v>
@@ -14482,19 +14482,19 @@
         <v>1.87</v>
       </c>
       <c r="U104" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V104" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W104" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X104" t="n">
         <v>13</v>
       </c>
       <c r="Y104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z104" t="n">
         <v>28</v>
@@ -14506,7 +14506,7 @@
         <v>10</v>
       </c>
       <c r="AC104" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD104" t="n">
         <v>17</v>
@@ -14536,7 +14536,7 @@
         <v>55</v>
       </c>
       <c r="AM104" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN104" t="n">
         <v>32</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="G105" t="n">
         <v>3.1</v>
@@ -14581,13 +14581,13 @@
         <v>2.74</v>
       </c>
       <c r="I105" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J105" t="n">
         <v>2.88</v>
       </c>
       <c r="K105" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L105" t="n">
         <v>1.01</v>
@@ -14620,7 +14620,7 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W105" t="n">
         <v>1.48</v>
@@ -14716,7 +14716,7 @@
         <v>3.65</v>
       </c>
       <c r="I106" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J106" t="n">
         <v>3.2</v>
@@ -14728,7 +14728,7 @@
         <v>1.31</v>
       </c>
       <c r="M106" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N106" t="n">
         <v>3.85</v>
@@ -14740,7 +14740,7 @@
         <v>1.98</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R106" t="n">
         <v>1.38</v>
@@ -14761,10 +14761,10 @@
         <v>1.83</v>
       </c>
       <c r="X106" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y106" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z106" t="n">
         <v>36</v>
@@ -14785,7 +14785,7 @@
         <v>60</v>
       </c>
       <c r="AF106" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG106" t="n">
         <v>13</v>
@@ -14809,7 +14809,7 @@
         <v>110</v>
       </c>
       <c r="AN106" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AO106" t="n">
         <v>55</v>
@@ -14842,16 +14842,16 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G107" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="H107" t="n">
         <v>5.6</v>
       </c>
       <c r="I107" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J107" t="n">
         <v>3.45</v>
@@ -14881,7 +14881,7 @@
         <v>1.33</v>
       </c>
       <c r="S107" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T107" t="n">
         <v>2.04</v>
@@ -14890,16 +14890,16 @@
         <v>1.84</v>
       </c>
       <c r="V107" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W107" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X107" t="n">
         <v>970</v>
       </c>
       <c r="Y107" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z107" t="n">
         <v>70</v>
@@ -14914,7 +14914,7 @@
         <v>11.5</v>
       </c>
       <c r="AD107" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE107" t="n">
         <v>140</v>
@@ -14983,34 +14983,34 @@
         <v>3.4</v>
       </c>
       <c r="H108" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I108" t="n">
         <v>3.35</v>
       </c>
       <c r="J108" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="K108" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L108" t="n">
         <v>1.46</v>
       </c>
       <c r="M108" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N108" t="n">
         <v>2.78</v>
       </c>
       <c r="O108" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P108" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R108" t="n">
         <v>1.21</v>
@@ -15025,7 +15025,7 @@
         <v>1.85</v>
       </c>
       <c r="V108" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W108" t="n">
         <v>1.44</v>
@@ -15043,7 +15043,7 @@
         <v>60</v>
       </c>
       <c r="AB108" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC108" t="n">
         <v>8.199999999999999</v>
@@ -15052,19 +15052,19 @@
         <v>15.5</v>
       </c>
       <c r="AE108" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF108" t="n">
         <v>22</v>
       </c>
       <c r="AG108" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH108" t="n">
         <v>24</v>
       </c>
       <c r="AI108" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ108" t="n">
         <v>60</v>
@@ -15073,10 +15073,10 @@
         <v>48</v>
       </c>
       <c r="AL108" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM108" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN108" t="n">
         <v>55</v>
@@ -15118,7 +15118,7 @@
         <v>11.5</v>
       </c>
       <c r="H109" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I109" t="n">
         <v>1.37</v>
@@ -15127,7 +15127,7 @@
         <v>6.2</v>
       </c>
       <c r="K109" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L109" t="n">
         <v>1.26</v>
@@ -15139,7 +15139,7 @@
         <v>6</v>
       </c>
       <c r="O109" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P109" t="n">
         <v>2.76</v>
@@ -15151,10 +15151,10 @@
         <v>1.7</v>
       </c>
       <c r="S109" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T109" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U109" t="n">
         <v>2.02</v>
@@ -15217,7 +15217,7 @@
         <v>150</v>
       </c>
       <c r="AO109" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="110">
@@ -15247,13 +15247,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G110" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H110" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I110" t="n">
         <v>5.2</v>
@@ -15265,22 +15265,22 @@
         <v>4.6</v>
       </c>
       <c r="L110" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M110" t="n">
         <v>1.01</v>
       </c>
       <c r="N110" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O110" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P110" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R110" t="n">
         <v>1.57</v>
@@ -15292,16 +15292,16 @@
         <v>1.61</v>
       </c>
       <c r="U110" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V110" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W110" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="X110" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y110" t="n">
         <v>23</v>
@@ -15328,7 +15328,7 @@
         <v>15.5</v>
       </c>
       <c r="AG110" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH110" t="n">
         <v>21</v>
@@ -15340,7 +15340,7 @@
         <v>21</v>
       </c>
       <c r="AK110" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL110" t="n">
         <v>29</v>
@@ -15349,7 +15349,7 @@
         <v>85</v>
       </c>
       <c r="AN110" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO110" t="n">
         <v>46</v>
@@ -15517,19 +15517,19 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G112" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="H112" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="I112" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="J112" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K112" t="n">
         <v>6.4</v>
@@ -15541,22 +15541,22 @@
         <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O112" t="n">
         <v>1.13</v>
       </c>
       <c r="P112" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R112" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S112" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T112" t="n">
         <v>1.62</v>
@@ -15565,10 +15565,10 @@
         <v>2</v>
       </c>
       <c r="V112" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W112" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15652,10 +15652,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G113" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H113" t="n">
         <v>6</v>
@@ -15667,7 +15667,7 @@
         <v>4</v>
       </c>
       <c r="K113" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L113" t="n">
         <v>1.46</v>
@@ -15754,7 +15754,7 @@
         <v>140</v>
       </c>
       <c r="AN113" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO113" t="n">
         <v>130</v>
@@ -15826,7 +15826,7 @@
         <v>1.22</v>
       </c>
       <c r="S114" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T114" t="n">
         <v>1.93</v>
@@ -16060,19 +16060,19 @@
         <v>4.1</v>
       </c>
       <c r="G116" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="H116" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I116" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="J116" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K116" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L116" t="n">
         <v>1.31</v>
@@ -16087,16 +16087,16 @@
         <v>1.27</v>
       </c>
       <c r="P116" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R116" t="n">
         <v>1.39</v>
       </c>
       <c r="S116" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="T116" t="n">
         <v>1.71</v>
@@ -16105,10 +16105,10 @@
         <v>2.1</v>
       </c>
       <c r="V116" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="W116" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="X116" t="n">
         <v>20</v>
@@ -16123,7 +16123,7 @@
         <v>27</v>
       </c>
       <c r="AB116" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC116" t="n">
         <v>10.5</v>
@@ -16144,7 +16144,7 @@
         <v>22</v>
       </c>
       <c r="AI116" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ116" t="n">
         <v>120</v>
@@ -16153,7 +16153,7 @@
         <v>70</v>
       </c>
       <c r="AL116" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM116" t="n">
         <v>110</v>
@@ -16201,7 +16201,7 @@
         <v>1.74</v>
       </c>
       <c r="I117" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J117" t="n">
         <v>4.3</v>
@@ -16225,13 +16225,13 @@
         <v>2.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R117" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S117" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T117" t="n">
         <v>1.62</v>
@@ -16240,7 +16240,7 @@
         <v>2.38</v>
       </c>
       <c r="V117" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W117" t="n">
         <v>1.25</v>
@@ -16249,7 +16249,7 @@
         <v>27</v>
       </c>
       <c r="Y117" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z117" t="n">
         <v>15.5</v>
@@ -16327,19 +16327,19 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G118" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H118" t="n">
         <v>6.6</v>
       </c>
       <c r="I118" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J118" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K118" t="n">
         <v>4.3</v>
@@ -16351,34 +16351,34 @@
         <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O118" t="n">
         <v>1.37</v>
       </c>
       <c r="P118" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q118" t="n">
         <v>2.08</v>
       </c>
       <c r="R118" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S118" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T118" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U118" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="V118" t="n">
         <v>1.15</v>
       </c>
       <c r="W118" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X118" t="n">
         <v>16</v>
@@ -16393,7 +16393,7 @@
         <v>280</v>
       </c>
       <c r="AB118" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC118" t="n">
         <v>11</v>
@@ -16405,7 +16405,7 @@
         <v>150</v>
       </c>
       <c r="AF118" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG118" t="n">
         <v>11</v>
@@ -16417,10 +16417,10 @@
         <v>140</v>
       </c>
       <c r="AJ118" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK118" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL118" t="n">
         <v>46</v>
@@ -16462,25 +16462,25 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H119" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I119" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J119" t="n">
         <v>3.4</v>
       </c>
       <c r="K119" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L119" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M119" t="n">
         <v>1.08</v>
@@ -16489,13 +16489,13 @@
         <v>3.4</v>
       </c>
       <c r="O119" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P119" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R119" t="n">
         <v>1.31</v>
@@ -16504,16 +16504,16 @@
         <v>3.85</v>
       </c>
       <c r="T119" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U119" t="n">
         <v>2</v>
       </c>
       <c r="V119" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W119" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X119" t="n">
         <v>14.5</v>
@@ -16537,7 +16537,7 @@
         <v>970</v>
       </c>
       <c r="AE119" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF119" t="n">
         <v>970</v>
@@ -16558,13 +16558,13 @@
         <v>24</v>
       </c>
       <c r="AL119" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM119" t="n">
         <v>140</v>
       </c>
       <c r="AN119" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AO119" t="n">
         <v>85</v>
@@ -16597,7 +16597,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G120" t="n">
         <v>3.1</v>
@@ -16606,10 +16606,10 @@
         <v>2.76</v>
       </c>
       <c r="I120" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J120" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K120" t="n">
         <v>3.25</v>
@@ -16663,10 +16663,10 @@
         <v>44</v>
       </c>
       <c r="AB120" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC120" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD120" t="n">
         <v>12.5</v>
@@ -16768,7 +16768,7 @@
         <v>1.87</v>
       </c>
       <c r="R121" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S121" t="n">
         <v>2.98</v>
@@ -16867,10 +16867,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="G122" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H122" t="n">
         <v>1.79</v>
@@ -16879,10 +16879,10 @@
         <v>1.98</v>
       </c>
       <c r="J122" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K122" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q122" t="n">
         <v>1.81</v>
@@ -17005,19 +17005,19 @@
         <v>1.41</v>
       </c>
       <c r="G123" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H123" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I123" t="n">
         <v>11</v>
       </c>
       <c r="J123" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K123" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L123" t="n">
         <v>1.24</v>
@@ -17044,16 +17044,16 @@
         <v>2.44</v>
       </c>
       <c r="T123" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U123" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V123" t="n">
         <v>1.1</v>
       </c>
       <c r="W123" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X123" t="n">
         <v>30</v>
@@ -17080,7 +17080,7 @@
         <v>140</v>
       </c>
       <c r="AF123" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG123" t="n">
         <v>12.5</v>
@@ -17104,7 +17104,7 @@
         <v>140</v>
       </c>
       <c r="AN123" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AO123" t="n">
         <v>150</v>
@@ -17140,19 +17140,19 @@
         <v>7.2</v>
       </c>
       <c r="G124" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H124" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I124" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="J124" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K124" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L124" t="n">
         <v>1.43</v>
@@ -17161,7 +17161,7 @@
         <v>1.07</v>
       </c>
       <c r="N124" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O124" t="n">
         <v>1.35</v>
@@ -17176,16 +17176,16 @@
         <v>1.31</v>
       </c>
       <c r="S124" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T124" t="n">
         <v>2.08</v>
       </c>
       <c r="U124" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="V124" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="W124" t="n">
         <v>1.13</v>
@@ -17197,25 +17197,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z124" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA124" t="n">
         <v>17</v>
       </c>
       <c r="AB124" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC124" t="n">
         <v>10.5</v>
       </c>
       <c r="AD124" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE124" t="n">
         <v>22</v>
       </c>
       <c r="AF124" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG124" t="n">
         <v>34</v>
@@ -17227,7 +17227,7 @@
         <v>55</v>
       </c>
       <c r="AJ124" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AK124" t="n">
         <v>150</v>
@@ -17236,10 +17236,10 @@
         <v>140</v>
       </c>
       <c r="AM124" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN124" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AO124" t="n">
         <v>12</v>
@@ -17272,22 +17272,22 @@
         </is>
       </c>
       <c r="F125" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G125" t="n">
         <v>3.85</v>
       </c>
-      <c r="G125" t="n">
-        <v>3.9</v>
-      </c>
       <c r="H125" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="I125" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="J125" t="n">
         <v>3.6</v>
       </c>
       <c r="K125" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L125" t="n">
         <v>1.42</v>
@@ -17305,7 +17305,7 @@
         <v>1.96</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R125" t="n">
         <v>1.36</v>
@@ -17320,10 +17320,10 @@
         <v>2.14</v>
       </c>
       <c r="V125" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W125" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X125" t="n">
         <v>14</v>
@@ -17407,19 +17407,19 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G126" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H126" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="J126" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K126" t="n">
         <v>4.1</v>
@@ -17434,7 +17434,7 @@
         <v>5.4</v>
       </c>
       <c r="O126" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P126" t="n">
         <v>2.46</v>
@@ -17452,13 +17452,13 @@
         <v>1.61</v>
       </c>
       <c r="U126" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="V126" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W126" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X126" t="n">
         <v>21</v>
@@ -17470,19 +17470,19 @@
         <v>14</v>
       </c>
       <c r="AA126" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB126" t="n">
         <v>19.5</v>
       </c>
       <c r="AC126" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD126" t="n">
         <v>10</v>
       </c>
       <c r="AE126" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF126" t="n">
         <v>32</v>
@@ -17494,7 +17494,7 @@
         <v>15.5</v>
       </c>
       <c r="AI126" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ126" t="n">
         <v>75</v>
@@ -17509,10 +17509,10 @@
         <v>65</v>
       </c>
       <c r="AN126" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO126" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="127">
@@ -17551,10 +17551,10 @@
         <v>2.3</v>
       </c>
       <c r="I127" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J127" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K127" t="n">
         <v>4.1</v>
@@ -17575,7 +17575,7 @@
         <v>2.14</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R127" t="n">
         <v>1.45</v>
@@ -17587,10 +17587,10 @@
         <v>1.61</v>
       </c>
       <c r="U127" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V127" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W127" t="n">
         <v>1.47</v>
@@ -17602,7 +17602,7 @@
         <v>970</v>
       </c>
       <c r="Z127" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AA127" t="n">
         <v>32</v>
@@ -17611,7 +17611,7 @@
         <v>970</v>
       </c>
       <c r="AC127" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD127" t="n">
         <v>970</v>
@@ -17641,7 +17641,7 @@
         <v>42</v>
       </c>
       <c r="AM127" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN127" t="n">
         <v>28</v>
@@ -17677,22 +17677,22 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G128" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H128" t="n">
         <v>6.8</v>
       </c>
       <c r="I128" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J128" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K128" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L128" t="n">
         <v>1.22</v>
@@ -17701,34 +17701,34 @@
         <v>1.03</v>
       </c>
       <c r="N128" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O128" t="n">
         <v>1.15</v>
       </c>
       <c r="P128" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q128" t="n">
         <v>1.47</v>
       </c>
       <c r="R128" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S128" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T128" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U128" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V128" t="n">
         <v>1.16</v>
       </c>
       <c r="W128" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="X128" t="n">
         <v>38</v>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G129" t="n">
         <v>3.75</v>
@@ -17821,7 +17821,7 @@
         <v>2.1</v>
       </c>
       <c r="I129" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J129" t="n">
         <v>3.9</v>
@@ -17860,10 +17860,10 @@
         <v>2.44</v>
       </c>
       <c r="V129" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W129" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X129" t="n">
         <v>19</v>
@@ -17950,16 +17950,16 @@
         <v>1.82</v>
       </c>
       <c r="G130" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H130" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I130" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J130" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K130" t="n">
         <v>3.65</v>
@@ -17974,13 +17974,13 @@
         <v>2.66</v>
       </c>
       <c r="O130" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P130" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R130" t="n">
         <v>1.2</v>
@@ -17989,25 +17989,25 @@
         <v>5</v>
       </c>
       <c r="T130" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U130" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="V130" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W130" t="n">
         <v>2.12</v>
       </c>
       <c r="X130" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y130" t="n">
         <v>970</v>
       </c>
       <c r="Z130" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AA130" t="n">
         <v>220</v>
@@ -18019,7 +18019,7 @@
         <v>970</v>
       </c>
       <c r="AD130" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE130" t="n">
         <v>130</v>
@@ -18082,10 +18082,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G131" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="H131" t="n">
         <v>1.25</v>
@@ -18094,7 +18094,7 @@
         <v>1.28</v>
       </c>
       <c r="J131" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K131" t="n">
         <v>7.4</v>
@@ -18106,7 +18106,7 @@
         <v>1.04</v>
       </c>
       <c r="N131" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O131" t="n">
         <v>1.18</v>
@@ -18115,22 +18115,22 @@
         <v>2.56</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R131" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S131" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T131" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U131" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="V131" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="W131" t="n">
         <v>1.06</v>
@@ -18163,13 +18163,13 @@
         <v>140</v>
       </c>
       <c r="AG131" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AH131" t="n">
         <v>36</v>
       </c>
       <c r="AI131" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ131" t="n">
         <v>1000</v>
@@ -18217,16 +18217,16 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G132" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H132" t="n">
         <v>6</v>
       </c>
       <c r="I132" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="J132" t="n">
         <v>3.85</v>
@@ -18235,10 +18235,10 @@
         <v>4.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M132" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N132" t="n">
         <v>3.45</v>
@@ -18247,28 +18247,28 @@
         <v>1.32</v>
       </c>
       <c r="P132" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R132" t="n">
         <v>1.32</v>
       </c>
       <c r="S132" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T132" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="U132" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="V132" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W132" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X132" t="n">
         <v>17.5</v>
@@ -18352,16 +18352,16 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H133" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I133" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J133" t="n">
         <v>3.45</v>
@@ -18376,34 +18376,34 @@
         <v>1.08</v>
       </c>
       <c r="N133" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O133" t="n">
         <v>1.38</v>
       </c>
       <c r="P133" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S133" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V133" t="n">
         <v>1.28</v>
       </c>
-      <c r="S133" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T133" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U133" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V133" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W133" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X133" t="n">
         <v>12.5</v>
@@ -18415,10 +18415,10 @@
         <v>32</v>
       </c>
       <c r="AA133" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB133" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC133" t="n">
         <v>8</v>
@@ -18427,7 +18427,7 @@
         <v>21</v>
       </c>
       <c r="AE133" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF133" t="n">
         <v>12.5</v>
@@ -18442,7 +18442,7 @@
         <v>75</v>
       </c>
       <c r="AJ133" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK133" t="n">
         <v>24</v>
@@ -18457,7 +18457,7 @@
         <v>18</v>
       </c>
       <c r="AO133" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134">
@@ -18490,28 +18490,28 @@
         <v>2.3</v>
       </c>
       <c r="G134" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="H134" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I134" t="n">
         <v>3.15</v>
       </c>
       <c r="J134" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K134" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L134" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M134" t="n">
         <v>1.04</v>
       </c>
       <c r="N134" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O134" t="n">
         <v>1.21</v>
@@ -18520,13 +18520,13 @@
         <v>2.32</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R134" t="n">
         <v>1.53</v>
       </c>
       <c r="S134" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T134" t="n">
         <v>1.55</v>
@@ -18538,7 +18538,7 @@
         <v>1.46</v>
       </c>
       <c r="W134" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X134" t="n">
         <v>23</v>
@@ -18550,7 +18550,7 @@
         <v>24</v>
       </c>
       <c r="AA134" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB134" t="n">
         <v>970</v>
@@ -18625,7 +18625,7 @@
         <v>2.68</v>
       </c>
       <c r="G135" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H135" t="n">
         <v>2.88</v>
@@ -18634,61 +18634,61 @@
         <v>3.05</v>
       </c>
       <c r="J135" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K135" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L135" t="n">
         <v>1.01</v>
       </c>
       <c r="M135" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N135" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O135" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P135" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R135" t="n">
         <v>1.24</v>
       </c>
       <c r="S135" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T135" t="n">
         <v>1.96</v>
       </c>
       <c r="U135" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V135" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W135" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X135" t="n">
         <v>10.5</v>
       </c>
       <c r="Y135" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z135" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA135" t="n">
         <v>55</v>
       </c>
       <c r="AB135" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC135" t="n">
         <v>7.4</v>
@@ -18697,7 +18697,7 @@
         <v>13.5</v>
       </c>
       <c r="AE135" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF135" t="n">
         <v>970</v>
@@ -18706,16 +18706,16 @@
         <v>13</v>
       </c>
       <c r="AH135" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI135" t="n">
         <v>65</v>
       </c>
       <c r="AJ135" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK135" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL135" t="n">
         <v>65</v>
@@ -18724,7 +18724,7 @@
         <v>150</v>
       </c>
       <c r="AN135" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AO135" t="n">
         <v>46</v>
@@ -18760,19 +18760,19 @@
         <v>1.24</v>
       </c>
       <c r="G136" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H136" t="n">
         <v>13</v>
       </c>
       <c r="I136" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J136" t="n">
         <v>7.8</v>
       </c>
       <c r="K136" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L136" t="n">
         <v>1.2</v>
@@ -18787,28 +18787,28 @@
         <v>1.14</v>
       </c>
       <c r="P136" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="R136" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S136" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T136" t="n">
         <v>1.92</v>
       </c>
       <c r="U136" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V136" t="n">
         <v>1.07</v>
       </c>
       <c r="W136" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X136" t="n">
         <v>40</v>
@@ -18823,25 +18823,25 @@
         <v>690</v>
       </c>
       <c r="AB136" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC136" t="n">
         <v>17.5</v>
       </c>
       <c r="AD136" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE136" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AF136" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG136" t="n">
         <v>11.5</v>
       </c>
       <c r="AH136" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI136" t="n">
         <v>170</v>
@@ -18856,10 +18856,10 @@
         <v>32</v>
       </c>
       <c r="AM136" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN136" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO136" t="n">
         <v>180</v>
@@ -18892,16 +18892,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="H137" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J137" t="n">
         <v>3.55</v>
@@ -18940,10 +18940,10 @@
         <v>1.01</v>
       </c>
       <c r="V137" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W137" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X137" t="n">
         <v>1000</v>
@@ -19036,7 +19036,7 @@
         <v>4.3</v>
       </c>
       <c r="I138" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J138" t="n">
         <v>4.3</v>
@@ -19099,7 +19099,7 @@
         <v>12</v>
       </c>
       <c r="AD138" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE138" t="n">
         <v>46</v>
@@ -19162,52 +19162,52 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H139" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I139" t="n">
         <v>4</v>
       </c>
       <c r="J139" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K139" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L139" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M139" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N139" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O139" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P139" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R139" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S139" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T139" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U139" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V139" t="n">
         <v>1.33</v>
@@ -19216,13 +19216,13 @@
         <v>1.94</v>
       </c>
       <c r="X139" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y139" t="n">
         <v>970</v>
       </c>
       <c r="Z139" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA139" t="n">
         <v>85</v>
@@ -19234,10 +19234,10 @@
         <v>11.5</v>
       </c>
       <c r="AD139" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE139" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AF139" t="n">
         <v>970</v>
@@ -19246,28 +19246,28 @@
         <v>970</v>
       </c>
       <c r="AH139" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK139" t="n">
         <v>20</v>
       </c>
-      <c r="AI139" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>24</v>
-      </c>
       <c r="AL139" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM139" t="n">
         <v>75</v>
       </c>
       <c r="AN139" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AO139" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140">
@@ -19297,13 +19297,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G140" t="n">
         <v>4.4</v>
       </c>
       <c r="H140" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I140" t="n">
         <v>2.24</v>
@@ -19327,7 +19327,7 @@
         <v>1.59</v>
       </c>
       <c r="P140" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q140" t="n">
         <v>2.84</v>
@@ -19339,7 +19339,7 @@
         <v>6</v>
       </c>
       <c r="T140" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U140" t="n">
         <v>1.73</v>
@@ -19366,7 +19366,7 @@
         <v>11</v>
       </c>
       <c r="AC140" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD140" t="n">
         <v>12.5</v>
@@ -19441,7 +19441,7 @@
         <v>2.1</v>
       </c>
       <c r="I141" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J141" t="n">
         <v>4</v>
@@ -19567,13 +19567,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="G142" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="H142" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I142" t="n">
         <v>3.1</v>
@@ -19582,7 +19582,7 @@
         <v>3.05</v>
       </c>
       <c r="K142" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L142" t="n">
         <v>1.49</v>
@@ -19615,10 +19615,10 @@
         <v>1.94</v>
       </c>
       <c r="V142" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W142" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X142" t="n">
         <v>10.5</v>
@@ -19630,7 +19630,7 @@
         <v>19</v>
       </c>
       <c r="AA142" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AB142" t="n">
         <v>9.6</v>
@@ -19672,7 +19672,7 @@
         <v>42</v>
       </c>
       <c r="AO142" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143">
@@ -19708,13 +19708,13 @@
         <v>5.8</v>
       </c>
       <c r="H143" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="I143" t="n">
         <v>1.91</v>
       </c>
       <c r="J143" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K143" t="n">
         <v>3.45</v>
@@ -19735,7 +19735,7 @@
         <v>1.54</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R143" t="n">
         <v>0</v>
@@ -19843,7 +19843,7 @@
         <v>1.4</v>
       </c>
       <c r="H144" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I144" t="n">
         <v>10.5</v>
@@ -19852,7 +19852,7 @@
         <v>5.6</v>
       </c>
       <c r="K144" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L144" t="n">
         <v>1.24</v>
@@ -19867,7 +19867,7 @@
         <v>1.16</v>
       </c>
       <c r="P144" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q144" t="n">
         <v>1.48</v>
@@ -19900,7 +19900,7 @@
         <v>110</v>
       </c>
       <c r="AA144" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB144" t="n">
         <v>970</v>
@@ -19924,7 +19924,7 @@
         <v>24</v>
       </c>
       <c r="AI144" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ144" t="n">
         <v>970</v>
@@ -20005,13 +20005,13 @@
         <v>2.42</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R145" t="n">
         <v>1.57</v>
       </c>
       <c r="S145" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T145" t="n">
         <v>1.6</v>
@@ -20041,7 +20041,7 @@
         <v>13</v>
       </c>
       <c r="AC145" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD145" t="n">
         <v>15</v>
@@ -20050,7 +20050,7 @@
         <v>36</v>
       </c>
       <c r="AF145" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG145" t="n">
         <v>10.5</v>
@@ -20107,13 +20107,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G146" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="H146" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>3.25</v>
@@ -20134,19 +20134,19 @@
         <v>3.6</v>
       </c>
       <c r="O146" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P146" t="n">
         <v>1.87</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R146" t="n">
         <v>1.33</v>
       </c>
       <c r="S146" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T146" t="n">
         <v>1.73</v>
@@ -20158,7 +20158,7 @@
         <v>1.48</v>
       </c>
       <c r="W146" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X146" t="n">
         <v>970</v>
@@ -20203,10 +20203,10 @@
         <v>29</v>
       </c>
       <c r="AL146" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM146" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN146" t="n">
         <v>27</v>
@@ -20278,7 +20278,7 @@
         <v>1.37</v>
       </c>
       <c r="R147" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S147" t="n">
         <v>1.37</v>
@@ -20377,22 +20377,22 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G148" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H148" t="n">
         <v>2.3</v>
       </c>
       <c r="I148" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J148" t="n">
         <v>3</v>
       </c>
       <c r="K148" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L148" t="n">
         <v>1.01</v>
@@ -20425,10 +20425,10 @@
         <v>1.62</v>
       </c>
       <c r="V148" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W148" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X148" t="n">
         <v>10</v>
@@ -20482,7 +20482,7 @@
         <v>150</v>
       </c>
       <c r="AO148" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149">
@@ -20548,10 +20548,10 @@
         <v>1.02</v>
       </c>
       <c r="R149" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="S149" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T149" t="n">
         <v>1.01</v>
@@ -20791,7 +20791,7 @@
         <v>2.64</v>
       </c>
       <c r="I151" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J151" t="n">
         <v>2.94</v>
@@ -20806,10 +20806,10 @@
         <v>1.01</v>
       </c>
       <c r="N151" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="O151" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="P151" t="n">
         <v>1.54</v>
@@ -20845,7 +20845,7 @@
         <v>23</v>
       </c>
       <c r="AA151" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB151" t="n">
         <v>13.5</v>
@@ -20869,7 +20869,7 @@
         <v>32</v>
       </c>
       <c r="AI151" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ151" t="n">
         <v>95</v>
@@ -20947,7 +20947,7 @@
         <v>0</v>
       </c>
       <c r="P152" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="Q152" t="n">
         <v>1.01</v>
@@ -21076,19 +21076,19 @@
         <v>1.11</v>
       </c>
       <c r="N153" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P153" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q153" t="n">
         <v>2.46</v>
       </c>
-      <c r="O153" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P153" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>2.42</v>
-      </c>
       <c r="R153" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S153" t="n">
         <v>4.7</v>
@@ -21097,16 +21097,16 @@
         <v>2</v>
       </c>
       <c r="U153" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V153" t="n">
         <v>1.74</v>
       </c>
       <c r="W153" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X153" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y153" t="n">
         <v>8</v>
@@ -21139,25 +21139,25 @@
         <v>23</v>
       </c>
       <c r="AI153" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ153" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK153" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL153" t="n">
         <v>90</v>
       </c>
       <c r="AM153" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN153" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO153" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154">
@@ -21223,7 +21223,7 @@
         <v>1.26</v>
       </c>
       <c r="R154" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S154" t="n">
         <v>1.26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>11</v>
@@ -697,10 +697,10 @@
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
         <v>1.53</v>
@@ -709,7 +709,7 @@
         <v>2.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
         <v>1.87</v>
@@ -718,7 +718,7 @@
         <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -727,13 +727,13 @@
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="n">
         <v>420</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
@@ -751,10 +751,10 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
@@ -769,7 +769,7 @@
         <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
         <v>200</v>
@@ -805,16 +805,16 @@
         <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
         <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>3.7</v>
@@ -832,34 +832,34 @@
         <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
         <v>2.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.74</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
         <v>24</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.6</v>
       </c>
-      <c r="G4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T4" t="n">
         <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -997,7 +997,7 @@
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA4" t="n">
         <v>980</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1042,7 +1042,7 @@
         <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>1.62</v>
       </c>
       <c r="I5" t="n">
-        <v>110</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="S5" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
         <v>2.28</v>
       </c>
       <c r="I6" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.39</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
@@ -1240,10 +1240,10 @@
         <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
         <v>3.35</v>
@@ -1255,10 +1255,10 @@
         <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X6" t="n">
         <v>15.5</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>32</v>
@@ -1312,7 +1312,7 @@
         <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
@@ -1384,10 +1384,10 @@
         <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V7" t="n">
         <v>1.19</v>
@@ -1396,10 +1396,10 @@
         <v>1.65</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,10 +1423,10 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>2.38</v>
       </c>
       <c r="G10" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -1759,7 +1759,7 @@
         <v>3.45</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.65</v>
@@ -1771,16 +1771,16 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
         <v>1.37</v>
@@ -1789,31 +1789,31 @@
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.06</v>
       </c>
       <c r="U10" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
         <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>60</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
@@ -1822,16 +1822,16 @@
         <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>48</v>
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>40</v>
@@ -1849,10 +1849,10 @@
         <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.13</v>
@@ -1915,13 +1915,13 @@
         <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
         <v>1.79</v>
@@ -1930,10 +1930,10 @@
         <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X11" t="n">
         <v>46</v>
@@ -1945,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
         <v>970</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="G12" t="n">
         <v>2.08</v>
@@ -2041,16 +2041,16 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.63</v>
+        <v>2.68</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>1.21</v>
@@ -2059,7 +2059,7 @@
         <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
         <v>1.89</v>
@@ -2071,49 +2071,49 @@
         <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>2.54</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
         <v>2.32</v>
@@ -2170,22 +2170,22 @@
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>1.31</v>
@@ -2197,13 +2197,13 @@
         <v>1.55</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2290,7 +2290,7 @@
         <v>1.45</v>
       </c>
       <c r="G14" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
         <v>5.2</v>
@@ -2329,16 +2329,16 @@
         <v>2.24</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
         <v>1.12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -2455,19 +2455,19 @@
         <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
         <v>1.81</v>
@@ -2476,58 +2476,58 @@
         <v>1.36</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
         <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
         <v>32</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>980</v>
       </c>
       <c r="AJ15" t="n">
         <v>65</v>
       </c>
       <c r="AK15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL15" t="n">
         <v>44</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>50</v>
       </c>
       <c r="AM15" t="n">
         <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
         <v>3.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
         <v>2.18</v>
       </c>
       <c r="J16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.33</v>
@@ -2581,31 +2581,31 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
         <v>1.51</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W16" t="n">
         <v>1.37</v>
@@ -2614,7 +2614,7 @@
         <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
         <v>18.5</v>
@@ -2623,13 +2623,13 @@
         <v>32</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
         <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
         <v>25</v>
@@ -2653,16 +2653,16 @@
         <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
@@ -2719,28 +2719,28 @@
         <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
         <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="n">
         <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
         <v>1.6</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G18" t="n">
         <v>2.82</v>
@@ -2836,82 +2836,82 @@
         <v>2.7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.65</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
         <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA18" t="n">
         <v>42</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>38</v>
@@ -2926,13 +2926,13 @@
         <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +2965,13 @@
         <v>1.73</v>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
         <v>4.1</v>
@@ -3007,13 +3007,13 @@
         <v>1.74</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X19" t="n">
         <v>19</v>
@@ -3025,16 +3025,16 @@
         <v>42</v>
       </c>
       <c r="AA19" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE19" t="n">
         <v>60</v>
@@ -3067,7 +3067,7 @@
         <v>8.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I20" t="n">
         <v>1000</v>
@@ -3118,13 +3118,13 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>2.36</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
         <v>2.36</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G21" t="n">
         <v>2.54</v>
       </c>
       <c r="H21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.25</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
@@ -3250,19 +3250,19 @@
         <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q21" t="n">
         <v>2.26</v>
@@ -3271,7 +3271,7 @@
         <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
         <v>1.91</v>
@@ -3280,7 +3280,7 @@
         <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
         <v>1.65</v>
@@ -3313,7 +3313,7 @@
         <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
@@ -3325,7 +3325,7 @@
         <v>36</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>46</v>
@@ -3334,7 +3334,7 @@
         <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
         <v>42</v>
@@ -3379,7 +3379,7 @@
         <v>4.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>4.4</v>
@@ -3391,7 +3391,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="O22" t="n">
         <v>1.24</v>
@@ -3400,31 +3400,31 @@
         <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
         <v>2.04</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3448,10 +3448,10 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3505,10 +3505,10 @@
         <v>2.98</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I23" t="n">
         <v>2.68</v>
@@ -3532,7 +3532,7 @@
         <v>1.35</v>
       </c>
       <c r="P23" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
         <v>2.02</v>
@@ -3553,7 +3553,7 @@
         <v>1.59</v>
       </c>
       <c r="W23" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X23" t="n">
         <v>16</v>
@@ -3646,7 +3646,7 @@
         <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J24" t="n">
         <v>3.55</v>
@@ -3661,10 +3661,10 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P24" t="n">
         <v>1.73</v>
@@ -3676,16 +3676,16 @@
         <v>1.29</v>
       </c>
       <c r="S24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U24" t="n">
         <v>1.97</v>
       </c>
       <c r="V24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W24" t="n">
         <v>1.94</v>
@@ -3718,7 +3718,7 @@
         <v>16.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
@@ -3778,10 +3778,10 @@
         <v>2.28</v>
       </c>
       <c r="H25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
@@ -3796,16 +3796,16 @@
         <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R25" t="n">
         <v>1.23</v>
@@ -3829,7 +3829,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
         <v>26</v>
@@ -3841,7 +3841,7 @@
         <v>7.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
         <v>17</v>
@@ -3862,7 +3862,7 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
         <v>28</v>
@@ -3871,7 +3871,7 @@
         <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="n">
         <v>26</v>
@@ -3910,28 +3910,28 @@
         <v>3.7</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I26" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>2.26</v>
+        <v>1.02</v>
       </c>
       <c r="O26" t="n">
         <v>1.17</v>
@@ -3949,10 +3949,10 @@
         <v>2.16</v>
       </c>
       <c r="T26" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V26" t="n">
         <v>2</v>
@@ -3961,52 +3961,52 @@
         <v>1.2</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
         <v>1000</v>
@@ -4084,10 +4084,10 @@
         <v>2.88</v>
       </c>
       <c r="T27" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V27" t="n">
         <v>1.37</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.06</v>
+        <v>1.02</v>
       </c>
       <c r="O28" t="n">
         <v>1.22</v>
@@ -4222,7 +4222,7 @@
         <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
         <v>1.28</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G29" t="n">
         <v>2.42</v>
@@ -4321,13 +4321,13 @@
         <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
         <v>3.9</v>
       </c>
       <c r="K29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4342,25 +4342,25 @@
         <v>1.17</v>
       </c>
       <c r="P29" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q29" t="n">
         <v>1.51</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U29" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="V29" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W29" t="n">
         <v>1.7</v>
@@ -4378,25 +4378,25 @@
         <v>60</v>
       </c>
       <c r="AB29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
         <v>12.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>38</v>
@@ -4411,13 +4411,13 @@
         <v>32</v>
       </c>
       <c r="AM29" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN29" t="n">
         <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -4447,31 +4447,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G30" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H30" t="n">
         <v>5.3</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
         <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>2.44</v>
+        <v>1.02</v>
       </c>
       <c r="O30" t="n">
         <v>1.15</v>
@@ -4489,7 +4489,7 @@
         <v>2.04</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U30" t="n">
         <v>1.01</v>
@@ -4498,7 +4498,7 @@
         <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G31" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
         <v>3.35</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
         <v>1.54</v>
@@ -4630,10 +4630,10 @@
         <v>1.76</v>
       </c>
       <c r="V31" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
         <v>10.5</v>
@@ -4675,7 +4675,7 @@
         <v>24</v>
       </c>
       <c r="AK31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL31" t="n">
         <v>55</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G32" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I32" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
         <v>3.3</v>
@@ -4762,13 +4762,13 @@
         <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.51</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -4876,7 +4876,7 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.33</v>
+        <v>2.18</v>
       </c>
       <c r="O33" t="n">
         <v>1.66</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G34" t="n">
         <v>1.49</v>
@@ -5008,37 +5008,37 @@
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O34" t="n">
         <v>1.13</v>
       </c>
       <c r="P34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q34" t="n">
         <v>1.38</v>
       </c>
       <c r="R34" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
         <v>1.92</v>
       </c>
       <c r="T34" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U34" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
         <v>1.16</v>
       </c>
       <c r="W34" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X34" t="n">
         <v>980</v>
@@ -5047,52 +5047,52 @@
         <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AD34" t="n">
         <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AF34" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>20</v>
-      </c>
       <c r="AK34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AL34" t="n">
         <v>980</v>
       </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -5125,10 +5125,10 @@
         <v>2.3</v>
       </c>
       <c r="G35" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3.25</v>
@@ -5164,7 +5164,7 @@
         <v>2.74</v>
       </c>
       <c r="T35" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U35" t="n">
         <v>2.34</v>
@@ -5173,7 +5173,7 @@
         <v>1.45</v>
       </c>
       <c r="W35" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X35" t="n">
         <v>24</v>
@@ -5185,7 +5185,7 @@
         <v>29</v>
       </c>
       <c r="AA35" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB35" t="n">
         <v>16</v>
@@ -5260,10 +5260,10 @@
         <v>3.3</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>970</v>
       </c>
       <c r="H36" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I36" t="n">
         <v>2.62</v>
@@ -5281,28 +5281,28 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1.49</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.16</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="T36" t="n">
         <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V36" t="n">
         <v>1.62</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="G37" t="n">
         <v>1.4</v>
@@ -5401,7 +5401,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
         <v>4.8</v>
@@ -5422,7 +5422,7 @@
         <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q37" t="n">
         <v>1.92</v>
@@ -5470,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG37" t="n">
         <v>1000</v>
@@ -5530,19 +5530,19 @@
         <v>1.7</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="H38" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="I38" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="L38" t="n">
         <v>1.45</v>
@@ -5551,22 +5551,22 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.47</v>
+        <v>2.62</v>
       </c>
       <c r="O38" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="P38" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.52</v>
+        <v>2.48</v>
       </c>
       <c r="R38" t="n">
         <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>1.52</v>
+        <v>2.48</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5575,64 +5575,64 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
@@ -5842,7 +5842,7 @@
         <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V40" t="n">
         <v>1.16</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G41" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H41" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I41" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
@@ -6025,7 +6025,7 @@
         <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL41" t="n">
         <v>980</v>
@@ -6070,7 +6070,7 @@
         <v>1.69</v>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H42" t="n">
         <v>6.4</v>
@@ -6094,13 +6094,13 @@
         <v>3.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P42" t="n">
         <v>1.83</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R42" t="n">
         <v>1.31</v>
@@ -6112,7 +6112,7 @@
         <v>2.1</v>
       </c>
       <c r="U42" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V42" t="n">
         <v>1.17</v>
@@ -6148,7 +6148,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG42" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH42" t="n">
         <v>24</v>
@@ -6169,7 +6169,7 @@
         <v>160</v>
       </c>
       <c r="AN42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO42" t="n">
         <v>150</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G43" t="n">
         <v>1.45</v>
@@ -6235,7 +6235,7 @@
         <v>2.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R43" t="n">
         <v>1.5</v>
@@ -6298,7 +6298,7 @@
         <v>15.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM43" t="n">
         <v>170</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H44" t="n">
         <v>4.8</v>
@@ -6349,10 +6349,10 @@
         <v>5.1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L44" t="n">
         <v>1.47</v>
@@ -6367,82 +6367,82 @@
         <v>1.55</v>
       </c>
       <c r="P44" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R44" t="n">
         <v>1.2</v>
       </c>
       <c r="S44" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T44" t="n">
         <v>2.2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V44" t="n">
         <v>1.24</v>
       </c>
       <c r="W44" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X44" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Y44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA44" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB44" t="n">
         <v>6.6</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD44" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE44" t="n">
         <v>90</v>
       </c>
       <c r="AF44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI44" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ44" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK44" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL44" t="n">
         <v>65</v>
       </c>
       <c r="AM44" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN44" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO44" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45">
@@ -6475,19 +6475,19 @@
         <v>1.62</v>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H45" t="n">
         <v>5.9</v>
       </c>
       <c r="I45" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J45" t="n">
         <v>4.1</v>
       </c>
       <c r="K45" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6496,25 +6496,25 @@
         <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P45" t="n">
         <v>2.18</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R45" t="n">
         <v>1.47</v>
       </c>
       <c r="S45" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T45" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U45" t="n">
         <v>2.08</v>
@@ -6523,7 +6523,7 @@
         <v>1.17</v>
       </c>
       <c r="W45" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X45" t="n">
         <v>980</v>
@@ -6532,7 +6532,7 @@
         <v>980</v>
       </c>
       <c r="Z45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA45" t="n">
         <v>190</v>
@@ -6559,7 +6559,7 @@
         <v>980</v>
       </c>
       <c r="AI45" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ45" t="n">
         <v>1000</v>
@@ -6568,7 +6568,7 @@
         <v>19</v>
       </c>
       <c r="AL45" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM45" t="n">
         <v>120</v>
@@ -6577,7 +6577,7 @@
         <v>8.4</v>
       </c>
       <c r="AO45" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -6640,7 +6640,7 @@
         <v>2.16</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R46" t="n">
         <v>1.46</v>
@@ -6655,7 +6655,7 @@
         <v>2.06</v>
       </c>
       <c r="V46" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="W46" t="n">
         <v>1.17</v>
@@ -6685,7 +6685,7 @@
         <v>19.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG46" t="n">
         <v>29</v>
@@ -6700,10 +6700,10 @@
         <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL46" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="n">
         <v>130</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G47" t="n">
         <v>1.83</v>
@@ -6793,7 +6793,7 @@
         <v>1.2</v>
       </c>
       <c r="W47" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X47" t="n">
         <v>13</v>
@@ -6823,7 +6823,7 @@
         <v>12</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH47" t="n">
         <v>27</v>
@@ -6877,40 +6877,40 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="G48" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I48" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="J48" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="L48" t="n">
         <v>1.4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="O48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P48" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
         <v>1.24</v>
@@ -6925,10 +6925,10 @@
         <v>1.81</v>
       </c>
       <c r="V48" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W48" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
@@ -7015,10 +7015,10 @@
         <v>2.24</v>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I49" t="n">
         <v>4.2</v>
@@ -7036,40 +7036,40 @@
         <v>1.11</v>
       </c>
       <c r="N49" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O49" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P49" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R49" t="n">
         <v>1.24</v>
       </c>
       <c r="S49" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T49" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V49" t="n">
         <v>1.31</v>
       </c>
       <c r="W49" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Y49" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z49" t="n">
         <v>29</v>
@@ -7078,25 +7078,25 @@
         <v>95</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC49" t="n">
         <v>7.2</v>
       </c>
       <c r="AD49" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE49" t="n">
         <v>60</v>
       </c>
       <c r="AF49" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG49" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI49" t="n">
         <v>90</v>
@@ -7105,16 +7105,16 @@
         <v>30</v>
       </c>
       <c r="AK49" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL49" t="n">
         <v>55</v>
       </c>
       <c r="AM49" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN49" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO49" t="n">
         <v>85</v>
@@ -7171,16 +7171,16 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="n">
         <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R50" t="n">
         <v>1.39</v>
@@ -7189,10 +7189,10 @@
         <v>3.05</v>
       </c>
       <c r="T50" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="U50" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V50" t="n">
         <v>1.42</v>
@@ -7246,7 +7246,7 @@
         <v>980</v>
       </c>
       <c r="AM50" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN50" t="n">
         <v>980</v>
@@ -7327,7 +7327,7 @@
         <v>1.64</v>
       </c>
       <c r="U51" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="V51" t="n">
         <v>2.52</v>
@@ -7384,7 +7384,7 @@
         <v>70</v>
       </c>
       <c r="AN51" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO51" t="n">
         <v>6.2</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G52" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
         <v>2.34</v>
@@ -7429,10 +7429,10 @@
         <v>2.36</v>
       </c>
       <c r="J52" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K52" t="n">
         <v>3.9</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.95</v>
       </c>
       <c r="L52" t="n">
         <v>1.31</v>
@@ -7441,19 +7441,19 @@
         <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P52" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R52" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="n">
         <v>2.62</v>
@@ -7462,7 +7462,7 @@
         <v>1.58</v>
       </c>
       <c r="U52" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V52" t="n">
         <v>1.73</v>
@@ -7474,7 +7474,7 @@
         <v>22</v>
       </c>
       <c r="Y52" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z52" t="n">
         <v>17</v>
@@ -7507,10 +7507,10 @@
         <v>29</v>
       </c>
       <c r="AJ52" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK52" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL52" t="n">
         <v>34</v>
@@ -7561,10 +7561,10 @@
         <v>1.49</v>
       </c>
       <c r="I53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="K53" t="n">
         <v>14.5</v>
@@ -7576,19 +7576,19 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.02</v>
+        <v>1.62</v>
       </c>
       <c r="O53" t="n">
         <v>1.12</v>
       </c>
       <c r="P53" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="R53" t="n">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="S53" t="n">
         <v>2.16</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G54" t="n">
         <v>1.68</v>
       </c>
       <c r="H54" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I54" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5.6</v>
       </c>
       <c r="J54" t="n">
         <v>4.5</v>
@@ -7708,7 +7708,7 @@
         <v>1.27</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
         <v>6.4</v>
@@ -7720,7 +7720,7 @@
         <v>2.76</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R54" t="n">
         <v>1.71</v>
@@ -7732,19 +7732,19 @@
         <v>1.62</v>
       </c>
       <c r="U54" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V54" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W54" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X54" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y54" t="n">
         <v>27</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>28</v>
       </c>
       <c r="Z54" t="n">
         <v>48</v>
@@ -7753,19 +7753,19 @@
         <v>130</v>
       </c>
       <c r="AB54" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
         <v>21</v>
       </c>
       <c r="AE54" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF54" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG54" t="n">
         <v>9.800000000000001</v>
@@ -7789,7 +7789,7 @@
         <v>65</v>
       </c>
       <c r="AN54" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO54" t="n">
         <v>42</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G55" t="n">
         <v>2.54</v>
@@ -7876,7 +7876,7 @@
         <v>1.64</v>
       </c>
       <c r="X55" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y55" t="n">
         <v>14.5</v>
@@ -7927,7 +7927,7 @@
         <v>17.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -7960,13 +7960,13 @@
         <v>1.11</v>
       </c>
       <c r="G56" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H56" t="n">
         <v>27</v>
       </c>
       <c r="I56" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J56" t="n">
         <v>14</v>
@@ -7981,7 +7981,7 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="O56" t="n">
         <v>1.07</v>
@@ -7990,19 +7990,19 @@
         <v>4.9</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R56" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="S56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T56" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U56" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V56" t="n">
         <v>1.03</v>
@@ -8014,10 +8014,10 @@
         <v>80</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z56" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
@@ -8029,16 +8029,16 @@
         <v>34</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE56" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AF56" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH56" t="n">
         <v>55</v>
@@ -8047,22 +8047,22 @@
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK56" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN56" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="AO56" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G57" t="n">
         <v>1.71</v>
@@ -8125,7 +8125,7 @@
         <v>1.78</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R57" t="n">
         <v>1.3</v>
@@ -8137,58 +8137,58 @@
         <v>1.87</v>
       </c>
       <c r="U57" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V57" t="n">
         <v>1.17</v>
       </c>
       <c r="W57" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
         <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
         <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
         <v>1000</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="G58" t="n">
         <v>2.98</v>
@@ -8236,7 +8236,7 @@
         <v>2.7</v>
       </c>
       <c r="I58" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
         <v>3.25</v>
@@ -8245,7 +8245,7 @@
         <v>3.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M58" t="n">
         <v>1.07</v>
@@ -8260,7 +8260,7 @@
         <v>1.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R58" t="n">
         <v>1.31</v>
@@ -8269,13 +8269,13 @@
         <v>3.55</v>
       </c>
       <c r="T58" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U58" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V58" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W58" t="n">
         <v>1.5</v>
@@ -8293,10 +8293,10 @@
         <v>980</v>
       </c>
       <c r="AB58" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD58" t="n">
         <v>1000</v>
@@ -8317,13 +8317,13 @@
         <v>55</v>
       </c>
       <c r="AJ58" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK58" t="n">
         <v>980</v>
       </c>
       <c r="AL58" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM58" t="n">
         <v>120</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G59" t="n">
         <v>2.12</v>
@@ -8374,13 +8374,13 @@
         <v>4.6</v>
       </c>
       <c r="J59" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K59" t="n">
         <v>3.7</v>
       </c>
       <c r="L59" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M59" t="n">
         <v>1.08</v>
@@ -8395,13 +8395,13 @@
         <v>1.83</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="R59" t="n">
         <v>1.32</v>
       </c>
       <c r="S59" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T59" t="n">
         <v>1.74</v>
@@ -8410,40 +8410,40 @@
         <v>1.9</v>
       </c>
       <c r="V59" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W59" t="n">
         <v>1.9</v>
       </c>
       <c r="X59" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Z59" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB59" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC59" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD59" t="n">
         <v>970</v>
       </c>
       <c r="AE59" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF59" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG59" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH59" t="n">
         <v>970</v>
@@ -8452,22 +8452,22 @@
         <v>85</v>
       </c>
       <c r="AJ59" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AK59" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AL59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN59" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
@@ -8500,13 +8500,13 @@
         <v>2.64</v>
       </c>
       <c r="G60" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H60" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I60" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J60" t="n">
         <v>3.75</v>
@@ -8515,7 +8515,7 @@
         <v>4.1</v>
       </c>
       <c r="L60" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -8566,7 +8566,7 @@
         <v>15</v>
       </c>
       <c r="AC60" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD60" t="n">
         <v>13.5</v>
@@ -8632,19 +8632,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G61" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H61" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I61" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K61" t="n">
         <v>3.95</v>
@@ -8656,7 +8656,7 @@
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.28</v>
@@ -8665,25 +8665,25 @@
         <v>2.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="R61" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S61" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T61" t="n">
         <v>1.7</v>
       </c>
       <c r="U61" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V61" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="W61" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="X61" t="n">
         <v>970</v>
@@ -8692,52 +8692,52 @@
         <v>970</v>
       </c>
       <c r="Z61" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA61" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB61" t="n">
         <v>970</v>
       </c>
       <c r="AC61" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD61" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE61" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AF61" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH61" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AJ61" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK61" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL61" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM61" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN61" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AO61" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -8767,13 +8767,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G62" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H62" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I62" t="n">
         <v>16.5</v>
@@ -8791,16 +8791,16 @@
         <v>1.04</v>
       </c>
       <c r="N62" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="O62" t="n">
         <v>1.27</v>
       </c>
       <c r="P62" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R62" t="n">
         <v>1.33</v>
@@ -8812,16 +8812,16 @@
         <v>1.01</v>
       </c>
       <c r="U62" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V62" t="n">
         <v>1.06</v>
       </c>
       <c r="W62" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X62" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y62" t="n">
         <v>1000</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G63" t="n">
         <v>4.2</v>
@@ -8911,10 +8911,10 @@
         <v>2.04</v>
       </c>
       <c r="I63" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="J63" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
         <v>3.8</v>
@@ -8950,7 +8950,7 @@
         <v>2.06</v>
       </c>
       <c r="V63" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W63" t="n">
         <v>1.32</v>
@@ -8977,7 +8977,7 @@
         <v>11</v>
       </c>
       <c r="AE63" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF63" t="n">
         <v>29</v>
@@ -8992,13 +8992,13 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK63" t="n">
         <v>50</v>
       </c>
       <c r="AL63" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM63" t="n">
         <v>110</v>
@@ -9049,7 +9049,7 @@
         <v>4.9</v>
       </c>
       <c r="J64" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K64" t="n">
         <v>4.2</v>
@@ -9181,7 +9181,7 @@
         <v>3.9</v>
       </c>
       <c r="I65" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J65" t="n">
         <v>3.6</v>
@@ -9214,7 +9214,7 @@
         <v>2.28</v>
       </c>
       <c r="T65" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="U65" t="n">
         <v>1.01</v>
@@ -9226,7 +9226,7 @@
         <v>2.02</v>
       </c>
       <c r="X65" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y65" t="n">
         <v>1000</v>
@@ -9313,7 +9313,7 @@
         <v>3.1</v>
       </c>
       <c r="H66" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I66" t="n">
         <v>2.4</v>
@@ -9349,16 +9349,16 @@
         <v>2.34</v>
       </c>
       <c r="T66" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U66" t="n">
         <v>2.6</v>
       </c>
       <c r="V66" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W66" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X66" t="n">
         <v>27</v>
@@ -9445,7 +9445,7 @@
         <v>2.28</v>
       </c>
       <c r="G67" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>3.05</v>
@@ -9454,13 +9454,13 @@
         <v>3.4</v>
       </c>
       <c r="J67" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K67" t="n">
         <v>3.85</v>
       </c>
       <c r="L67" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G68" t="n">
         <v>3.5</v>
@@ -9586,7 +9586,7 @@
         <v>2.34</v>
       </c>
       <c r="I68" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J68" t="n">
         <v>3.45</v>
@@ -9625,7 +9625,7 @@
         <v>2.14</v>
       </c>
       <c r="V68" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W68" t="n">
         <v>1.4</v>
@@ -9712,13 +9712,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G69" t="n">
         <v>1.56</v>
       </c>
       <c r="H69" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I69" t="n">
         <v>8.199999999999999</v>
@@ -9727,28 +9727,28 @@
         <v>4.3</v>
       </c>
       <c r="K69" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L69" t="n">
         <v>1.36</v>
       </c>
       <c r="M69" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O69" t="n">
         <v>1.27</v>
       </c>
       <c r="P69" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R69" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S69" t="n">
         <v>2.78</v>
@@ -9757,7 +9757,7 @@
         <v>1.83</v>
       </c>
       <c r="U69" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V69" t="n">
         <v>1.13</v>
@@ -9766,58 +9766,58 @@
         <v>2.78</v>
       </c>
       <c r="X69" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y69" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK69" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AL69" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM69" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN69" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AO69" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70">
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G70" t="n">
         <v>2.64</v>
       </c>
       <c r="H70" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J70" t="n">
         <v>3.4</v>
       </c>
       <c r="K70" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L70" t="n">
         <v>1.44</v>
@@ -9877,7 +9877,7 @@
         <v>1.35</v>
       </c>
       <c r="P70" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q70" t="n">
         <v>2.06</v>
@@ -9886,7 +9886,7 @@
         <v>1.31</v>
       </c>
       <c r="S70" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T70" t="n">
         <v>1.81</v>
@@ -9895,7 +9895,7 @@
         <v>2.16</v>
       </c>
       <c r="V70" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W70" t="n">
         <v>1.6</v>
@@ -9919,7 +9919,7 @@
         <v>8</v>
       </c>
       <c r="AD70" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE70" t="n">
         <v>40</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G71" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H71" t="n">
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J71" t="n">
         <v>3.8</v>
       </c>
       <c r="K71" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
         <v>1.4</v>
@@ -10012,10 +10012,10 @@
         <v>1.32</v>
       </c>
       <c r="P71" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R71" t="n">
         <v>1.36</v>
@@ -10024,25 +10024,25 @@
         <v>3.3</v>
       </c>
       <c r="T71" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U71" t="n">
         <v>2.1</v>
       </c>
       <c r="V71" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W71" t="n">
         <v>2.16</v>
       </c>
       <c r="X71" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y71" t="n">
         <v>19</v>
       </c>
       <c r="Z71" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA71" t="n">
         <v>140</v>
@@ -10057,7 +10057,7 @@
         <v>21</v>
       </c>
       <c r="AE71" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF71" t="n">
         <v>12</v>
@@ -10078,16 +10078,16 @@
         <v>20</v>
       </c>
       <c r="AL71" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM71" t="n">
         <v>130</v>
       </c>
       <c r="AN71" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -10120,16 +10120,16 @@
         <v>1.45</v>
       </c>
       <c r="G72" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H72" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I72" t="n">
         <v>10.5</v>
       </c>
       <c r="J72" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K72" t="n">
         <v>4.9</v>
@@ -10150,19 +10150,19 @@
         <v>1.68</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S72" t="n">
         <v>3.55</v>
       </c>
       <c r="T72" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U72" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V72" t="n">
         <v>1.11</v>
@@ -10186,7 +10186,7 @@
         <v>8.6</v>
       </c>
       <c r="AC72" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD72" t="n">
         <v>46</v>
@@ -10252,22 +10252,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G73" t="n">
         <v>3.95</v>
       </c>
       <c r="H73" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="I73" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J73" t="n">
         <v>3.15</v>
       </c>
       <c r="K73" t="n">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="L73" t="n">
         <v>1.01</v>
@@ -10303,7 +10303,7 @@
         <v>1.54</v>
       </c>
       <c r="W73" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="X73" t="n">
         <v>26</v>
@@ -10522,22 +10522,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="G75" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="I75" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K75" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="L75" t="n">
         <v>1.33</v>
@@ -10546,16 +10546,16 @@
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>1.73</v>
+        <v>1.02</v>
       </c>
       <c r="O75" t="n">
         <v>1.32</v>
       </c>
       <c r="P75" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R75" t="n">
         <v>1.27</v>
@@ -10573,7 +10573,7 @@
         <v>1.13</v>
       </c>
       <c r="W75" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="X75" t="n">
         <v>19</v>
@@ -10663,10 +10663,10 @@
         <v>4.8</v>
       </c>
       <c r="H76" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I76" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J76" t="n">
         <v>2.92</v>
@@ -10705,7 +10705,7 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W76" t="n">
         <v>1.27</v>
@@ -10936,7 +10936,7 @@
         <v>15</v>
       </c>
       <c r="I78" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="J78" t="n">
         <v>8.6</v>
@@ -10981,13 +10981,13 @@
         <v>5.7</v>
       </c>
       <c r="X78" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y78" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z78" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA78" t="n">
         <v>1000</v>
@@ -10996,7 +10996,7 @@
         <v>16.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AD78" t="n">
         <v>65</v>
@@ -11005,25 +11005,25 @@
         <v>250</v>
       </c>
       <c r="AF78" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG78" t="n">
         <v>14</v>
       </c>
       <c r="AH78" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI78" t="n">
         <v>170</v>
       </c>
       <c r="AJ78" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK78" t="n">
         <v>15.5</v>
       </c>
       <c r="AL78" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM78" t="n">
         <v>160</v>
@@ -11065,10 +11065,10 @@
         <v>1.04</v>
       </c>
       <c r="G79" t="n">
-        <v>3.85</v>
+        <v>900</v>
       </c>
       <c r="H79" t="n">
-        <v>2.12</v>
+        <v>1.09</v>
       </c>
       <c r="I79" t="n">
         <v>2.3</v>
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G80" t="n">
         <v>5.7</v>
@@ -11206,7 +11206,7 @@
         <v>1.7</v>
       </c>
       <c r="I80" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J80" t="n">
         <v>3.9</v>
@@ -11215,7 +11215,7 @@
         <v>4.5</v>
       </c>
       <c r="L80" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M80" t="n">
         <v>1.05</v>
@@ -11233,7 +11233,7 @@
         <v>1.81</v>
       </c>
       <c r="R80" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S80" t="n">
         <v>3</v>
@@ -11242,13 +11242,13 @@
         <v>1.69</v>
       </c>
       <c r="U80" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V80" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W80" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X80" t="n">
         <v>1000</v>
@@ -11257,7 +11257,7 @@
         <v>11</v>
       </c>
       <c r="Z80" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AA80" t="n">
         <v>1000</v>
@@ -11266,10 +11266,10 @@
         <v>23</v>
       </c>
       <c r="AC80" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD80" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE80" t="n">
         <v>22</v>
@@ -11296,13 +11296,13 @@
         <v>70</v>
       </c>
       <c r="AM80" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN80" t="n">
         <v>80</v>
       </c>
       <c r="AO80" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
@@ -11362,7 +11362,7 @@
         <v>1.33</v>
       </c>
       <c r="P81" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q81" t="n">
         <v>1.98</v>
@@ -11371,10 +11371,10 @@
         <v>1.33</v>
       </c>
       <c r="S81" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T81" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U81" t="n">
         <v>2.1</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G82" t="n">
         <v>1.32</v>
@@ -11476,13 +11476,13 @@
         <v>10</v>
       </c>
       <c r="I82" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J82" t="n">
         <v>5.6</v>
       </c>
       <c r="K82" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>1.04</v>
       </c>
       <c r="I83" t="n">
-        <v>2.18</v>
+        <v>60</v>
       </c>
       <c r="J83" t="n">
         <v>3.95</v>
@@ -11638,7 +11638,7 @@
         <v>1.01</v>
       </c>
       <c r="R83" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="S83" t="n">
         <v>1.01</v>
@@ -11740,13 +11740,13 @@
         <v>6.6</v>
       </c>
       <c r="G84" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="H84" t="n">
         <v>1.53</v>
       </c>
       <c r="I84" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="J84" t="n">
         <v>4.5</v>
@@ -11761,7 +11761,7 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O84" t="n">
         <v>1.22</v>
@@ -11773,7 +11773,7 @@
         <v>1.65</v>
       </c>
       <c r="R84" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S84" t="n">
         <v>2.62</v>
@@ -11785,7 +11785,7 @@
         <v>2.04</v>
       </c>
       <c r="V84" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="W84" t="n">
         <v>1.14</v>
@@ -11806,7 +11806,7 @@
         <v>30</v>
       </c>
       <c r="AC84" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD84" t="n">
         <v>10</v>
@@ -11815,13 +11815,13 @@
         <v>15.5</v>
       </c>
       <c r="AF84" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG84" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH84" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI84" t="n">
         <v>32</v>
@@ -11830,19 +11830,19 @@
         <v>200</v>
       </c>
       <c r="AK84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL84" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM84" t="n">
         <v>100</v>
       </c>
       <c r="AN84" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AO84" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -12007,13 +12007,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
         <v>11</v>
       </c>
       <c r="H86" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I86" t="n">
         <v>1.55</v>
@@ -12022,7 +12022,7 @@
         <v>3.9</v>
       </c>
       <c r="K86" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L86" t="n">
         <v>1.45</v>
@@ -12037,7 +12037,7 @@
         <v>1.51</v>
       </c>
       <c r="P86" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q86" t="n">
         <v>2.46</v>
@@ -12079,10 +12079,10 @@
         <v>12.5</v>
       </c>
       <c r="AD86" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE86" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF86" t="n">
         <v>110</v>
@@ -12166,28 +12166,28 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="O87" t="n">
         <v>1.25</v>
       </c>
       <c r="P87" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R87" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S87" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T87" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U87" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="V87" t="n">
         <v>1.45</v>
@@ -12196,52 +12196,52 @@
         <v>1.64</v>
       </c>
       <c r="X87" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y87" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z87" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA87" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC87" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD87" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE87" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG87" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH87" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI87" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK87" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL87" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM87" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN87" t="n">
         <v>1000</v>
@@ -12280,16 +12280,16 @@
         <v>3.1</v>
       </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H88" t="n">
         <v>2.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J88" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K88" t="n">
         <v>4.4</v>
@@ -12301,7 +12301,7 @@
         <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>4.9</v>
+        <v>2.38</v>
       </c>
       <c r="O88" t="n">
         <v>1.2</v>
@@ -12325,7 +12325,7 @@
         <v>2.46</v>
       </c>
       <c r="V88" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W88" t="n">
         <v>1.4</v>
@@ -12412,13 +12412,13 @@
         </is>
       </c>
       <c r="F89" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G89" t="n">
         <v>2.7</v>
       </c>
-      <c r="G89" t="n">
-        <v>2.72</v>
-      </c>
       <c r="H89" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I89" t="n">
         <v>2.88</v>
@@ -12454,7 +12454,7 @@
         <v>3.1</v>
       </c>
       <c r="T89" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U89" t="n">
         <v>2.4</v>
@@ -12490,7 +12490,7 @@
         <v>29</v>
       </c>
       <c r="AF89" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG89" t="n">
         <v>12</v>
@@ -12547,19 +12547,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G90" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H90" t="n">
         <v>2.14</v>
       </c>
       <c r="I90" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J90" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K90" t="n">
         <v>3.65</v>
@@ -12595,13 +12595,13 @@
         <v>2.04</v>
       </c>
       <c r="V90" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W90" t="n">
         <v>1.34</v>
       </c>
       <c r="X90" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y90" t="n">
         <v>8.800000000000001</v>
@@ -12616,13 +12616,13 @@
         <v>13</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD90" t="n">
         <v>10.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF90" t="n">
         <v>26</v>
@@ -12640,7 +12640,7 @@
         <v>80</v>
       </c>
       <c r="AK90" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL90" t="n">
         <v>60</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G91" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H91" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I91" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J91" t="n">
         <v>7.2</v>
@@ -12700,94 +12700,94 @@
         <v>7.4</v>
       </c>
       <c r="L91" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M91" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="O91" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P91" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="R91" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="S91" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="T91" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U91" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V91" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W91" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X91" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y91" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Z91" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA91" t="n">
         <v>540</v>
       </c>
       <c r="AB91" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD91" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE91" t="n">
         <v>190</v>
       </c>
       <c r="AF91" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG91" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI91" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ91" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK91" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL91" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM91" t="n">
         <v>140</v>
       </c>
       <c r="AN91" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AO91" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92">
@@ -12820,7 +12820,7 @@
         <v>1.15</v>
       </c>
       <c r="G92" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H92" t="n">
         <v>24</v>
@@ -12829,7 +12829,7 @@
         <v>34</v>
       </c>
       <c r="J92" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="K92" t="n">
         <v>10.5</v>
@@ -12847,13 +12847,13 @@
         <v>1.18</v>
       </c>
       <c r="P92" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R92" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S92" t="n">
         <v>2.36</v>
@@ -12916,7 +12916,7 @@
         <v>65</v>
       </c>
       <c r="AM92" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AN92" t="n">
         <v>3.5</v>
@@ -12952,25 +12952,25 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G93" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H93" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="I93" t="n">
         <v>2.68</v>
       </c>
       <c r="J93" t="n">
-        <v>2.96</v>
+        <v>2.56</v>
       </c>
       <c r="K93" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="L93" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M93" t="n">
         <v>1.01</v>
@@ -12985,28 +12985,28 @@
         <v>1.52</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R93" t="n">
         <v>1.18</v>
       </c>
       <c r="S93" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T93" t="n">
         <v>1.89</v>
       </c>
       <c r="U93" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="V93" t="n">
         <v>1.6</v>
       </c>
       <c r="W93" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X93" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y93" t="n">
         <v>1000</v>
@@ -13090,16 +13090,16 @@
         <v>2.54</v>
       </c>
       <c r="G94" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H94" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I94" t="n">
         <v>3.2</v>
       </c>
       <c r="J94" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K94" t="n">
         <v>3.6</v>
@@ -13138,7 +13138,7 @@
         <v>1.46</v>
       </c>
       <c r="W94" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X94" t="n">
         <v>970</v>
@@ -13231,13 +13231,13 @@
         <v>3.25</v>
       </c>
       <c r="I95" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J95" t="n">
         <v>3.25</v>
       </c>
       <c r="K95" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L95" t="n">
         <v>1.53</v>
@@ -13255,7 +13255,7 @@
         <v>1.67</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R95" t="n">
         <v>1.25</v>
@@ -13279,7 +13279,7 @@
         <v>9.6</v>
       </c>
       <c r="Y95" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z95" t="n">
         <v>21</v>
@@ -13291,10 +13291,10 @@
         <v>8.6</v>
       </c>
       <c r="AC95" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD95" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE95" t="n">
         <v>44</v>
@@ -13384,7 +13384,7 @@
         <v>3.25</v>
       </c>
       <c r="O96" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P96" t="n">
         <v>1.79</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G98" t="n">
         <v>3.1</v>
@@ -13636,13 +13636,13 @@
         <v>2.48</v>
       </c>
       <c r="I98" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="J98" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K98" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L98" t="n">
         <v>1.32</v>
@@ -13651,7 +13651,7 @@
         <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>1.76</v>
+        <v>1.02</v>
       </c>
       <c r="O98" t="n">
         <v>1.01</v>
@@ -13669,16 +13669,16 @@
         <v>3.05</v>
       </c>
       <c r="T98" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="U98" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V98" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="W98" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X98" t="n">
         <v>20</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G99" t="n">
         <v>2.98</v>
       </c>
       <c r="H99" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J99" t="n">
         <v>2.96</v>
       </c>
       <c r="K99" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L99" t="n">
         <v>1.01</v>
@@ -13792,7 +13792,7 @@
         <v>1.64</v>
       </c>
       <c r="P99" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q99" t="n">
         <v>2.94</v>
@@ -13804,7 +13804,7 @@
         <v>6.2</v>
       </c>
       <c r="T99" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U99" t="n">
         <v>1.72</v>
@@ -13813,61 +13813,61 @@
         <v>1.47</v>
       </c>
       <c r="W99" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X99" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y99" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z99" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA99" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB99" t="n">
         <v>8</v>
       </c>
       <c r="AC99" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD99" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE99" t="n">
         <v>55</v>
       </c>
       <c r="AF99" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG99" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI99" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ99" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK99" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL99" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM99" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN99" t="n">
         <v>60</v>
       </c>
       <c r="AO99" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -13897,10 +13897,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="G100" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>3.7</v>
@@ -13912,7 +13912,7 @@
         <v>3.4</v>
       </c>
       <c r="K100" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13948,7 +13948,7 @@
         <v>1.21</v>
       </c>
       <c r="W100" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X100" t="n">
         <v>1000</v>
@@ -14032,10 +14032,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G101" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H101" t="n">
         <v>1.09</v>
@@ -14056,7 +14056,7 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="O101" t="n">
         <v>1.11</v>
@@ -14083,7 +14083,7 @@
         <v>1.17</v>
       </c>
       <c r="W101" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X101" t="n">
         <v>1000</v>
@@ -14200,16 +14200,16 @@
         <v>3.35</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R102" t="n">
         <v>1.94</v>
       </c>
       <c r="S102" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T102" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U102" t="n">
         <v>2.28</v>
@@ -14305,16 +14305,16 @@
         <v>1.27</v>
       </c>
       <c r="G103" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H103" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I103" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J103" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K103" t="n">
         <v>6.4</v>
@@ -14437,16 +14437,16 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G104" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H104" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I104" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5</v>
       </c>
       <c r="J104" t="n">
         <v>4</v>
@@ -14470,13 +14470,13 @@
         <v>2.12</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R104" t="n">
         <v>1.43</v>
       </c>
       <c r="S104" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T104" t="n">
         <v>1.81</v>
@@ -14485,10 +14485,10 @@
         <v>2.18</v>
       </c>
       <c r="V104" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W104" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X104" t="n">
         <v>16</v>
@@ -14527,7 +14527,7 @@
         <v>65</v>
       </c>
       <c r="AJ104" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK104" t="n">
         <v>18</v>
@@ -14581,7 +14581,7 @@
         <v>3.45</v>
       </c>
       <c r="I105" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J105" t="n">
         <v>3.15</v>
@@ -14590,7 +14590,7 @@
         <v>3.25</v>
       </c>
       <c r="L105" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M105" t="n">
         <v>1.09</v>
@@ -14620,16 +14620,16 @@
         <v>1.92</v>
       </c>
       <c r="V105" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W105" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X105" t="n">
         <v>11.5</v>
       </c>
       <c r="Y105" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z105" t="n">
         <v>29</v>
@@ -14638,25 +14638,25 @@
         <v>85</v>
       </c>
       <c r="AB105" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC105" t="n">
         <v>8.6</v>
       </c>
       <c r="AD105" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE105" t="n">
         <v>55</v>
       </c>
       <c r="AF105" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG105" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH105" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI105" t="n">
         <v>75</v>
@@ -14665,16 +14665,16 @@
         <v>38</v>
       </c>
       <c r="AK105" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL105" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM105" t="n">
         <v>150</v>
       </c>
       <c r="AN105" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO105" t="n">
         <v>70</v>
@@ -14749,7 +14749,7 @@
         <v>4.3</v>
       </c>
       <c r="T106" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U106" t="n">
         <v>1.99</v>
@@ -14764,7 +14764,7 @@
         <v>10.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z106" t="n">
         <v>25</v>
@@ -14779,16 +14779,16 @@
         <v>7.6</v>
       </c>
       <c r="AD106" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE106" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF106" t="n">
         <v>16</v>
       </c>
       <c r="AG106" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH106" t="n">
         <v>21</v>
@@ -14845,13 +14845,13 @@
         <v>2.52</v>
       </c>
       <c r="G107" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H107" t="n">
         <v>2.94</v>
       </c>
       <c r="I107" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J107" t="n">
         <v>3.1</v>
@@ -14890,10 +14890,10 @@
         <v>1.97</v>
       </c>
       <c r="V107" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W107" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X107" t="n">
         <v>13</v>
@@ -14980,16 +14980,16 @@
         <v>1.94</v>
       </c>
       <c r="G108" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J108" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I108" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3.25</v>
       </c>
       <c r="K108" t="n">
         <v>4.1</v>
@@ -15001,7 +15001,7 @@
         <v>1.06</v>
       </c>
       <c r="N108" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O108" t="n">
         <v>1.28</v>
@@ -15010,10 +15010,10 @@
         <v>2</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R108" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="S108" t="n">
         <v>3.05</v>
@@ -15028,7 +15028,7 @@
         <v>1.29</v>
       </c>
       <c r="W108" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X108" t="n">
         <v>1000</v>
@@ -15079,7 +15079,7 @@
         <v>110</v>
       </c>
       <c r="AN108" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO108" t="n">
         <v>55</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G109" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="H109" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I109" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J109" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K109" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L109" t="n">
         <v>1.35</v>
@@ -15136,7 +15136,7 @@
         <v>1.06</v>
       </c>
       <c r="N109" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O109" t="n">
         <v>1.35</v>
@@ -15160,10 +15160,10 @@
         <v>1.83</v>
       </c>
       <c r="V109" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W109" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X109" t="n">
         <v>970</v>
@@ -15184,10 +15184,10 @@
         <v>970</v>
       </c>
       <c r="AD109" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE109" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF109" t="n">
         <v>970</v>
@@ -15196,10 +15196,10 @@
         <v>970</v>
       </c>
       <c r="AH109" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI109" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ109" t="n">
         <v>970</v>
@@ -15250,19 +15250,19 @@
         <v>2.76</v>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H110" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I110" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J110" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="K110" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L110" t="n">
         <v>1.52</v>
@@ -15280,7 +15280,7 @@
         <v>1.59</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R110" t="n">
         <v>1.21</v>
@@ -15289,16 +15289,16 @@
         <v>4.3</v>
       </c>
       <c r="T110" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U110" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V110" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W110" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="X110" t="n">
         <v>11</v>
@@ -15388,10 +15388,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I111" t="n">
         <v>1.39</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.41</v>
       </c>
       <c r="J111" t="n">
         <v>5.9</v>
@@ -15415,13 +15415,13 @@
         <v>2.8</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R111" t="n">
         <v>1.72</v>
       </c>
       <c r="S111" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T111" t="n">
         <v>1.78</v>
@@ -15430,13 +15430,13 @@
         <v>2.1</v>
       </c>
       <c r="V111" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="W111" t="n">
         <v>1.12</v>
       </c>
       <c r="X111" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y111" t="n">
         <v>12.5</v>
@@ -15451,13 +15451,13 @@
         <v>38</v>
       </c>
       <c r="AC111" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD111" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE111" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF111" t="n">
         <v>90</v>
@@ -15466,28 +15466,28 @@
         <v>32</v>
       </c>
       <c r="AH111" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI111" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ111" t="n">
         <v>270</v>
       </c>
       <c r="AK111" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL111" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM111" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN111" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AO111" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="112">
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G112" t="n">
         <v>1.81</v>
@@ -15526,7 +15526,7 @@
         <v>4.5</v>
       </c>
       <c r="I112" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J112" t="n">
         <v>4.2</v>
@@ -15538,7 +15538,7 @@
         <v>1.01</v>
       </c>
       <c r="M112" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N112" t="n">
         <v>5.2</v>
@@ -15547,19 +15547,19 @@
         <v>1.2</v>
       </c>
       <c r="P112" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q112" t="n">
         <v>1.6</v>
       </c>
       <c r="R112" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S112" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T112" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="U112" t="n">
         <v>2.32</v>
@@ -15922,22 +15922,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G115" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H115" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I115" t="n">
         <v>6</v>
       </c>
-      <c r="I115" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J115" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K115" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K115" t="n">
-        <v>4.1</v>
       </c>
       <c r="L115" t="n">
         <v>1.46</v>
@@ -15949,31 +15949,31 @@
         <v>3.75</v>
       </c>
       <c r="O115" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P115" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R115" t="n">
         <v>1.35</v>
       </c>
       <c r="S115" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T115" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U115" t="n">
         <v>1.93</v>
       </c>
       <c r="V115" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W115" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="X115" t="n">
         <v>14</v>
@@ -15985,7 +15985,7 @@
         <v>48</v>
       </c>
       <c r="AA115" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB115" t="n">
         <v>8</v>
@@ -15994,25 +15994,25 @@
         <v>8.6</v>
       </c>
       <c r="AD115" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE115" t="n">
         <v>90</v>
       </c>
       <c r="AF115" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG115" t="n">
         <v>10</v>
       </c>
       <c r="AH115" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI115" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ115" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK115" t="n">
         <v>18.5</v>
@@ -16024,7 +16024,7 @@
         <v>140</v>
       </c>
       <c r="AN115" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO115" t="n">
         <v>120</v>
@@ -16057,31 +16057,31 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G116" t="n">
         <v>3.2</v>
       </c>
       <c r="H116" t="n">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="I116" t="n">
         <v>3.6</v>
       </c>
       <c r="J116" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="K116" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L116" t="n">
         <v>1.46</v>
       </c>
       <c r="M116" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N116" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O116" t="n">
         <v>1.46</v>
@@ -16096,13 +16096,13 @@
         <v>1.22</v>
       </c>
       <c r="S116" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T116" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U116" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V116" t="n">
         <v>1.38</v>
@@ -16111,7 +16111,7 @@
         <v>1.45</v>
       </c>
       <c r="X116" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y116" t="n">
         <v>11</v>
@@ -16126,7 +16126,7 @@
         <v>10.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD116" t="n">
         <v>1000</v>
@@ -16141,7 +16141,7 @@
         <v>15</v>
       </c>
       <c r="AH116" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI116" t="n">
         <v>75</v>
@@ -16156,7 +16156,7 @@
         <v>1000</v>
       </c>
       <c r="AM116" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN116" t="n">
         <v>1000</v>
@@ -16192,10 +16192,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G117" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H117" t="n">
         <v>8.6</v>
@@ -16207,7 +16207,7 @@
         <v>4.4</v>
       </c>
       <c r="K117" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="L117" t="n">
         <v>1.3</v>
@@ -16243,7 +16243,7 @@
         <v>1.01</v>
       </c>
       <c r="W117" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X117" t="n">
         <v>1000</v>
@@ -16330,13 +16330,13 @@
         <v>4.3</v>
       </c>
       <c r="G118" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H118" t="n">
         <v>1.84</v>
       </c>
       <c r="I118" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
         <v>3.5</v>
@@ -16360,7 +16360,7 @@
         <v>2.02</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R118" t="n">
         <v>1.39</v>
@@ -16375,7 +16375,7 @@
         <v>2.12</v>
       </c>
       <c r="V118" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="W118" t="n">
         <v>1.23</v>
@@ -16468,7 +16468,7 @@
         <v>4.8</v>
       </c>
       <c r="H119" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="I119" t="n">
         <v>1.84</v>
@@ -16624,10 +16624,10 @@
         <v>3.4</v>
       </c>
       <c r="O120" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P120" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q120" t="n">
         <v>2.12</v>
@@ -16666,7 +16666,7 @@
         <v>7.6</v>
       </c>
       <c r="AC120" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD120" t="n">
         <v>32</v>
@@ -16693,7 +16693,7 @@
         <v>20</v>
       </c>
       <c r="AL120" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM120" t="n">
         <v>210</v>
@@ -16741,7 +16741,7 @@
         <v>4.3</v>
       </c>
       <c r="I121" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J121" t="n">
         <v>3.4</v>
@@ -16753,31 +16753,31 @@
         <v>1.45</v>
       </c>
       <c r="M121" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N121" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O121" t="n">
         <v>1.38</v>
       </c>
       <c r="P121" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R121" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S121" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T121" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U121" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="V121" t="n">
         <v>1.27</v>
@@ -16786,58 +16786,58 @@
         <v>1.92</v>
       </c>
       <c r="X121" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y121" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z121" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AA121" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB121" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AC121" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG121" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD121" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH121" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI121" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO121" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO121" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="122">
@@ -16873,13 +16873,13 @@
         <v>3.1</v>
       </c>
       <c r="H122" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I122" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J122" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K122" t="n">
         <v>3.25</v>
@@ -16894,13 +16894,13 @@
         <v>3.05</v>
       </c>
       <c r="O122" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P122" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R122" t="n">
         <v>1.24</v>
@@ -16912,10 +16912,10 @@
         <v>2.02</v>
       </c>
       <c r="U122" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V122" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W122" t="n">
         <v>1.47</v>
@@ -16933,13 +16933,13 @@
         <v>44</v>
       </c>
       <c r="AB122" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC122" t="n">
         <v>7</v>
       </c>
       <c r="AD122" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE122" t="n">
         <v>36</v>
@@ -17017,7 +17017,7 @@
         <v>3.15</v>
       </c>
       <c r="K123" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L123" t="n">
         <v>1.35</v>
@@ -17041,7 +17041,7 @@
         <v>1.09</v>
       </c>
       <c r="S123" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="T123" t="n">
         <v>1.01</v>
@@ -17146,7 +17146,7 @@
         <v>1.76</v>
       </c>
       <c r="I124" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="J124" t="n">
         <v>3.95</v>
@@ -17185,7 +17185,7 @@
         <v>1.95</v>
       </c>
       <c r="V124" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="W124" t="n">
         <v>1.24</v>
@@ -17335,7 +17335,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AA125" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB125" t="n">
         <v>25</v>
@@ -17407,19 +17407,19 @@
         </is>
       </c>
       <c r="F126" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G126" t="n">
         <v>3.75</v>
       </c>
-      <c r="G126" t="n">
-        <v>3.8</v>
-      </c>
       <c r="H126" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I126" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="J126" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K126" t="n">
         <v>3.6</v>
@@ -17434,7 +17434,7 @@
         <v>3.55</v>
       </c>
       <c r="O126" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P126" t="n">
         <v>1.85</v>
@@ -17443,34 +17443,34 @@
         <v>2.14</v>
       </c>
       <c r="R126" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S126" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T126" t="n">
         <v>1.89</v>
       </c>
       <c r="U126" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V126" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W126" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X126" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y126" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z126" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA126" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB126" t="n">
         <v>13</v>
@@ -17506,13 +17506,13 @@
         <v>60</v>
       </c>
       <c r="AM126" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN126" t="n">
         <v>55</v>
       </c>
       <c r="AO126" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="127">
@@ -17545,13 +17545,13 @@
         <v>4</v>
       </c>
       <c r="G127" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I127" t="n">
         <v>1.96</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1.97</v>
       </c>
       <c r="J127" t="n">
         <v>4</v>
@@ -17572,28 +17572,28 @@
         <v>1.2</v>
       </c>
       <c r="P127" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R127" t="n">
         <v>1.64</v>
       </c>
       <c r="S127" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T127" t="n">
         <v>1.58</v>
       </c>
       <c r="U127" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V127" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W127" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X127" t="n">
         <v>24</v>
@@ -17605,7 +17605,7 @@
         <v>14.5</v>
       </c>
       <c r="AA127" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB127" t="n">
         <v>21</v>
@@ -17677,76 +17677,76 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="G128" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="I128" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="J128" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K128" t="n">
         <v>4</v>
       </c>
       <c r="L128" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M128" t="n">
         <v>1.05</v>
       </c>
       <c r="N128" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O128" t="n">
         <v>1.24</v>
       </c>
       <c r="P128" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="R128" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S128" t="n">
         <v>2.84</v>
       </c>
       <c r="T128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V128" t="n">
         <v>1.57</v>
       </c>
-      <c r="U128" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V128" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W128" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X128" t="n">
         <v>22</v>
       </c>
       <c r="Y128" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z128" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA128" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AB128" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC128" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD128" t="n">
         <v>14</v>
@@ -17755,31 +17755,31 @@
         <v>28</v>
       </c>
       <c r="AF128" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG128" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH128" t="n">
         <v>970</v>
       </c>
       <c r="AI128" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ128" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK128" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AL128" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM128" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN128" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO128" t="n">
         <v>18.5</v>
@@ -17842,43 +17842,43 @@
         <v>1.2</v>
       </c>
       <c r="P129" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q129" t="n">
         <v>1.59</v>
       </c>
       <c r="R129" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S129" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="T129" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U129" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V129" t="n">
         <v>1.11</v>
       </c>
       <c r="W129" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X129" t="n">
         <v>30</v>
       </c>
       <c r="Y129" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z129" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA129" t="n">
         <v>300</v>
       </c>
       <c r="AB129" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC129" t="n">
         <v>15</v>
@@ -17887,13 +17887,13 @@
         <v>38</v>
       </c>
       <c r="AE129" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF129" t="n">
         <v>12</v>
       </c>
       <c r="AG129" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH129" t="n">
         <v>28</v>
@@ -17905,13 +17905,13 @@
         <v>15.5</v>
       </c>
       <c r="AK129" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL129" t="n">
         <v>40</v>
       </c>
       <c r="AM129" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN129" t="n">
         <v>6.6</v>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G131" t="n">
         <v>1.68</v>
@@ -18094,19 +18094,19 @@
         <v>7.2</v>
       </c>
       <c r="J131" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K131" t="n">
         <v>4.5</v>
       </c>
       <c r="L131" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M131" t="n">
         <v>1.06</v>
       </c>
       <c r="N131" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O131" t="n">
         <v>1.32</v>
@@ -18148,7 +18148,7 @@
         <v>250</v>
       </c>
       <c r="AB131" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC131" t="n">
         <v>11.5</v>
@@ -18217,16 +18217,16 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G132" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H132" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I132" t="n">
         <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2.04</v>
       </c>
       <c r="J132" t="n">
         <v>4</v>
@@ -18241,7 +18241,7 @@
         <v>1.05</v>
       </c>
       <c r="N132" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O132" t="n">
         <v>1.24</v>
@@ -18259,34 +18259,34 @@
         <v>2.78</v>
       </c>
       <c r="T132" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U132" t="n">
         <v>2.44</v>
       </c>
       <c r="V132" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W132" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X132" t="n">
         <v>21</v>
       </c>
       <c r="Y132" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z132" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA132" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB132" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC132" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD132" t="n">
         <v>10.5</v>
@@ -18295,10 +18295,10 @@
         <v>18.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG132" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH132" t="n">
         <v>16.5</v>
@@ -18307,22 +18307,22 @@
         <v>29</v>
       </c>
       <c r="AJ132" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK132" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL132" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM132" t="n">
         <v>70</v>
       </c>
       <c r="AN132" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO132" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="133">
@@ -18352,37 +18352,37 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G133" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="H133" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I133" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J133" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K133" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L133" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M133" t="n">
         <v>1.11</v>
       </c>
       <c r="N133" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O133" t="n">
         <v>1.51</v>
       </c>
       <c r="P133" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="Q133" t="n">
         <v>2.48</v>
@@ -18403,7 +18403,7 @@
         <v>1.17</v>
       </c>
       <c r="W133" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X133" t="n">
         <v>11</v>
@@ -18442,19 +18442,19 @@
         <v>160</v>
       </c>
       <c r="AJ133" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK133" t="n">
         <v>32</v>
       </c>
       <c r="AL133" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM133" t="n">
         <v>280</v>
       </c>
       <c r="AN133" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO133" t="n">
         <v>260</v>
@@ -18490,55 +18490,55 @@
         <v>13.5</v>
       </c>
       <c r="G134" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H134" t="n">
         <v>1.26</v>
       </c>
       <c r="I134" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="J134" t="n">
         <v>7</v>
       </c>
       <c r="K134" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L134" t="n">
         <v>1.3</v>
       </c>
       <c r="M134" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N134" t="n">
         <v>5.5</v>
       </c>
       <c r="O134" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P134" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="R134" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S134" t="n">
         <v>2.46</v>
       </c>
       <c r="T134" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U134" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V134" t="n">
         <v>4.6</v>
       </c>
       <c r="W134" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X134" t="n">
         <v>27</v>
@@ -18565,28 +18565,28 @@
         <v>14</v>
       </c>
       <c r="AF134" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AG134" t="n">
         <v>90</v>
       </c>
       <c r="AH134" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI134" t="n">
         <v>42</v>
       </c>
       <c r="AJ134" t="n">
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="AK134" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AL134" t="n">
         <v>200</v>
       </c>
       <c r="AM134" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN134" t="n">
         <v>360</v>
@@ -18622,22 +18622,22 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H135" t="n">
         <v>4.1</v>
       </c>
       <c r="I135" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J135" t="n">
         <v>3.4</v>
       </c>
       <c r="K135" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L135" t="n">
         <v>1.01</v>
@@ -18652,7 +18652,7 @@
         <v>1.38</v>
       </c>
       <c r="P135" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q135" t="n">
         <v>2.12</v>
@@ -18661,19 +18661,19 @@
         <v>1.3</v>
       </c>
       <c r="S135" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T135" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U135" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V135" t="n">
         <v>1.28</v>
       </c>
       <c r="W135" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X135" t="n">
         <v>12.5</v>
@@ -18685,7 +18685,7 @@
         <v>32</v>
       </c>
       <c r="AA135" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB135" t="n">
         <v>8.6</v>
@@ -18694,10 +18694,10 @@
         <v>7.8</v>
       </c>
       <c r="AD135" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE135" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF135" t="n">
         <v>12.5</v>
@@ -18727,7 +18727,7 @@
         <v>19</v>
       </c>
       <c r="AO135" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136">
@@ -18760,16 +18760,16 @@
         <v>2.3</v>
       </c>
       <c r="G136" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H136" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I136" t="n">
         <v>3.15</v>
       </c>
       <c r="J136" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K136" t="n">
         <v>4.2</v>
@@ -18790,7 +18790,7 @@
         <v>2.32</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R136" t="n">
         <v>1.53</v>
@@ -18799,7 +18799,7 @@
         <v>2.52</v>
       </c>
       <c r="T136" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U136" t="n">
         <v>2.44</v>
@@ -18808,7 +18808,7 @@
         <v>1.46</v>
       </c>
       <c r="W136" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X136" t="n">
         <v>26</v>
@@ -18892,97 +18892,97 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="G137" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="I137" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J137" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K137" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="L137" t="n">
         <v>1.01</v>
       </c>
       <c r="M137" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N137" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="O137" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P137" t="n">
         <v>1.61</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R137" t="n">
         <v>1.22</v>
       </c>
       <c r="S137" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T137" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U137" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="V137" t="n">
         <v>1.54</v>
       </c>
       <c r="W137" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="X137" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB137" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Y137" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z137" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA137" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB137" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="AC137" t="n">
         <v>7.4</v>
       </c>
       <c r="AD137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG137" t="n">
         <v>970</v>
       </c>
-      <c r="AE137" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH137" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI137" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ137" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK137" t="n">
         <v>42</v>
@@ -18991,13 +18991,13 @@
         <v>65</v>
       </c>
       <c r="AM137" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN137" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO137" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138">
@@ -19030,19 +19030,19 @@
         <v>1.26</v>
       </c>
       <c r="G138" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H138" t="n">
         <v>12</v>
       </c>
       <c r="I138" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J138" t="n">
         <v>7</v>
       </c>
       <c r="K138" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L138" t="n">
         <v>1.23</v>
@@ -19054,31 +19054,31 @@
         <v>7</v>
       </c>
       <c r="O138" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P138" t="n">
         <v>3.05</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R138" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S138" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T138" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U138" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V138" t="n">
         <v>1.08</v>
       </c>
       <c r="W138" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X138" t="n">
         <v>36</v>
@@ -19102,7 +19102,7 @@
         <v>46</v>
       </c>
       <c r="AE138" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF138" t="n">
         <v>9.800000000000001</v>
@@ -19111,7 +19111,7 @@
         <v>11.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI138" t="n">
         <v>150</v>
@@ -19126,7 +19126,7 @@
         <v>30</v>
       </c>
       <c r="AM138" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN138" t="n">
         <v>3.7</v>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
         <v>2.56</v>
@@ -19171,13 +19171,13 @@
         <v>3.2</v>
       </c>
       <c r="I139" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J139" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K139" t="n">
-        <v>110</v>
+        <v>5.4</v>
       </c>
       <c r="L139" t="n">
         <v>1.01</v>
@@ -19186,16 +19186,16 @@
         <v>1.01</v>
       </c>
       <c r="N139" t="n">
-        <v>1.95</v>
+        <v>3.7</v>
       </c>
       <c r="O139" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P139" t="n">
         <v>1.95</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R139" t="n">
         <v>1.36</v>
@@ -19204,7 +19204,7 @@
         <v>2.66</v>
       </c>
       <c r="T139" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U139" t="n">
         <v>2.1</v>
@@ -19300,13 +19300,13 @@
         <v>1.84</v>
       </c>
       <c r="G140" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H140" t="n">
         <v>4.2</v>
       </c>
       <c r="I140" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J140" t="n">
         <v>4.3</v>
@@ -19321,34 +19321,34 @@
         <v>1.03</v>
       </c>
       <c r="N140" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O140" t="n">
         <v>1.19</v>
       </c>
       <c r="P140" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R140" t="n">
         <v>1.67</v>
       </c>
       <c r="S140" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T140" t="n">
         <v>1.58</v>
       </c>
       <c r="U140" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V140" t="n">
         <v>1.29</v>
       </c>
       <c r="W140" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X140" t="n">
         <v>25</v>
@@ -19384,7 +19384,7 @@
         <v>15.5</v>
       </c>
       <c r="AI140" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ140" t="n">
         <v>22</v>
@@ -19399,7 +19399,7 @@
         <v>70</v>
       </c>
       <c r="AN140" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO140" t="n">
         <v>32</v>
@@ -19432,13 +19432,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G141" t="n">
         <v>2.08</v>
       </c>
       <c r="H141" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I141" t="n">
         <v>3.95</v>
@@ -19447,19 +19447,19 @@
         <v>3.8</v>
       </c>
       <c r="K141" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L141" t="n">
         <v>1.28</v>
       </c>
       <c r="M141" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N141" t="n">
         <v>4.5</v>
       </c>
       <c r="O141" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P141" t="n">
         <v>2.22</v>
@@ -19567,16 +19567,16 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G142" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I142" t="n">
         <v>2.22</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2.24</v>
       </c>
       <c r="J142" t="n">
         <v>3.1</v>
@@ -19591,16 +19591,16 @@
         <v>1.14</v>
       </c>
       <c r="N142" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O142" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P142" t="n">
         <v>1.53</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="R142" t="n">
         <v>1.19</v>
@@ -19612,13 +19612,13 @@
         <v>2.28</v>
       </c>
       <c r="U142" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V142" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W142" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X142" t="n">
         <v>8</v>
@@ -19627,13 +19627,13 @@
         <v>7</v>
       </c>
       <c r="Z142" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA142" t="n">
         <v>29</v>
       </c>
       <c r="AB142" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC142" t="n">
         <v>7</v>
@@ -19645,10 +19645,10 @@
         <v>32</v>
       </c>
       <c r="AF142" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG142" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH142" t="n">
         <v>26</v>
@@ -19714,7 +19714,7 @@
         <v>1.9</v>
       </c>
       <c r="J143" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K143" t="n">
         <v>3.45</v>
@@ -19732,10 +19732,10 @@
         <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="R143" t="n">
         <v>0</v>
@@ -19837,7 +19837,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G144" t="n">
         <v>1.37</v>
@@ -19879,16 +19879,16 @@
         <v>2.2</v>
       </c>
       <c r="T144" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U144" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V144" t="n">
         <v>1.1</v>
       </c>
       <c r="W144" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X144" t="n">
         <v>30</v>
@@ -19912,7 +19912,7 @@
         <v>36</v>
       </c>
       <c r="AE144" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF144" t="n">
         <v>10</v>
@@ -19921,7 +19921,7 @@
         <v>11</v>
       </c>
       <c r="AH144" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI144" t="n">
         <v>120</v>
@@ -19975,22 +19975,22 @@
         <v>3.8</v>
       </c>
       <c r="G145" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I145" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J145" t="n">
         <v>4.1</v>
       </c>
       <c r="K145" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L145" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M145" t="n">
         <v>1.03</v>
@@ -20002,58 +20002,58 @@
         <v>1.16</v>
       </c>
       <c r="P145" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R145" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S145" t="n">
         <v>2.24</v>
       </c>
       <c r="T145" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U145" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="V145" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W145" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X145" t="n">
         <v>27</v>
       </c>
       <c r="Y145" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z145" t="n">
         <v>16</v>
       </c>
       <c r="AA145" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB145" t="n">
         <v>24</v>
       </c>
       <c r="AC145" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD145" t="n">
         <v>10.5</v>
       </c>
       <c r="AE145" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF145" t="n">
         <v>34</v>
       </c>
       <c r="AG145" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH145" t="n">
         <v>14.5</v>
@@ -20062,10 +20062,10 @@
         <v>24</v>
       </c>
       <c r="AJ145" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK145" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL145" t="n">
         <v>36</v>
@@ -20077,7 +20077,7 @@
         <v>22</v>
       </c>
       <c r="AO145" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="146">
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G146" t="n">
         <v>2.92</v>
@@ -20116,10 +20116,10 @@
         <v>2.88</v>
       </c>
       <c r="I146" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J146" t="n">
         <v>3.05</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.1</v>
       </c>
       <c r="K146" t="n">
         <v>3.3</v>
@@ -20131,7 +20131,7 @@
         <v>1.09</v>
       </c>
       <c r="N146" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O146" t="n">
         <v>1.46</v>
@@ -20149,7 +20149,7 @@
         <v>4.5</v>
       </c>
       <c r="T146" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U146" t="n">
         <v>1.94</v>
@@ -20170,7 +20170,7 @@
         <v>24</v>
       </c>
       <c r="AA146" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB146" t="n">
         <v>11.5</v>
@@ -20254,10 +20254,10 @@
         <v>3.7</v>
       </c>
       <c r="J147" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K147" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K147" t="n">
-        <v>3.95</v>
       </c>
       <c r="L147" t="n">
         <v>1.3</v>
@@ -20272,13 +20272,13 @@
         <v>1.22</v>
       </c>
       <c r="P147" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q147" t="n">
         <v>1.67</v>
       </c>
       <c r="R147" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S147" t="n">
         <v>2.66</v>
@@ -20287,7 +20287,7 @@
         <v>1.6</v>
       </c>
       <c r="U147" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V147" t="n">
         <v>1.37</v>
@@ -20377,22 +20377,22 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G148" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H148" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I148" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J148" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K148" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L148" t="n">
         <v>1.45</v>
@@ -20407,10 +20407,10 @@
         <v>1.37</v>
       </c>
       <c r="P148" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R148" t="n">
         <v>1.31</v>
@@ -20419,16 +20419,16 @@
         <v>3.9</v>
       </c>
       <c r="T148" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U148" t="n">
         <v>2.1</v>
       </c>
       <c r="V148" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W148" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X148" t="n">
         <v>15</v>
@@ -20437,7 +20437,7 @@
         <v>13</v>
       </c>
       <c r="Z148" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA148" t="n">
         <v>60</v>
@@ -20455,10 +20455,10 @@
         <v>42</v>
       </c>
       <c r="AF148" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG148" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH148" t="n">
         <v>19.5</v>
@@ -20467,10 +20467,10 @@
         <v>55</v>
       </c>
       <c r="AJ148" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK148" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL148" t="n">
         <v>48</v>
@@ -20479,10 +20479,10 @@
         <v>110</v>
       </c>
       <c r="AN148" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO148" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G150" t="n">
         <v>4.3</v>
@@ -20656,7 +20656,7 @@
         <v>2.3</v>
       </c>
       <c r="I150" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="J150" t="n">
         <v>3</v>
@@ -20668,34 +20668,34 @@
         <v>1.01</v>
       </c>
       <c r="M150" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N150" t="n">
-        <v>2.52</v>
+        <v>1.41</v>
       </c>
       <c r="O150" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="P150" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Q150" t="n">
         <v>2.62</v>
       </c>
       <c r="R150" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="S150" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="T150" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="U150" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="V150" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W150" t="n">
         <v>1.32</v>
@@ -20737,7 +20737,7 @@
         <v>90</v>
       </c>
       <c r="AJ150" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK150" t="n">
         <v>75</v>
@@ -20782,19 +20782,19 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H151" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I151" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="J151" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K151" t="n">
         <v>3</v>
@@ -20830,7 +20830,7 @@
         <v>1.01</v>
       </c>
       <c r="V151" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W151" t="n">
         <v>1.27</v>
@@ -20839,43 +20839,43 @@
         <v>8.6</v>
       </c>
       <c r="Y151" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z151" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA151" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB151" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC151" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD151" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE151" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF151" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG151" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH151" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI151" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ151" t="n">
         <v>1000</v>
       </c>
       <c r="AK151" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL151" t="n">
         <v>1000</v>
@@ -21052,22 +21052,22 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G153" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="H153" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I153" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J153" t="n">
-        <v>2.26</v>
+        <v>1.03</v>
       </c>
       <c r="K153" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L153" t="n">
         <v>1.01</v>
@@ -21076,13 +21076,13 @@
         <v>1.01</v>
       </c>
       <c r="N153" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="O153" t="n">
         <v>1.4</v>
       </c>
       <c r="P153" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q153" t="n">
         <v>2.02</v>
@@ -21097,58 +21097,58 @@
         <v>1.01</v>
       </c>
       <c r="U153" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V153" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W153" t="n">
         <v>1.01</v>
       </c>
-      <c r="V153" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W153" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X153" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y153" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z153" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA153" t="n">
         <v>1000</v>
       </c>
       <c r="AB153" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC153" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD153" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE153" t="n">
         <v>1000</v>
       </c>
       <c r="AF153" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG153" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH153" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI153" t="n">
         <v>1000</v>
       </c>
       <c r="AJ153" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK153" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL153" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM153" t="n">
         <v>1000</v>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G154" t="n">
         <v>3.8</v>
@@ -21202,7 +21202,7 @@
         <v>2.68</v>
       </c>
       <c r="K154" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L154" t="n">
         <v>1.01</v>
@@ -21211,22 +21211,22 @@
         <v>1.01</v>
       </c>
       <c r="N154" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O154" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="P154" t="n">
         <v>1.54</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="R154" t="n">
         <v>1.16</v>
       </c>
       <c r="S154" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T154" t="n">
         <v>1.86</v>
@@ -21475,7 +21475,7 @@
         <v>3.3</v>
       </c>
       <c r="L156" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M156" t="n">
         <v>1.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sportivo San Lorenzo</t>
+          <t>Atletico Choloma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="J2" t="n">
-        <v>17.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="O2" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
@@ -709,16 +709,16 @@
         <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>16.5</v>
+        <v>2.72</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AC2" t="n">
-        <v>55</v>
+        <v>680</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>620</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G3" t="n">
         <v>7</v>
       </c>
-      <c r="G3" t="n">
-        <v>7.8</v>
-      </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="K3" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="S3" t="n">
-        <v>12.5</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -850,55 +850,55 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
         <v>1.26</v>
       </c>
-      <c r="W3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AD3" t="n">
-        <v>5.5</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>150</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>44</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>700</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,34 +961,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>8.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.33</v>
+        <v>4.7</v>
       </c>
       <c r="U4" t="n">
-        <v>3.8</v>
+        <v>1.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>50</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,52 +1003,52 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>6.4</v>
       </c>
-      <c r="AD4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>29</v>
-      </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>960</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Juticalpa</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atletico Choloma</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>2.64</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="P5" t="n">
-        <v>2.68</v>
+        <v>1.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>2.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.69</v>
       </c>
-      <c r="U5" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>8.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
         <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.2</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>48</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.93</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>2.16</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="O6" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="P6" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.81</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AM6" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,531 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>3.15</v>
+        <v>1.84</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.92</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.64</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.2</v>
       </c>
-      <c r="S7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.52</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.46</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.6</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>60</v>
-      </c>
       <c r="AK7" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AN7" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-24</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rosario Central</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Belgrano</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-24</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Boyaca Chico</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>310</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>180</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-24</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
